--- a/data/planning/test39.xlsx
+++ b/data/planning/test39.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/data/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9673BF59-545A-499F-AF8A-10E2B635A591}"/>
+  <xr:revisionPtr revIDLastSave="614" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EEEEF13-B23B-41FA-BAA1-B35392372EDB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
+    <workbookView xWindow="12240" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
   </bookViews>
   <sheets>
     <sheet name="cand" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cand!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">demand!$A$1:$H$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">demand!$A$1:$Y$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -330,6 +330,162 @@
   </si>
   <si>
     <t>0.2;</t>
+  </si>
+  <si>
+    <t>Operating conditions</t>
+  </si>
+  <si>
+    <t>rho_o4</t>
+  </si>
+  <si>
+    <t>rho_o5</t>
+  </si>
+  <si>
+    <t>rho_o6</t>
+  </si>
+  <si>
+    <t>rho_o7</t>
+  </si>
+  <si>
+    <t>rho_o8</t>
+  </si>
+  <si>
+    <t>rho_o9</t>
+  </si>
+  <si>
+    <t>rho_o10</t>
+  </si>
+  <si>
+    <t>rho_o11</t>
+  </si>
+  <si>
+    <t>rho_o12</t>
+  </si>
+  <si>
+    <t>rho_o13</t>
+  </si>
+  <si>
+    <t>rho_o14</t>
+  </si>
+  <si>
+    <t>rho_o15</t>
+  </si>
+  <si>
+    <t>rho_o16</t>
+  </si>
+  <si>
+    <t>rho_o17</t>
+  </si>
+  <si>
+    <t>rho_o18</t>
+  </si>
+  <si>
+    <t>rho_o19</t>
+  </si>
+  <si>
+    <t>rho_o20</t>
+  </si>
+  <si>
+    <t>Load_t1_o4</t>
+  </si>
+  <si>
+    <t>Load_t1_o5</t>
+  </si>
+  <si>
+    <t>Load_t1_o6</t>
+  </si>
+  <si>
+    <t>Load_t1_o7</t>
+  </si>
+  <si>
+    <t>Load_t1_o8</t>
+  </si>
+  <si>
+    <t>Load_t1_o9</t>
+  </si>
+  <si>
+    <t>Load_t1_o10</t>
+  </si>
+  <si>
+    <t>Load_t1_o11</t>
+  </si>
+  <si>
+    <t>Load_t1_o12</t>
+  </si>
+  <si>
+    <t>Load_t1_o13</t>
+  </si>
+  <si>
+    <t>Load_t1_o14</t>
+  </si>
+  <si>
+    <t>Load_t1_o15</t>
+  </si>
+  <si>
+    <t>Load_t1_o16</t>
+  </si>
+  <si>
+    <t>Load_t1_o17</t>
+  </si>
+  <si>
+    <t>Load_t1_o18</t>
+  </si>
+  <si>
+    <t>Load_t1_o19</t>
+  </si>
+  <si>
+    <t>Load_t1_o20</t>
+  </si>
+  <si>
+    <t>Load_t2_o4</t>
+  </si>
+  <si>
+    <t>Load_t2_o5</t>
+  </si>
+  <si>
+    <t>Load_t2_o6</t>
+  </si>
+  <si>
+    <t>Load_t2_o7</t>
+  </si>
+  <si>
+    <t>Load_t2_o8</t>
+  </si>
+  <si>
+    <t>Load_t2_o9</t>
+  </si>
+  <si>
+    <t>Load_t2_o10</t>
+  </si>
+  <si>
+    <t>Load_t2_o11</t>
+  </si>
+  <si>
+    <t>Load_t2_o12</t>
+  </si>
+  <si>
+    <t>Load_t2_o13</t>
+  </si>
+  <si>
+    <t>Load_t2_o14</t>
+  </si>
+  <si>
+    <t>Load_t2_o15</t>
+  </si>
+  <si>
+    <t>Load_t2_o16</t>
+  </si>
+  <si>
+    <t>Load_t2_o17</t>
+  </si>
+  <si>
+    <t>Load_t2_o18</t>
+  </si>
+  <si>
+    <t>Load_t2_o19</t>
+  </si>
+  <si>
+    <t>Load_t2_o20</t>
   </si>
 </sst>
 </file>
@@ -380,12 +536,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -402,10 +557,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,23 +876,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6A976D-F179-4F10-87F2-DC7468625A48}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26171875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,367 +918,393 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>76255</v>
+        <v>65000</v>
       </c>
       <c r="F2">
-        <v>76255</v>
+        <v>65000</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>73073</v>
+        <v>63000</v>
       </c>
       <c r="F3">
-        <v>73073</v>
+        <v>63000</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>78706</v>
+        <v>53000</v>
       </c>
       <c r="F4">
-        <v>78706</v>
+        <v>53000</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>73899</v>
+        <v>70000</v>
       </c>
       <c r="F5">
-        <v>73899</v>
+        <v>70000</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>65030</v>
+        <v>65000</v>
       </c>
       <c r="F6">
-        <v>65030</v>
+        <v>65000</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>76071</v>
+        <v>59000</v>
       </c>
       <c r="F7">
-        <v>76071</v>
+        <v>59000</v>
       </c>
       <c r="G7">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>67787</v>
+        <v>63000</v>
       </c>
       <c r="F8">
-        <v>67787</v>
+        <v>63000</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9">
-        <v>74293</v>
+        <v>63000</v>
       </c>
       <c r="F9">
-        <v>74293</v>
+        <v>63000</v>
       </c>
       <c r="G9">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>77497</v>
+        <v>56000</v>
       </c>
       <c r="F10">
-        <v>77497</v>
+        <v>56000</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>54677</v>
+        <v>70000</v>
       </c>
       <c r="F11">
-        <v>54677</v>
+        <v>70000</v>
       </c>
       <c r="G11">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>73672</v>
+        <v>63000</v>
       </c>
       <c r="F12">
-        <v>73672</v>
+        <v>63000</v>
       </c>
       <c r="G12">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>50840</v>
+        <v>63000</v>
       </c>
       <c r="F13">
-        <v>50840</v>
+        <v>63000</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>60395</v>
+        <v>60000</v>
       </c>
       <c r="F14">
-        <v>60395</v>
+        <v>60000</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>69000</v>
+      </c>
+      <c r="F15">
+        <v>69000</v>
+      </c>
+      <c r="G15">
+        <v>900</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>54830</v>
-      </c>
-      <c r="F15">
-        <v>54830</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
+      <c r="E16">
+        <v>54000</v>
+      </c>
+      <c r="F16">
+        <v>54000</v>
+      </c>
+      <c r="G16">
+        <v>900</v>
+      </c>
+      <c r="H16">
         <v>10</v>
       </c>
     </row>
@@ -1141,19 +1318,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DFBB61-B2BE-41CD-BA70-E595AD358926}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1187,7 +1364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1204,7 +1381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1221,7 +1398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1238,7 +1415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1255,7 +1432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1272,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1289,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1306,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1323,7 +1500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1350,19 +1527,19 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A47"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1390,13 +1567,14 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>243.30900243309003</v>
+        <f>1/(Sheet1!E64*(345000)^2/(100000000))*10000</f>
+        <v>204.41840154008827</v>
       </c>
       <c r="E2" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1407,13 +1585,14 @@
         <v>39</v>
       </c>
       <c r="D3" s="2">
-        <v>400</v>
+        <f>1/(Sheet1!E65*(345000)^2/(100000000))*10000</f>
+        <v>336.06385213190504</v>
       </c>
       <c r="E3" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1424,13 +1603,14 @@
         <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>662.25165562913901</v>
+        <f>1/(Sheet1!E66*(345000)^2/(100000000))*10000</f>
+        <v>556.3971061786508</v>
       </c>
       <c r="E4" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1441,13 +1621,14 @@
         <v>25</v>
       </c>
       <c r="D5" s="2">
-        <v>1162.7906976744184</v>
+        <f>1/(Sheet1!E67*(345000)^2/(100000000))*10000</f>
+        <v>976.92980270902638</v>
       </c>
       <c r="E5" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1458,13 +1639,14 @@
         <v>30</v>
       </c>
       <c r="D6" s="2">
-        <v>552.48618784530379</v>
+        <f>1/(Sheet1!E68*(345000)^2/(100000000))*10000</f>
+        <v>464.17659134241035</v>
       </c>
       <c r="E6" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1475,13 +1657,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="2">
-        <v>469.48356807511738</v>
+        <f>1/(Sheet1!E69*(345000)^2/(100000000))*10000</f>
+        <v>394.4411409998886</v>
       </c>
       <c r="E7" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1492,13 +1675,14 @@
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>751.87969924812035</v>
+        <f>1/(Sheet1!E70*(345000)^2/(100000000))*10000</f>
+        <v>631.69897017275389</v>
       </c>
       <c r="E8" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1509,13 +1693,14 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>781.25</v>
+        <f>1/(Sheet1!E71*(345000)^2/(100000000))*10000</f>
+        <v>656.37471119512713</v>
       </c>
       <c r="E9" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1526,13 +1711,14 @@
         <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>775.19379844961236</v>
+        <f>1/(Sheet1!E72*(345000)^2/(100000000))*10000</f>
+        <v>651.28653513935103</v>
       </c>
       <c r="E10" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1543,13 +1729,14 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>3846.1538461538466</v>
+        <f>1/(Sheet1!E73*(345000)^2/(100000000))*10000</f>
+        <v>3231.3831935760099</v>
       </c>
       <c r="E11" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1560,13 +1747,14 @@
         <v>8</v>
       </c>
       <c r="D12" s="2">
-        <v>892.85714285714289</v>
+        <f>1/(Sheet1!E74*(345000)^2/(100000000))*10000</f>
+        <v>750.14252708014521</v>
       </c>
       <c r="E12" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1577,13 +1765,14 @@
         <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>1086.9565217391305</v>
+        <f>1/(Sheet1!E75*(345000)^2/(100000000))*10000</f>
+        <v>913.2169894888724</v>
       </c>
       <c r="E13" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1594,13 +1783,14 @@
         <v>11</v>
       </c>
       <c r="D14" s="2">
-        <v>1219.5121951219512</v>
+        <f>1/(Sheet1!E76*(345000)^2/(100000000))*10000</f>
+        <v>1024.5849150362958</v>
       </c>
       <c r="E14" s="1">
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1611,13 +1801,14 @@
         <v>31</v>
       </c>
       <c r="D15" s="2">
-        <v>400</v>
+        <f>1/(Sheet1!E77*(345000)^2/(100000000))*10000</f>
+        <v>336.06385213190504</v>
       </c>
       <c r="E15" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1628,13 +1819,14 @@
         <v>8</v>
       </c>
       <c r="D16" s="2">
-        <v>2173.913043478261</v>
+        <f>1/(Sheet1!E78*(345000)^2/(100000000))*10000</f>
+        <v>1826.4339789777448</v>
       </c>
       <c r="E16" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1645,13 +1837,14 @@
         <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>275.48209366391183</v>
+        <f>1/(Sheet1!E79*(345000)^2/(100000000))*10000</f>
+        <v>231.44893397514122</v>
       </c>
       <c r="E17" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1662,13 +1855,14 @@
         <v>39</v>
       </c>
       <c r="D18" s="2">
-        <v>400</v>
+        <f>1/(Sheet1!E80*(345000)^2/(100000000))*10000</f>
+        <v>336.06385213190504</v>
       </c>
       <c r="E18" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1679,13 +1873,14 @@
         <v>11</v>
       </c>
       <c r="D19" s="2">
-        <v>2325.5813953488368</v>
+        <f>1/(Sheet1!E81*(345000)^2/(100000000))*10000</f>
+        <v>1953.8596054180528</v>
       </c>
       <c r="E19" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1696,13 +1891,14 @@
         <v>13</v>
       </c>
       <c r="D20" s="2">
-        <v>2325.5813953488368</v>
+        <f>1/(Sheet1!E82*(345000)^2/(100000000))*10000</f>
+        <v>1953.8596054180528</v>
       </c>
       <c r="E20" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1713,13 +1909,14 @@
         <v>32</v>
       </c>
       <c r="D21" s="2">
-        <v>500</v>
+        <f>1/(Sheet1!E83*(345000)^2/(100000000))*10000</f>
+        <v>420.07981516488132</v>
       </c>
       <c r="E21" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1730,13 +1927,14 @@
         <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>229.88505747126439</v>
+        <f>1/(Sheet1!E84*(345000)^2/(100000000))*10000</f>
+        <v>193.14014490339372</v>
       </c>
       <c r="E22" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1747,13 +1945,14 @@
         <v>13</v>
       </c>
       <c r="D23" s="2">
-        <v>229.88505747126439</v>
+        <f>1/(Sheet1!E85*(345000)^2/(100000000))*10000</f>
+        <v>193.14014490339372</v>
       </c>
       <c r="E23" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1764,13 +1963,14 @@
         <v>14</v>
       </c>
       <c r="D24" s="2">
-        <v>990.09900990099015</v>
+        <f>1/(Sheet1!E86*(345000)^2/(100000000))*10000</f>
+        <v>831.84121814827984</v>
       </c>
       <c r="E24" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1781,13 +1981,14 @@
         <v>15</v>
       </c>
       <c r="D25" s="2">
-        <v>460.82949308755758</v>
+        <f>1/(Sheet1!E87*(345000)^2/(100000000))*10000</f>
+        <v>387.17033655749429</v>
       </c>
       <c r="E25" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1798,13 +1999,14 @@
         <v>16</v>
       </c>
       <c r="D26" s="2">
-        <v>1063.8297872340424</v>
+        <f>1/(Sheet1!E88*(345000)^2/(100000000))*10000</f>
+        <v>893.7868407763433</v>
       </c>
       <c r="E26" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1815,13 +2017,14 @@
         <v>17</v>
       </c>
       <c r="D27" s="2">
-        <v>1123.5955056179776</v>
+        <f>1/(Sheet1!E89*(345000)^2/(100000000))*10000</f>
+        <v>943.99958464018277</v>
       </c>
       <c r="E27" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1832,13 +2035,14 @@
         <v>19</v>
       </c>
       <c r="D28" s="2">
-        <v>512.82051282051282</v>
+        <f>1/(Sheet1!E90*(345000)^2/(100000000))*10000</f>
+        <v>430.85109247680134</v>
       </c>
       <c r="E28" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1849,13 +2053,14 @@
         <v>21</v>
       </c>
       <c r="D29" s="2">
-        <v>740.74074074074076</v>
+        <f>1/(Sheet1!E91*(345000)^2/(100000000))*10000</f>
+        <v>622.34046691093533</v>
       </c>
       <c r="E29" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1866,13 +2071,14 @@
         <v>24</v>
       </c>
       <c r="D30" s="2">
-        <v>1694.9152542372883</v>
+        <f>1/(Sheet1!E92*(345000)^2/(100000000))*10000</f>
+        <v>1423.9993734402756</v>
       </c>
       <c r="E30" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1883,13 +2089,14 @@
         <v>18</v>
       </c>
       <c r="D31" s="2">
-        <v>1219.5121951219512</v>
+        <f>1/(Sheet1!E93*(345000)^2/(100000000))*10000</f>
+        <v>1024.5849150362958</v>
       </c>
       <c r="E31" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1900,13 +2107,14 @@
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>578.03468208092488</v>
+        <f>1/(Sheet1!E94*(345000)^2/(100000000))*10000</f>
+        <v>485.64140481489164</v>
       </c>
       <c r="E32" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1917,13 +2125,14 @@
         <v>20</v>
       </c>
       <c r="D33" s="2">
-        <v>724.63768115942025</v>
+        <f>1/(Sheet1!E95*(345000)^2/(100000000))*10000</f>
+        <v>608.81132632591493</v>
       </c>
       <c r="E33" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1934,13 +2143,14 @@
         <v>33</v>
       </c>
       <c r="D34" s="2">
-        <v>704.22535211267598</v>
+        <f>1/(Sheet1!E96*(345000)^2/(100000000))*10000</f>
+        <v>591.6617114998329</v>
       </c>
       <c r="E34" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1951,13 +2161,14 @@
         <v>34</v>
       </c>
       <c r="D35" s="2">
-        <v>555.55555555555554</v>
+        <f>1/(Sheet1!E97*(345000)^2/(100000000))*10000</f>
+        <v>466.75535018320147</v>
       </c>
       <c r="E35" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1968,13 +2179,14 @@
         <v>22</v>
       </c>
       <c r="D36" s="2">
-        <v>714.28571428571433</v>
+        <f>1/(Sheet1!E98*(345000)^2/(100000000))*10000</f>
+        <v>600.11402166411619</v>
       </c>
       <c r="E36" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1985,13 +2197,14 @@
         <v>23</v>
       </c>
       <c r="D37" s="2">
-        <v>1041.6666666666667</v>
+        <f>1/(Sheet1!E99*(345000)^2/(100000000))*10000</f>
+        <v>875.16628159350284</v>
       </c>
       <c r="E37" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2002,13 +2215,14 @@
         <v>35</v>
       </c>
       <c r="D38" s="2">
-        <v>699.30069930069931</v>
+        <f>1/(Sheet1!E100*(345000)^2/(100000000))*10000</f>
+        <v>587.52421701382002</v>
       </c>
       <c r="E38" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2019,13 +2233,14 @@
         <v>24</v>
       </c>
       <c r="D39" s="2">
-        <v>285.71428571428567</v>
+        <f>1/(Sheet1!E101*(345000)^2/(100000000))*10000</f>
+        <v>240.04560866564645</v>
       </c>
       <c r="E39" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2036,13 +2251,14 @@
         <v>36</v>
       </c>
       <c r="D40" s="2">
-        <v>367.64705882352939</v>
+        <f>1/(Sheet1!E102*(345000)^2/(100000000))*10000</f>
+        <v>308.88221703300098</v>
       </c>
       <c r="E40" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2053,13 +2269,14 @@
         <v>26</v>
       </c>
       <c r="D41" s="2">
-        <v>309.59752321981421</v>
+        <f>1/(Sheet1!E103*(345000)^2/(100000000))*10000</f>
+        <v>260.1113406593692</v>
       </c>
       <c r="E41" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2070,13 +2287,14 @@
         <v>37</v>
       </c>
       <c r="D42" s="2">
-        <v>431.0344827586207</v>
+        <f>1/(Sheet1!E104*(345000)^2/(100000000))*10000</f>
+        <v>362.13777169386321</v>
       </c>
       <c r="E42" s="1">
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2087,13 +2305,14 @@
         <v>27</v>
       </c>
       <c r="D43" s="2">
-        <v>680.27210884353747</v>
+        <f>1/(Sheet1!E105*(345000)^2/(100000000))*10000</f>
+        <v>571.53716348963451</v>
       </c>
       <c r="E43" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2104,13 +2323,14 @@
         <v>28</v>
       </c>
       <c r="D44" s="2">
-        <v>210.9704641350211</v>
+        <f>1/(Sheet1!E106*(345000)^2/(100000000))*10000</f>
+        <v>177.24886715817777</v>
       </c>
       <c r="E44" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2121,13 +2341,14 @@
         <v>29</v>
       </c>
       <c r="D45" s="2">
-        <v>160</v>
+        <f>1/(Sheet1!E107*(345000)^2/(100000000))*10000</f>
+        <v>134.42554085276203</v>
       </c>
       <c r="E45" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2138,13 +2359,14 @@
         <v>29</v>
       </c>
       <c r="D46" s="2">
-        <v>662.25165562913901</v>
+        <f>1/(Sheet1!E108*(345000)^2/(100000000))*10000</f>
+        <v>556.3971061786508</v>
       </c>
       <c r="E46" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2155,7 +2377,8 @@
         <v>38</v>
       </c>
       <c r="D47" s="2">
-        <v>641.02564102564099</v>
+        <f>1/(Sheet1!E109*(345000)^2/(100000000))*10000</f>
+        <v>538.56386559600162</v>
       </c>
       <c r="E47" s="1">
         <v>1200</v>
@@ -2168,22 +2391,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F027225-FF00-46AF-9A5A-D05CF10EA1EE}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="22" width="10.68359375" customWidth="1"/>
+    <col min="23" max="25" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2200,664 +2423,3622 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>6.5</v>
       </c>
-      <c r="D2" s="3">
-        <f>+C2*1.2</f>
-        <v>7.8</v>
-      </c>
-      <c r="E2" s="3">
-        <f>+C2*1.3</f>
-        <v>8.4500000000000011</v>
-      </c>
-      <c r="F2" s="3">
-        <f>+C2*1.1</f>
-        <v>7.15</v>
-      </c>
-      <c r="G2" s="3">
-        <f>+D2*1.1</f>
-        <v>8.58</v>
-      </c>
-      <c r="H2" s="3">
-        <f>+E2*1.1</f>
-        <v>9.2950000000000017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <f>$C2*Sheet1!B$132</f>
+        <v>6.617</v>
+      </c>
+      <c r="E2" s="2">
+        <f>$C2*Sheet1!C$132</f>
+        <v>6.6560000000000006</v>
+      </c>
+      <c r="F2" s="2">
+        <f>$C2*Sheet1!D$132</f>
+        <v>6.6820000000000004</v>
+      </c>
+      <c r="G2" s="2">
+        <f>$C2*Sheet1!E$132</f>
+        <v>6.8054999999999994</v>
+      </c>
+      <c r="H2" s="2">
+        <f>$C2*Sheet1!F$132</f>
+        <v>6.8640000000000008</v>
+      </c>
+      <c r="I2" s="2">
+        <f>$C2*Sheet1!G$132</f>
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="J2" s="2">
+        <f>$C2*Sheet1!H$132</f>
+        <v>7.1044999999999998</v>
+      </c>
+      <c r="K2" s="2">
+        <f>$C2*Sheet1!I$132</f>
+        <v>7.1564999999999994</v>
+      </c>
+      <c r="L2" s="2">
+        <f>$C2*Sheet1!J$132</f>
+        <v>7.1564999999999994</v>
+      </c>
+      <c r="M2" s="2">
+        <f>$C2*Sheet1!K$132</f>
+        <v>7.1695000000000002</v>
+      </c>
+      <c r="N2" s="2">
+        <f>$C2*Sheet1!L$132</f>
+        <v>7.2344999999999997</v>
+      </c>
+      <c r="O2" s="2">
+        <f>$C2*Sheet1!M$132</f>
+        <v>7.5919999999999996</v>
+      </c>
+      <c r="P2" s="2">
+        <f>$C2*Sheet1!N$132</f>
+        <v>7.6245000000000003</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>$C2*Sheet1!O$132</f>
+        <v>7.6245000000000003</v>
+      </c>
+      <c r="R2" s="2">
+        <f>$C2*Sheet1!P$132</f>
+        <v>7.6309999999999993</v>
+      </c>
+      <c r="S2" s="2">
+        <f>$C2*Sheet1!Q$132</f>
+        <v>7.7349999999999994</v>
+      </c>
+      <c r="T2" s="2">
+        <f>$C2*Sheet1!R$132</f>
+        <v>7.8455000000000004</v>
+      </c>
+      <c r="U2" s="2">
+        <f>$C2*Sheet1!S$132</f>
+        <v>7.8715000000000002</v>
+      </c>
+      <c r="V2" s="2">
+        <f>$C2*Sheet1!T$132</f>
+        <v>7.9950000000000001</v>
+      </c>
+      <c r="W2" s="2">
+        <f>C2*Sheet1!A$133</f>
+        <v>6.5259999999999998</v>
+      </c>
+      <c r="X2" s="2">
+        <f>D2*Sheet1!B$133</f>
+        <v>6.6434680000000004</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>E2*Sheet1!C$133</f>
+        <v>6.7425280000000001</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>F2*Sheet1!D$133</f>
+        <v>6.8356859999999999</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>G2*Sheet1!E$133</f>
+        <v>7.0845254999999989</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>H2*Sheet1!F$133</f>
+        <v>7.1591520000000006</v>
+      </c>
+      <c r="AC2" s="2">
+        <f>I2*Sheet1!G$133</f>
+        <v>7.2818849999999999</v>
+      </c>
+      <c r="AD2" s="2">
+        <f>J2*Sheet1!H$133</f>
+        <v>7.4455160000000005</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>K2*Sheet1!I$133</f>
+        <v>7.9866539999999997</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>L2*Sheet1!J$133</f>
+        <v>8.0582189999999994</v>
+      </c>
+      <c r="AG2" s="2">
+        <f>M2*Sheet1!K$133</f>
+        <v>8.1087045</v>
+      </c>
+      <c r="AH2" s="2">
+        <f>N2*Sheet1!L$133</f>
+        <v>8.2762679999999982</v>
+      </c>
+      <c r="AI2" s="2">
+        <f>O2*Sheet1!M$133</f>
+        <v>8.7535759999999989</v>
+      </c>
+      <c r="AJ2" s="2">
+        <f>P2*Sheet1!N$133</f>
+        <v>8.8215465000000002</v>
+      </c>
+      <c r="AK2" s="2">
+        <f>Q2*Sheet1!O$133</f>
+        <v>9.0579059999999991</v>
+      </c>
+      <c r="AL2" s="2">
+        <f>R2*Sheet1!P$133</f>
+        <v>9.1877239999999993</v>
+      </c>
+      <c r="AM2" s="2">
+        <f>S2*Sheet1!Q$133</f>
+        <v>9.3129399999999993</v>
+      </c>
+      <c r="AN2" s="2">
+        <f>T2*Sheet1!R$133</f>
+        <v>9.493055</v>
+      </c>
+      <c r="AO2" s="2">
+        <f>U2*Sheet1!S$133</f>
+        <v>9.5402579999999997</v>
+      </c>
+      <c r="AP2" s="2">
+        <f>V2*Sheet1!T$133</f>
+        <v>9.7778850000000013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>8.5299999999999994</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D22" si="0">+C3*1.2</f>
-        <v>10.235999999999999</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" ref="E3:E22" si="1">+C3*1.3</f>
-        <v>11.089</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F22" si="2">+C3*1.1</f>
-        <v>9.3830000000000009</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G22" si="3">+D3*1.1</f>
-        <v>11.259599999999999</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H22" si="4">+E3*1.1</f>
-        <v>12.197900000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <f>$C3*Sheet1!B$132</f>
+        <v>8.6835399999999989</v>
+      </c>
+      <c r="E3" s="2">
+        <f>$C3*Sheet1!C$132</f>
+        <v>8.7347199999999994</v>
+      </c>
+      <c r="F3" s="2">
+        <f>$C3*Sheet1!D$132</f>
+        <v>8.7688399999999991</v>
+      </c>
+      <c r="G3" s="2">
+        <f>$C3*Sheet1!E$132</f>
+        <v>8.930909999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <f>$C3*Sheet1!F$132</f>
+        <v>9.0076800000000006</v>
+      </c>
+      <c r="I3" s="2">
+        <f>$C3*Sheet1!G$132</f>
+        <v>9.1271000000000004</v>
+      </c>
+      <c r="J3" s="2">
+        <f>$C3*Sheet1!H$132</f>
+        <v>9.3232899999999983</v>
+      </c>
+      <c r="K3" s="2">
+        <f>$C3*Sheet1!I$132</f>
+        <v>9.3915299999999995</v>
+      </c>
+      <c r="L3" s="2">
+        <f>$C3*Sheet1!J$132</f>
+        <v>9.3915299999999995</v>
+      </c>
+      <c r="M3" s="2">
+        <f>$C3*Sheet1!K$132</f>
+        <v>9.4085899999999985</v>
+      </c>
+      <c r="N3" s="2">
+        <f>$C3*Sheet1!L$132</f>
+        <v>9.4938899999999986</v>
+      </c>
+      <c r="O3" s="2">
+        <f>$C3*Sheet1!M$132</f>
+        <v>9.9630399999999995</v>
+      </c>
+      <c r="P3" s="2">
+        <f>$C3*Sheet1!N$132</f>
+        <v>10.00569</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>$C3*Sheet1!O$132</f>
+        <v>10.00569</v>
+      </c>
+      <c r="R3" s="2">
+        <f>$C3*Sheet1!P$132</f>
+        <v>10.014219999999998</v>
+      </c>
+      <c r="S3" s="2">
+        <f>$C3*Sheet1!Q$132</f>
+        <v>10.150699999999999</v>
+      </c>
+      <c r="T3" s="2">
+        <f>$C3*Sheet1!R$132</f>
+        <v>10.29571</v>
+      </c>
+      <c r="U3" s="2">
+        <f>$C3*Sheet1!S$132</f>
+        <v>10.329829999999999</v>
+      </c>
+      <c r="V3" s="2">
+        <f>$C3*Sheet1!T$132</f>
+        <v>10.491899999999999</v>
+      </c>
+      <c r="W3" s="2">
+        <f>C3*Sheet1!A$133</f>
+        <v>8.5641199999999991</v>
+      </c>
+      <c r="X3" s="2">
+        <f>D3*Sheet1!B$133</f>
+        <v>8.7182741599999982</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>E3*Sheet1!C$133</f>
+        <v>8.8482713599999983</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>F3*Sheet1!D$133</f>
+        <v>8.9705233199999981</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>G3*Sheet1!E$133</f>
+        <v>9.2970773099999988</v>
+      </c>
+      <c r="AB3" s="2">
+        <f>H3*Sheet1!F$133</f>
+        <v>9.3950102399999995</v>
+      </c>
+      <c r="AC3" s="2">
+        <f>I3*Sheet1!G$133</f>
+        <v>9.5560737000000007</v>
+      </c>
+      <c r="AD3" s="2">
+        <f>J3*Sheet1!H$133</f>
+        <v>9.7708079199999993</v>
+      </c>
+      <c r="AE3" s="2">
+        <f>K3*Sheet1!I$133</f>
+        <v>10.480947480000001</v>
+      </c>
+      <c r="AF3" s="2">
+        <f>L3*Sheet1!J$133</f>
+        <v>10.574862779999998</v>
+      </c>
+      <c r="AG3" s="2">
+        <f>M3*Sheet1!K$133</f>
+        <v>10.641115289999998</v>
+      </c>
+      <c r="AH3" s="2">
+        <f>N3*Sheet1!L$133</f>
+        <v>10.861010159999998</v>
+      </c>
+      <c r="AI3" s="2">
+        <f>O3*Sheet1!M$133</f>
+        <v>11.487385119999999</v>
+      </c>
+      <c r="AJ3" s="2">
+        <f>P3*Sheet1!N$133</f>
+        <v>11.57658333</v>
+      </c>
+      <c r="AK3" s="2">
+        <f>Q3*Sheet1!O$133</f>
+        <v>11.886759719999999</v>
+      </c>
+      <c r="AL3" s="2">
+        <f>R3*Sheet1!P$133</f>
+        <v>12.057120879999998</v>
+      </c>
+      <c r="AM3" s="2">
+        <f>S3*Sheet1!Q$133</f>
+        <v>12.221442799999998</v>
+      </c>
+      <c r="AN3" s="2">
+        <f>T3*Sheet1!R$133</f>
+        <v>12.457809099999999</v>
+      </c>
+      <c r="AO3" s="2">
+        <f>U3*Sheet1!S$133</f>
+        <v>12.519753959999999</v>
+      </c>
+      <c r="AP3" s="2">
+        <f>V3*Sheet1!T$133</f>
+        <v>12.831593700000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>31</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>11.04</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="1"/>
-        <v>11.959999999999999</v>
-      </c>
-      <c r="F4" s="3">
-        <f t="shared" si="2"/>
-        <v>10.119999999999999</v>
-      </c>
-      <c r="G4" s="3">
-        <f t="shared" si="3"/>
-        <v>12.144</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="4"/>
-        <v>13.156000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <f>$C4*Sheet1!B$132</f>
+        <v>9.3655999999999988</v>
+      </c>
+      <c r="E4" s="2">
+        <f>$C4*Sheet1!C$132</f>
+        <v>9.4207999999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <f>$C4*Sheet1!D$132</f>
+        <v>9.4575999999999993</v>
+      </c>
+      <c r="G4" s="2">
+        <f>$C4*Sheet1!E$132</f>
+        <v>9.6323999999999987</v>
+      </c>
+      <c r="H4" s="2">
+        <f>$C4*Sheet1!F$132</f>
+        <v>9.7151999999999994</v>
+      </c>
+      <c r="I4" s="2">
+        <f>$C4*Sheet1!G$132</f>
+        <v>9.8439999999999994</v>
+      </c>
+      <c r="J4" s="2">
+        <f>$C4*Sheet1!H$132</f>
+        <v>10.055599999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <f>$C4*Sheet1!I$132</f>
+        <v>10.129199999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <f>$C4*Sheet1!J$132</f>
+        <v>10.129199999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <f>$C4*Sheet1!K$132</f>
+        <v>10.147599999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <f>$C4*Sheet1!L$132</f>
+        <v>10.239599999999999</v>
+      </c>
+      <c r="O4" s="2">
+        <f>$C4*Sheet1!M$132</f>
+        <v>10.745599999999998</v>
+      </c>
+      <c r="P4" s="2">
+        <f>$C4*Sheet1!N$132</f>
+        <v>10.791599999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>$C4*Sheet1!O$132</f>
+        <v>10.791599999999999</v>
+      </c>
+      <c r="R4" s="2">
+        <f>$C4*Sheet1!P$132</f>
+        <v>10.800799999999999</v>
+      </c>
+      <c r="S4" s="2">
+        <f>$C4*Sheet1!Q$132</f>
+        <v>10.947999999999999</v>
+      </c>
+      <c r="T4" s="2">
+        <f>$C4*Sheet1!R$132</f>
+        <v>11.1044</v>
+      </c>
+      <c r="U4" s="2">
+        <f>$C4*Sheet1!S$132</f>
+        <v>11.1412</v>
+      </c>
+      <c r="V4" s="2">
+        <f>$C4*Sheet1!T$132</f>
+        <v>11.315999999999999</v>
+      </c>
+      <c r="W4" s="2">
+        <f>C4*Sheet1!A$133</f>
+        <v>9.2367999999999988</v>
+      </c>
+      <c r="X4" s="2">
+        <f>D4*Sheet1!B$133</f>
+        <v>9.4030623999999996</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>E4*Sheet1!C$133</f>
+        <v>9.543270399999999</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>F4*Sheet1!D$133</f>
+        <v>9.675124799999999</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>G4*Sheet1!E$133</f>
+        <v>10.027328399999998</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>H4*Sheet1!F$133</f>
+        <v>10.132953599999999</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>I4*Sheet1!G$133</f>
+        <v>10.306667999999998</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>J4*Sheet1!H$133</f>
+        <v>10.538268799999999</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>K4*Sheet1!I$133</f>
+        <v>11.304187199999999</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>L4*Sheet1!J$133</f>
+        <v>11.405479199999998</v>
+      </c>
+      <c r="AG4" s="2">
+        <f>M4*Sheet1!K$133</f>
+        <v>11.476935599999999</v>
+      </c>
+      <c r="AH4" s="2">
+        <f>N4*Sheet1!L$133</f>
+        <v>11.714102399999998</v>
+      </c>
+      <c r="AI4" s="2">
+        <f>O4*Sheet1!M$133</f>
+        <v>12.389676799999998</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f>P4*Sheet1!N$133</f>
+        <v>12.4858812</v>
+      </c>
+      <c r="AK4" s="2">
+        <f>Q4*Sheet1!O$133</f>
+        <v>12.820420799999999</v>
+      </c>
+      <c r="AL4" s="2">
+        <f>R4*Sheet1!P$133</f>
+        <v>13.004163199999999</v>
+      </c>
+      <c r="AM4" s="2">
+        <f>S4*Sheet1!Q$133</f>
+        <v>13.181391999999997</v>
+      </c>
+      <c r="AN4" s="2">
+        <f>T4*Sheet1!R$133</f>
+        <v>13.436323999999999</v>
+      </c>
+      <c r="AO4" s="2">
+        <f>U4*Sheet1!S$133</f>
+        <v>13.503134399999999</v>
+      </c>
+      <c r="AP4" s="2">
+        <f>V4*Sheet1!T$133</f>
+        <v>13.839468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>97.6</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>117.11999999999999</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="1"/>
-        <v>126.88</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="2"/>
-        <v>107.36</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="3"/>
-        <v>128.83199999999999</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="4"/>
-        <v>139.56800000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <f>$C5*Sheet1!B$132</f>
+        <v>99.356799999999993</v>
+      </c>
+      <c r="E5" s="2">
+        <f>$C5*Sheet1!C$132</f>
+        <v>99.942399999999992</v>
+      </c>
+      <c r="F5" s="2">
+        <f>$C5*Sheet1!D$132</f>
+        <v>100.33279999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <f>$C5*Sheet1!E$132</f>
+        <v>102.18719999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <f>$C5*Sheet1!F$132</f>
+        <v>103.0656</v>
+      </c>
+      <c r="I5" s="2">
+        <f>$C5*Sheet1!G$132</f>
+        <v>104.432</v>
+      </c>
+      <c r="J5" s="2">
+        <f>$C5*Sheet1!H$132</f>
+        <v>106.67679999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <f>$C5*Sheet1!I$132</f>
+        <v>107.45759999999999</v>
+      </c>
+      <c r="L5" s="2">
+        <f>$C5*Sheet1!J$132</f>
+        <v>107.45759999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <f>$C5*Sheet1!K$132</f>
+        <v>107.65279999999998</v>
+      </c>
+      <c r="N5" s="2">
+        <f>$C5*Sheet1!L$132</f>
+        <v>108.6288</v>
+      </c>
+      <c r="O5" s="2">
+        <f>$C5*Sheet1!M$132</f>
+        <v>113.99679999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <f>$C5*Sheet1!N$132</f>
+        <v>114.48479999999999</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>$C5*Sheet1!O$132</f>
+        <v>114.48479999999999</v>
+      </c>
+      <c r="R5" s="2">
+        <f>$C5*Sheet1!P$132</f>
+        <v>114.58239999999999</v>
+      </c>
+      <c r="S5" s="2">
+        <f>$C5*Sheet1!Q$132</f>
+        <v>116.14399999999999</v>
+      </c>
+      <c r="T5" s="2">
+        <f>$C5*Sheet1!R$132</f>
+        <v>117.8032</v>
+      </c>
+      <c r="U5" s="2">
+        <f>$C5*Sheet1!S$132</f>
+        <v>118.1936</v>
+      </c>
+      <c r="V5" s="2">
+        <f>$C5*Sheet1!T$132</f>
+        <v>120.04799999999999</v>
+      </c>
+      <c r="W5" s="2">
+        <f>C5*Sheet1!A$133</f>
+        <v>97.990399999999994</v>
+      </c>
+      <c r="X5" s="2">
+        <f>D5*Sheet1!B$133</f>
+        <v>99.754227199999988</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>E5*Sheet1!C$133</f>
+        <v>101.24165119999998</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>F5*Sheet1!D$133</f>
+        <v>102.64045439999998</v>
+      </c>
+      <c r="AA5" s="2">
+        <f>G5*Sheet1!E$133</f>
+        <v>106.37687519999999</v>
+      </c>
+      <c r="AB5" s="2">
+        <f>H5*Sheet1!F$133</f>
+        <v>107.4974208</v>
+      </c>
+      <c r="AC5" s="2">
+        <f>I5*Sheet1!G$133</f>
+        <v>109.34030399999999</v>
+      </c>
+      <c r="AD5" s="2">
+        <f>J5*Sheet1!H$133</f>
+        <v>111.79728639999999</v>
+      </c>
+      <c r="AE5" s="2">
+        <f>K5*Sheet1!I$133</f>
+        <v>119.92268159999999</v>
+      </c>
+      <c r="AF5" s="2">
+        <f>L5*Sheet1!J$133</f>
+        <v>120.99725759999997</v>
+      </c>
+      <c r="AG5" s="2">
+        <f>M5*Sheet1!K$133</f>
+        <v>121.75531679999999</v>
+      </c>
+      <c r="AH5" s="2">
+        <f>N5*Sheet1!L$133</f>
+        <v>124.27134719999999</v>
+      </c>
+      <c r="AI5" s="2">
+        <f>O5*Sheet1!M$133</f>
+        <v>131.43831040000001</v>
+      </c>
+      <c r="AJ5" s="2">
+        <f>P5*Sheet1!N$133</f>
+        <v>132.45891359999999</v>
+      </c>
+      <c r="AK5" s="2">
+        <f>Q5*Sheet1!O$133</f>
+        <v>136.00794239999999</v>
+      </c>
+      <c r="AL5" s="2">
+        <f>R5*Sheet1!P$133</f>
+        <v>137.9572096</v>
+      </c>
+      <c r="AM5" s="2">
+        <f>S5*Sheet1!Q$133</f>
+        <v>139.83737599999998</v>
+      </c>
+      <c r="AN5" s="2">
+        <f>T5*Sheet1!R$133</f>
+        <v>142.54187200000001</v>
+      </c>
+      <c r="AO5" s="2">
+        <f>U5*Sheet1!S$133</f>
+        <v>143.25064320000001</v>
+      </c>
+      <c r="AP5" s="2">
+        <f>V5*Sheet1!T$133</f>
+        <v>146.818704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>26</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>139</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>166.79999999999998</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="1"/>
-        <v>180.70000000000002</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="2"/>
-        <v>152.9</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="3"/>
-        <v>183.48</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="4"/>
-        <v>198.77000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <f>$C6*Sheet1!B$132</f>
+        <v>141.50200000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <f>$C6*Sheet1!C$132</f>
+        <v>142.33600000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <f>$C6*Sheet1!D$132</f>
+        <v>142.892</v>
+      </c>
+      <c r="G6" s="2">
+        <f>$C6*Sheet1!E$132</f>
+        <v>145.53299999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <f>$C6*Sheet1!F$132</f>
+        <v>146.78400000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <f>$C6*Sheet1!G$132</f>
+        <v>148.73000000000002</v>
+      </c>
+      <c r="J6" s="2">
+        <f>$C6*Sheet1!H$132</f>
+        <v>151.92699999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <f>$C6*Sheet1!I$132</f>
+        <v>153.03899999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <f>$C6*Sheet1!J$132</f>
+        <v>153.03899999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <f>$C6*Sheet1!K$132</f>
+        <v>153.31700000000001</v>
+      </c>
+      <c r="N6" s="2">
+        <f>$C6*Sheet1!L$132</f>
+        <v>154.70699999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <f>$C6*Sheet1!M$132</f>
+        <v>162.352</v>
+      </c>
+      <c r="P6" s="2">
+        <f>$C6*Sheet1!N$132</f>
+        <v>163.047</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>$C6*Sheet1!O$132</f>
+        <v>163.047</v>
+      </c>
+      <c r="R6" s="2">
+        <f>$C6*Sheet1!P$132</f>
+        <v>163.18599999999998</v>
+      </c>
+      <c r="S6" s="2">
+        <f>$C6*Sheet1!Q$132</f>
+        <v>165.41</v>
+      </c>
+      <c r="T6" s="2">
+        <f>$C6*Sheet1!R$132</f>
+        <v>167.773</v>
+      </c>
+      <c r="U6" s="2">
+        <f>$C6*Sheet1!S$132</f>
+        <v>168.32900000000001</v>
+      </c>
+      <c r="V6" s="2">
+        <f>$C6*Sheet1!T$132</f>
+        <v>170.97</v>
+      </c>
+      <c r="W6" s="2">
+        <f>C6*Sheet1!A$133</f>
+        <v>139.55600000000001</v>
+      </c>
+      <c r="X6" s="2">
+        <f>D6*Sheet1!B$133</f>
+        <v>142.06800800000002</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>E6*Sheet1!C$133</f>
+        <v>144.18636799999999</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>F6*Sheet1!D$133</f>
+        <v>146.17851599999997</v>
+      </c>
+      <c r="AA6" s="2">
+        <f>G6*Sheet1!E$133</f>
+        <v>151.49985299999997</v>
+      </c>
+      <c r="AB6" s="2">
+        <f>H6*Sheet1!F$133</f>
+        <v>153.09571200000002</v>
+      </c>
+      <c r="AC6" s="2">
+        <f>I6*Sheet1!G$133</f>
+        <v>155.72031000000001</v>
+      </c>
+      <c r="AD6" s="2">
+        <f>J6*Sheet1!H$133</f>
+        <v>159.21949599999999</v>
+      </c>
+      <c r="AE6" s="2">
+        <f>K6*Sheet1!I$133</f>
+        <v>170.79152400000001</v>
+      </c>
+      <c r="AF6" s="2">
+        <f>L6*Sheet1!J$133</f>
+        <v>172.32191399999996</v>
+      </c>
+      <c r="AG6" s="2">
+        <f>M6*Sheet1!K$133</f>
+        <v>173.40152700000002</v>
+      </c>
+      <c r="AH6" s="2">
+        <f>N6*Sheet1!L$133</f>
+        <v>176.98480799999999</v>
+      </c>
+      <c r="AI6" s="2">
+        <f>O6*Sheet1!M$133</f>
+        <v>187.191856</v>
+      </c>
+      <c r="AJ6" s="2">
+        <f>P6*Sheet1!N$133</f>
+        <v>188.64537899999999</v>
+      </c>
+      <c r="AK6" s="2">
+        <f>Q6*Sheet1!O$133</f>
+        <v>193.69983599999998</v>
+      </c>
+      <c r="AL6" s="2">
+        <f>R6*Sheet1!P$133</f>
+        <v>196.47594399999997</v>
+      </c>
+      <c r="AM6" s="2">
+        <f>S6*Sheet1!Q$133</f>
+        <v>199.15364</v>
+      </c>
+      <c r="AN6" s="2">
+        <f>T6*Sheet1!R$133</f>
+        <v>203.00532999999999</v>
+      </c>
+      <c r="AO6" s="2">
+        <f>U6*Sheet1!S$133</f>
+        <v>204.014748</v>
+      </c>
+      <c r="AP6" s="2">
+        <f>V6*Sheet1!T$133</f>
+        <v>209.09631000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>18</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>158</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>189.6</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="1"/>
-        <v>205.4</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" si="2"/>
-        <v>173.8</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="3"/>
-        <v>208.56</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="4"/>
-        <v>225.94000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <f>$C7*Sheet1!B$132</f>
+        <v>160.84399999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <f>$C7*Sheet1!C$132</f>
+        <v>161.792</v>
+      </c>
+      <c r="F7" s="2">
+        <f>$C7*Sheet1!D$132</f>
+        <v>162.42400000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <f>$C7*Sheet1!E$132</f>
+        <v>165.42599999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <f>$C7*Sheet1!F$132</f>
+        <v>166.84800000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <f>$C7*Sheet1!G$132</f>
+        <v>169.06</v>
+      </c>
+      <c r="J7" s="2">
+        <f>$C7*Sheet1!H$132</f>
+        <v>172.69399999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <f>$C7*Sheet1!I$132</f>
+        <v>173.958</v>
+      </c>
+      <c r="L7" s="2">
+        <f>$C7*Sheet1!J$132</f>
+        <v>173.958</v>
+      </c>
+      <c r="M7" s="2">
+        <f>$C7*Sheet1!K$132</f>
+        <v>174.274</v>
+      </c>
+      <c r="N7" s="2">
+        <f>$C7*Sheet1!L$132</f>
+        <v>175.85399999999998</v>
+      </c>
+      <c r="O7" s="2">
+        <f>$C7*Sheet1!M$132</f>
+        <v>184.54399999999998</v>
+      </c>
+      <c r="P7" s="2">
+        <f>$C7*Sheet1!N$132</f>
+        <v>185.334</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>$C7*Sheet1!O$132</f>
+        <v>185.334</v>
+      </c>
+      <c r="R7" s="2">
+        <f>$C7*Sheet1!P$132</f>
+        <v>185.49199999999999</v>
+      </c>
+      <c r="S7" s="2">
+        <f>$C7*Sheet1!Q$132</f>
+        <v>188.01999999999998</v>
+      </c>
+      <c r="T7" s="2">
+        <f>$C7*Sheet1!R$132</f>
+        <v>190.70600000000002</v>
+      </c>
+      <c r="U7" s="2">
+        <f>$C7*Sheet1!S$132</f>
+        <v>191.33800000000002</v>
+      </c>
+      <c r="V7" s="2">
+        <f>$C7*Sheet1!T$132</f>
+        <v>194.34</v>
+      </c>
+      <c r="W7" s="2">
+        <f>C7*Sheet1!A$133</f>
+        <v>158.63200000000001</v>
+      </c>
+      <c r="X7" s="2">
+        <f>D7*Sheet1!B$133</f>
+        <v>161.48737599999998</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>E7*Sheet1!C$133</f>
+        <v>163.89529599999997</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>F7*Sheet1!D$133</f>
+        <v>166.159752</v>
+      </c>
+      <c r="AA7" s="2">
+        <f>G7*Sheet1!E$133</f>
+        <v>172.20846599999999</v>
+      </c>
+      <c r="AB7" s="2">
+        <f>H7*Sheet1!F$133</f>
+        <v>174.02246400000001</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>I7*Sheet1!G$133</f>
+        <v>177.00582</v>
+      </c>
+      <c r="AD7" s="2">
+        <f>J7*Sheet1!H$133</f>
+        <v>180.98331199999998</v>
+      </c>
+      <c r="AE7" s="2">
+        <f>K7*Sheet1!I$133</f>
+        <v>194.13712800000002</v>
+      </c>
+      <c r="AF7" s="2">
+        <f>L7*Sheet1!J$133</f>
+        <v>195.87670799999998</v>
+      </c>
+      <c r="AG7" s="2">
+        <f>M7*Sheet1!K$133</f>
+        <v>197.103894</v>
+      </c>
+      <c r="AH7" s="2">
+        <f>N7*Sheet1!L$133</f>
+        <v>201.17697599999997</v>
+      </c>
+      <c r="AI7" s="2">
+        <f>O7*Sheet1!M$133</f>
+        <v>212.77923199999998</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f>P7*Sheet1!N$133</f>
+        <v>214.43143800000001</v>
+      </c>
+      <c r="AK7" s="2">
+        <f>Q7*Sheet1!O$133</f>
+        <v>220.17679200000001</v>
+      </c>
+      <c r="AL7" s="2">
+        <f>R7*Sheet1!P$133</f>
+        <v>223.33236799999997</v>
+      </c>
+      <c r="AM7" s="2">
+        <f>S7*Sheet1!Q$133</f>
+        <v>226.37607999999997</v>
+      </c>
+      <c r="AN7" s="2">
+        <f>T7*Sheet1!R$133</f>
+        <v>230.75426000000002</v>
+      </c>
+      <c r="AO7" s="2">
+        <f>U7*Sheet1!S$133</f>
+        <v>231.90165600000003</v>
+      </c>
+      <c r="AP7" s="2">
+        <f>V7*Sheet1!T$133</f>
+        <v>237.67782000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>28</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>206</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>247.2</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="1"/>
-        <v>267.8</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="2"/>
-        <v>226.60000000000002</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="3"/>
-        <v>271.92</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="4"/>
-        <v>294.58000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <f>$C8*Sheet1!B$132</f>
+        <v>209.708</v>
+      </c>
+      <c r="E8" s="2">
+        <f>$C8*Sheet1!C$132</f>
+        <v>210.94400000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <f>$C8*Sheet1!D$132</f>
+        <v>211.768</v>
+      </c>
+      <c r="G8" s="2">
+        <f>$C8*Sheet1!E$132</f>
+        <v>215.68199999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <f>$C8*Sheet1!F$132</f>
+        <v>217.536</v>
+      </c>
+      <c r="I8" s="2">
+        <f>$C8*Sheet1!G$132</f>
+        <v>220.42000000000002</v>
+      </c>
+      <c r="J8" s="2">
+        <f>$C8*Sheet1!H$132</f>
+        <v>225.15799999999999</v>
+      </c>
+      <c r="K8" s="2">
+        <f>$C8*Sheet1!I$132</f>
+        <v>226.80599999999998</v>
+      </c>
+      <c r="L8" s="2">
+        <f>$C8*Sheet1!J$132</f>
+        <v>226.80599999999998</v>
+      </c>
+      <c r="M8" s="2">
+        <f>$C8*Sheet1!K$132</f>
+        <v>227.21799999999999</v>
+      </c>
+      <c r="N8" s="2">
+        <f>$C8*Sheet1!L$132</f>
+        <v>229.27799999999999</v>
+      </c>
+      <c r="O8" s="2">
+        <f>$C8*Sheet1!M$132</f>
+        <v>240.60799999999998</v>
+      </c>
+      <c r="P8" s="2">
+        <f>$C8*Sheet1!N$132</f>
+        <v>241.63800000000001</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>$C8*Sheet1!O$132</f>
+        <v>241.63800000000001</v>
+      </c>
+      <c r="R8" s="2">
+        <f>$C8*Sheet1!P$132</f>
+        <v>241.84399999999999</v>
+      </c>
+      <c r="S8" s="2">
+        <f>$C8*Sheet1!Q$132</f>
+        <v>245.14</v>
+      </c>
+      <c r="T8" s="2">
+        <f>$C8*Sheet1!R$132</f>
+        <v>248.64200000000002</v>
+      </c>
+      <c r="U8" s="2">
+        <f>$C8*Sheet1!S$132</f>
+        <v>249.46600000000001</v>
+      </c>
+      <c r="V8" s="2">
+        <f>$C8*Sheet1!T$132</f>
+        <v>253.38</v>
+      </c>
+      <c r="W8" s="2">
+        <f>C8*Sheet1!A$133</f>
+        <v>206.82400000000001</v>
+      </c>
+      <c r="X8" s="2">
+        <f>D8*Sheet1!B$133</f>
+        <v>210.54683199999999</v>
+      </c>
+      <c r="Y8" s="2">
+        <f>E8*Sheet1!C$133</f>
+        <v>213.686272</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>F8*Sheet1!D$133</f>
+        <v>216.63866399999998</v>
+      </c>
+      <c r="AA8" s="2">
+        <f>G8*Sheet1!E$133</f>
+        <v>224.52496199999996</v>
+      </c>
+      <c r="AB8" s="2">
+        <f>H8*Sheet1!F$133</f>
+        <v>226.89004799999998</v>
+      </c>
+      <c r="AC8" s="2">
+        <f>I8*Sheet1!G$133</f>
+        <v>230.77974</v>
+      </c>
+      <c r="AD8" s="2">
+        <f>J8*Sheet1!H$133</f>
+        <v>235.96558400000001</v>
+      </c>
+      <c r="AE8" s="2">
+        <f>K8*Sheet1!I$133</f>
+        <v>253.11549600000001</v>
+      </c>
+      <c r="AF8" s="2">
+        <f>L8*Sheet1!J$133</f>
+        <v>255.38355599999997</v>
+      </c>
+      <c r="AG8" s="2">
+        <f>M8*Sheet1!K$133</f>
+        <v>256.98355800000002</v>
+      </c>
+      <c r="AH8" s="2">
+        <f>N8*Sheet1!L$133</f>
+        <v>262.29403199999996</v>
+      </c>
+      <c r="AI8" s="2">
+        <f>O8*Sheet1!M$133</f>
+        <v>277.42102399999999</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f>P8*Sheet1!N$133</f>
+        <v>279.57516600000002</v>
+      </c>
+      <c r="AK8" s="2">
+        <f>Q8*Sheet1!O$133</f>
+        <v>287.065944</v>
+      </c>
+      <c r="AL8" s="2">
+        <f>R8*Sheet1!P$133</f>
+        <v>291.18017599999996</v>
+      </c>
+      <c r="AM8" s="2">
+        <f>S8*Sheet1!Q$133</f>
+        <v>295.14855999999997</v>
+      </c>
+      <c r="AN8" s="2">
+        <f>T8*Sheet1!R$133</f>
+        <v>300.85682000000003</v>
+      </c>
+      <c r="AO8" s="2">
+        <f>U8*Sheet1!S$133</f>
+        <v>302.35279200000002</v>
+      </c>
+      <c r="AP8" s="2">
+        <f>V8*Sheet1!T$133</f>
+        <v>309.88373999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>25</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>224</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>268.8</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="1"/>
-        <v>291.2</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="2"/>
-        <v>246.40000000000003</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="3"/>
-        <v>295.68000000000006</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="4"/>
-        <v>320.32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <f>$C9*Sheet1!B$132</f>
+        <v>228.03200000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <f>$C9*Sheet1!C$132</f>
+        <v>229.376</v>
+      </c>
+      <c r="F9" s="2">
+        <f>$C9*Sheet1!D$132</f>
+        <v>230.27199999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <f>$C9*Sheet1!E$132</f>
+        <v>234.52799999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <f>$C9*Sheet1!F$132</f>
+        <v>236.54400000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <f>$C9*Sheet1!G$132</f>
+        <v>239.68</v>
+      </c>
+      <c r="J9" s="2">
+        <f>$C9*Sheet1!H$132</f>
+        <v>244.83199999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <f>$C9*Sheet1!I$132</f>
+        <v>246.624</v>
+      </c>
+      <c r="L9" s="2">
+        <f>$C9*Sheet1!J$132</f>
+        <v>246.624</v>
+      </c>
+      <c r="M9" s="2">
+        <f>$C9*Sheet1!K$132</f>
+        <v>247.072</v>
+      </c>
+      <c r="N9" s="2">
+        <f>$C9*Sheet1!L$132</f>
+        <v>249.31200000000001</v>
+      </c>
+      <c r="O9" s="2">
+        <f>$C9*Sheet1!M$132</f>
+        <v>261.63200000000001</v>
+      </c>
+      <c r="P9" s="2">
+        <f>$C9*Sheet1!N$132</f>
+        <v>262.75200000000001</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>$C9*Sheet1!O$132</f>
+        <v>262.75200000000001</v>
+      </c>
+      <c r="R9" s="2">
+        <f>$C9*Sheet1!P$132</f>
+        <v>262.976</v>
+      </c>
+      <c r="S9" s="2">
+        <f>$C9*Sheet1!Q$132</f>
+        <v>266.56</v>
+      </c>
+      <c r="T9" s="2">
+        <f>$C9*Sheet1!R$132</f>
+        <v>270.36799999999999</v>
+      </c>
+      <c r="U9" s="2">
+        <f>$C9*Sheet1!S$132</f>
+        <v>271.26400000000001</v>
+      </c>
+      <c r="V9" s="2">
+        <f>$C9*Sheet1!T$132</f>
+        <v>275.52</v>
+      </c>
+      <c r="W9" s="2">
+        <f>C9*Sheet1!A$133</f>
+        <v>224.89600000000002</v>
+      </c>
+      <c r="X9" s="2">
+        <f>D9*Sheet1!B$133</f>
+        <v>228.94412800000001</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>E9*Sheet1!C$133</f>
+        <v>232.35788799999997</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>F9*Sheet1!D$133</f>
+        <v>235.56825599999996</v>
+      </c>
+      <c r="AA9" s="2">
+        <f>G9*Sheet1!E$133</f>
+        <v>244.14364799999998</v>
+      </c>
+      <c r="AB9" s="2">
+        <f>H9*Sheet1!F$133</f>
+        <v>246.71539200000001</v>
+      </c>
+      <c r="AC9" s="2">
+        <f>I9*Sheet1!G$133</f>
+        <v>250.94495999999998</v>
+      </c>
+      <c r="AD9" s="2">
+        <f>J9*Sheet1!H$133</f>
+        <v>256.58393599999999</v>
+      </c>
+      <c r="AE9" s="2">
+        <f>K9*Sheet1!I$133</f>
+        <v>275.23238400000002</v>
+      </c>
+      <c r="AF9" s="2">
+        <f>L9*Sheet1!J$133</f>
+        <v>277.698624</v>
+      </c>
+      <c r="AG9" s="2">
+        <f>M9*Sheet1!K$133</f>
+        <v>279.43843199999998</v>
+      </c>
+      <c r="AH9" s="2">
+        <f>N9*Sheet1!L$133</f>
+        <v>285.21292799999998</v>
+      </c>
+      <c r="AI9" s="2">
+        <f>O9*Sheet1!M$133</f>
+        <v>301.66169600000001</v>
+      </c>
+      <c r="AJ9" s="2">
+        <f>P9*Sheet1!N$133</f>
+        <v>304.00406400000003</v>
+      </c>
+      <c r="AK9" s="2">
+        <f>Q9*Sheet1!O$133</f>
+        <v>312.14937600000002</v>
+      </c>
+      <c r="AL9" s="2">
+        <f>R9*Sheet1!P$133</f>
+        <v>316.62310400000001</v>
+      </c>
+      <c r="AM9" s="2">
+        <f>S9*Sheet1!Q$133</f>
+        <v>320.93824000000001</v>
+      </c>
+      <c r="AN9" s="2">
+        <f>T9*Sheet1!R$133</f>
+        <v>327.14527999999996</v>
+      </c>
+      <c r="AO9" s="2">
+        <f>U9*Sheet1!S$133</f>
+        <v>328.77196800000002</v>
+      </c>
+      <c r="AP9" s="2">
+        <f>V9*Sheet1!T$133</f>
+        <v>336.96096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>233.8</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>280.56</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>303.94</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="2"/>
-        <v>257.18</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="3"/>
-        <v>308.61600000000004</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="4"/>
-        <v>334.334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <f>$C10*Sheet1!B$132</f>
+        <v>238.00840000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <f>$C10*Sheet1!C$132</f>
+        <v>239.41120000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <f>$C10*Sheet1!D$132</f>
+        <v>240.34640000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <f>$C10*Sheet1!E$132</f>
+        <v>244.7886</v>
+      </c>
+      <c r="H10" s="2">
+        <f>$C10*Sheet1!F$132</f>
+        <v>246.89280000000002</v>
+      </c>
+      <c r="I10" s="2">
+        <f>$C10*Sheet1!G$132</f>
+        <v>250.16600000000003</v>
+      </c>
+      <c r="J10" s="2">
+        <f>$C10*Sheet1!H$132</f>
+        <v>255.54340000000002</v>
+      </c>
+      <c r="K10" s="2">
+        <f>$C10*Sheet1!I$132</f>
+        <v>257.41379999999998</v>
+      </c>
+      <c r="L10" s="2">
+        <f>$C10*Sheet1!J$132</f>
+        <v>257.41379999999998</v>
+      </c>
+      <c r="M10" s="2">
+        <f>$C10*Sheet1!K$132</f>
+        <v>257.88139999999999</v>
+      </c>
+      <c r="N10" s="2">
+        <f>$C10*Sheet1!L$132</f>
+        <v>260.21940000000001</v>
+      </c>
+      <c r="O10" s="2">
+        <f>$C10*Sheet1!M$132</f>
+        <v>273.07839999999999</v>
+      </c>
+      <c r="P10" s="2">
+        <f>$C10*Sheet1!N$132</f>
+        <v>274.24740000000003</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>$C10*Sheet1!O$132</f>
+        <v>274.24740000000003</v>
+      </c>
+      <c r="R10" s="2">
+        <f>$C10*Sheet1!P$132</f>
+        <v>274.4812</v>
+      </c>
+      <c r="S10" s="2">
+        <f>$C10*Sheet1!Q$132</f>
+        <v>278.22199999999998</v>
+      </c>
+      <c r="T10" s="2">
+        <f>$C10*Sheet1!R$132</f>
+        <v>282.19660000000005</v>
+      </c>
+      <c r="U10" s="2">
+        <f>$C10*Sheet1!S$132</f>
+        <v>283.13180000000006</v>
+      </c>
+      <c r="V10" s="2">
+        <f>$C10*Sheet1!T$132</f>
+        <v>287.57400000000001</v>
+      </c>
+      <c r="W10" s="2">
+        <f>C10*Sheet1!A$133</f>
+        <v>234.73520000000002</v>
+      </c>
+      <c r="X10" s="2">
+        <f>D10*Sheet1!B$133</f>
+        <v>238.96043360000002</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>E10*Sheet1!C$133</f>
+        <v>242.52354559999998</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>F10*Sheet1!D$133</f>
+        <v>245.87436719999999</v>
+      </c>
+      <c r="AA10" s="2">
+        <f>G10*Sheet1!E$133</f>
+        <v>254.82493259999998</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>H10*Sheet1!F$133</f>
+        <v>257.50919040000002</v>
+      </c>
+      <c r="AC10" s="2">
+        <f>I10*Sheet1!G$133</f>
+        <v>261.92380200000002</v>
+      </c>
+      <c r="AD10" s="2">
+        <f>J10*Sheet1!H$133</f>
+        <v>267.80948320000005</v>
+      </c>
+      <c r="AE10" s="2">
+        <f>K10*Sheet1!I$133</f>
+        <v>287.2738008</v>
+      </c>
+      <c r="AF10" s="2">
+        <f>L10*Sheet1!J$133</f>
+        <v>289.84793879999995</v>
+      </c>
+      <c r="AG10" s="2">
+        <f>M10*Sheet1!K$133</f>
+        <v>291.66386339999997</v>
+      </c>
+      <c r="AH10" s="2">
+        <f>N10*Sheet1!L$133</f>
+        <v>297.69099359999996</v>
+      </c>
+      <c r="AI10" s="2">
+        <f>O10*Sheet1!M$133</f>
+        <v>314.85939519999999</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f>P10*Sheet1!N$133</f>
+        <v>317.30424180000006</v>
+      </c>
+      <c r="AK10" s="2">
+        <f>Q10*Sheet1!O$133</f>
+        <v>325.80591120000003</v>
+      </c>
+      <c r="AL10" s="2">
+        <f>R10*Sheet1!P$133</f>
+        <v>330.47536479999997</v>
+      </c>
+      <c r="AM10" s="2">
+        <f>S10*Sheet1!Q$133</f>
+        <v>334.97928799999994</v>
+      </c>
+      <c r="AN10" s="2">
+        <f>T10*Sheet1!R$133</f>
+        <v>341.45788600000003</v>
+      </c>
+      <c r="AO10" s="2">
+        <f>U10*Sheet1!S$133</f>
+        <v>343.15574160000006</v>
+      </c>
+      <c r="AP10" s="2">
+        <f>V10*Sheet1!T$133</f>
+        <v>351.70300200000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>23</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>247.5</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>297</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>321.75</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="2"/>
-        <v>272.25</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="3"/>
-        <v>326.70000000000005</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="4"/>
-        <v>353.92500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <f>$C11*Sheet1!B$132</f>
+        <v>251.95500000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <f>$C11*Sheet1!C$132</f>
+        <v>253.44</v>
+      </c>
+      <c r="F11" s="2">
+        <f>$C11*Sheet1!D$132</f>
+        <v>254.43</v>
+      </c>
+      <c r="G11" s="2">
+        <f>$C11*Sheet1!E$132</f>
+        <v>259.13249999999999</v>
+      </c>
+      <c r="H11" s="2">
+        <f>$C11*Sheet1!F$132</f>
+        <v>261.36</v>
+      </c>
+      <c r="I11" s="2">
+        <f>$C11*Sheet1!G$132</f>
+        <v>264.82499999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <f>$C11*Sheet1!H$132</f>
+        <v>270.51749999999998</v>
+      </c>
+      <c r="K11" s="2">
+        <f>$C11*Sheet1!I$132</f>
+        <v>272.4975</v>
+      </c>
+      <c r="L11" s="2">
+        <f>$C11*Sheet1!J$132</f>
+        <v>272.4975</v>
+      </c>
+      <c r="M11" s="2">
+        <f>$C11*Sheet1!K$132</f>
+        <v>272.99250000000001</v>
+      </c>
+      <c r="N11" s="2">
+        <f>$C11*Sheet1!L$132</f>
+        <v>275.46749999999997</v>
+      </c>
+      <c r="O11" s="2">
+        <f>$C11*Sheet1!M$132</f>
+        <v>289.08</v>
+      </c>
+      <c r="P11" s="2">
+        <f>$C11*Sheet1!N$132</f>
+        <v>290.3175</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>$C11*Sheet1!O$132</f>
+        <v>290.3175</v>
+      </c>
+      <c r="R11" s="2">
+        <f>$C11*Sheet1!P$132</f>
+        <v>290.565</v>
+      </c>
+      <c r="S11" s="2">
+        <f>$C11*Sheet1!Q$132</f>
+        <v>294.52499999999998</v>
+      </c>
+      <c r="T11" s="2">
+        <f>$C11*Sheet1!R$132</f>
+        <v>298.73250000000002</v>
+      </c>
+      <c r="U11" s="2">
+        <f>$C11*Sheet1!S$132</f>
+        <v>299.72250000000003</v>
+      </c>
+      <c r="V11" s="2">
+        <f>$C11*Sheet1!T$132</f>
+        <v>304.42500000000001</v>
+      </c>
+      <c r="W11" s="2">
+        <f>C11*Sheet1!A$133</f>
+        <v>248.49</v>
+      </c>
+      <c r="X11" s="2">
+        <f>D11*Sheet1!B$133</f>
+        <v>252.96282000000002</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>E11*Sheet1!C$133</f>
+        <v>256.73471999999998</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>F11*Sheet1!D$133</f>
+        <v>260.28188999999998</v>
+      </c>
+      <c r="AA11" s="2">
+        <f>G11*Sheet1!E$133</f>
+        <v>269.75693249999995</v>
+      </c>
+      <c r="AB11" s="2">
+        <f>H11*Sheet1!F$133</f>
+        <v>272.59848</v>
+      </c>
+      <c r="AC11" s="2">
+        <f>I11*Sheet1!G$133</f>
+        <v>277.27177499999999</v>
+      </c>
+      <c r="AD11" s="2">
+        <f>J11*Sheet1!H$133</f>
+        <v>283.50234</v>
+      </c>
+      <c r="AE11" s="2">
+        <f>K11*Sheet1!I$133</f>
+        <v>304.10721000000001</v>
+      </c>
+      <c r="AF11" s="2">
+        <f>L11*Sheet1!J$133</f>
+        <v>306.83218499999998</v>
+      </c>
+      <c r="AG11" s="2">
+        <f>M11*Sheet1!K$133</f>
+        <v>308.75451750000002</v>
+      </c>
+      <c r="AH11" s="2">
+        <f>N11*Sheet1!L$133</f>
+        <v>315.13481999999993</v>
+      </c>
+      <c r="AI11" s="2">
+        <f>O11*Sheet1!M$133</f>
+        <v>333.30923999999999</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f>P11*Sheet1!N$133</f>
+        <v>335.89734750000002</v>
+      </c>
+      <c r="AK11" s="2">
+        <f>Q11*Sheet1!O$133</f>
+        <v>344.89718999999997</v>
+      </c>
+      <c r="AL11" s="2">
+        <f>R11*Sheet1!P$133</f>
+        <v>349.84026</v>
+      </c>
+      <c r="AM11" s="2">
+        <f>S11*Sheet1!Q$133</f>
+        <v>354.60809999999998</v>
+      </c>
+      <c r="AN11" s="2">
+        <f>T11*Sheet1!R$133</f>
+        <v>361.46632499999998</v>
+      </c>
+      <c r="AO11" s="2">
+        <f>U11*Sheet1!S$133</f>
+        <v>363.26367000000005</v>
+      </c>
+      <c r="AP11" s="2">
+        <f>V11*Sheet1!T$133</f>
+        <v>372.31177500000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>21</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>274</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>328.8</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="1"/>
-        <v>356.2</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="2"/>
-        <v>301.40000000000003</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="3"/>
-        <v>361.68000000000006</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="4"/>
-        <v>391.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <f>$C12*Sheet1!B$132</f>
+        <v>278.93200000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <f>$C12*Sheet1!C$132</f>
+        <v>280.57600000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <f>$C12*Sheet1!D$132</f>
+        <v>281.67200000000003</v>
+      </c>
+      <c r="G12" s="2">
+        <f>$C12*Sheet1!E$132</f>
+        <v>286.87799999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <f>$C12*Sheet1!F$132</f>
+        <v>289.34399999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <f>$C12*Sheet1!G$132</f>
+        <v>293.18</v>
+      </c>
+      <c r="J12" s="2">
+        <f>$C12*Sheet1!H$132</f>
+        <v>299.48199999999997</v>
+      </c>
+      <c r="K12" s="2">
+        <f>$C12*Sheet1!I$132</f>
+        <v>301.67399999999998</v>
+      </c>
+      <c r="L12" s="2">
+        <f>$C12*Sheet1!J$132</f>
+        <v>301.67399999999998</v>
+      </c>
+      <c r="M12" s="2">
+        <f>$C12*Sheet1!K$132</f>
+        <v>302.22199999999998</v>
+      </c>
+      <c r="N12" s="2">
+        <f>$C12*Sheet1!L$132</f>
+        <v>304.96199999999999</v>
+      </c>
+      <c r="O12" s="2">
+        <f>$C12*Sheet1!M$132</f>
+        <v>320.03199999999998</v>
+      </c>
+      <c r="P12" s="2">
+        <f>$C12*Sheet1!N$132</f>
+        <v>321.40199999999999</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>$C12*Sheet1!O$132</f>
+        <v>321.40199999999999</v>
+      </c>
+      <c r="R12" s="2">
+        <f>$C12*Sheet1!P$132</f>
+        <v>321.67599999999999</v>
+      </c>
+      <c r="S12" s="2">
+        <f>$C12*Sheet1!Q$132</f>
+        <v>326.06</v>
+      </c>
+      <c r="T12" s="2">
+        <f>$C12*Sheet1!R$132</f>
+        <v>330.71800000000002</v>
+      </c>
+      <c r="U12" s="2">
+        <f>$C12*Sheet1!S$132</f>
+        <v>331.81400000000002</v>
+      </c>
+      <c r="V12" s="2">
+        <f>$C12*Sheet1!T$132</f>
+        <v>337.02</v>
+      </c>
+      <c r="W12" s="2">
+        <f>C12*Sheet1!A$133</f>
+        <v>275.096</v>
+      </c>
+      <c r="X12" s="2">
+        <f>D12*Sheet1!B$133</f>
+        <v>280.04772800000001</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>E12*Sheet1!C$133</f>
+        <v>284.22348799999997</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>F12*Sheet1!D$133</f>
+        <v>288.15045600000002</v>
+      </c>
+      <c r="AA12" s="2">
+        <f>G12*Sheet1!E$133</f>
+        <v>298.63999799999999</v>
+      </c>
+      <c r="AB12" s="2">
+        <f>H12*Sheet1!F$133</f>
+        <v>301.78579199999996</v>
+      </c>
+      <c r="AC12" s="2">
+        <f>I12*Sheet1!G$133</f>
+        <v>306.95945999999998</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>J12*Sheet1!H$133</f>
+        <v>313.85713599999997</v>
+      </c>
+      <c r="AE12" s="2">
+        <f>K12*Sheet1!I$133</f>
+        <v>336.668184</v>
+      </c>
+      <c r="AF12" s="2">
+        <f>L12*Sheet1!J$133</f>
+        <v>339.68492399999997</v>
+      </c>
+      <c r="AG12" s="2">
+        <f>M12*Sheet1!K$133</f>
+        <v>341.81308199999995</v>
+      </c>
+      <c r="AH12" s="2">
+        <f>N12*Sheet1!L$133</f>
+        <v>348.87652799999995</v>
+      </c>
+      <c r="AI12" s="2">
+        <f>O12*Sheet1!M$133</f>
+        <v>368.99689599999999</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f>P12*Sheet1!N$133</f>
+        <v>371.86211400000002</v>
+      </c>
+      <c r="AK12" s="2">
+        <f>Q12*Sheet1!O$133</f>
+        <v>381.82557599999996</v>
+      </c>
+      <c r="AL12" s="2">
+        <f>R12*Sheet1!P$133</f>
+        <v>387.29790399999996</v>
+      </c>
+      <c r="AM12" s="2">
+        <f>S12*Sheet1!Q$133</f>
+        <v>392.57623999999998</v>
+      </c>
+      <c r="AN12" s="2">
+        <f>T12*Sheet1!R$133</f>
+        <v>400.16878000000003</v>
+      </c>
+      <c r="AO12" s="2">
+        <f>U12*Sheet1!S$133</f>
+        <v>402.158568</v>
+      </c>
+      <c r="AP12" s="2">
+        <f>V12*Sheet1!T$133</f>
+        <v>412.17545999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>27</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>281</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>337.2</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="1"/>
-        <v>365.3</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="2"/>
-        <v>309.10000000000002</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="3"/>
-        <v>370.92</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="4"/>
-        <v>401.83000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <f>$C13*Sheet1!B$132</f>
+        <v>286.05799999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <f>$C13*Sheet1!C$132</f>
+        <v>287.74400000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <f>$C13*Sheet1!D$132</f>
+        <v>288.86799999999999</v>
+      </c>
+      <c r="G13" s="2">
+        <f>$C13*Sheet1!E$132</f>
+        <v>294.20699999999999</v>
+      </c>
+      <c r="H13" s="2">
+        <f>$C13*Sheet1!F$132</f>
+        <v>296.73599999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <f>$C13*Sheet1!G$132</f>
+        <v>300.67</v>
+      </c>
+      <c r="J13" s="2">
+        <f>$C13*Sheet1!H$132</f>
+        <v>307.13299999999998</v>
+      </c>
+      <c r="K13" s="2">
+        <f>$C13*Sheet1!I$132</f>
+        <v>309.38099999999997</v>
+      </c>
+      <c r="L13" s="2">
+        <f>$C13*Sheet1!J$132</f>
+        <v>309.38099999999997</v>
+      </c>
+      <c r="M13" s="2">
+        <f>$C13*Sheet1!K$132</f>
+        <v>309.94299999999998</v>
+      </c>
+      <c r="N13" s="2">
+        <f>$C13*Sheet1!L$132</f>
+        <v>312.75299999999999</v>
+      </c>
+      <c r="O13" s="2">
+        <f>$C13*Sheet1!M$132</f>
+        <v>328.20799999999997</v>
+      </c>
+      <c r="P13" s="2">
+        <f>$C13*Sheet1!N$132</f>
+        <v>329.613</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>$C13*Sheet1!O$132</f>
+        <v>329.613</v>
+      </c>
+      <c r="R13" s="2">
+        <f>$C13*Sheet1!P$132</f>
+        <v>329.89400000000001</v>
+      </c>
+      <c r="S13" s="2">
+        <f>$C13*Sheet1!Q$132</f>
+        <v>334.39</v>
+      </c>
+      <c r="T13" s="2">
+        <f>$C13*Sheet1!R$132</f>
+        <v>339.16700000000003</v>
+      </c>
+      <c r="U13" s="2">
+        <f>$C13*Sheet1!S$132</f>
+        <v>340.291</v>
+      </c>
+      <c r="V13" s="2">
+        <f>$C13*Sheet1!T$132</f>
+        <v>345.63</v>
+      </c>
+      <c r="W13" s="2">
+        <f>C13*Sheet1!A$133</f>
+        <v>282.12400000000002</v>
+      </c>
+      <c r="X13" s="2">
+        <f>D13*Sheet1!B$133</f>
+        <v>287.20223199999998</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>E13*Sheet1!C$133</f>
+        <v>291.48467199999999</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>F13*Sheet1!D$133</f>
+        <v>295.51196399999998</v>
+      </c>
+      <c r="AA13" s="2">
+        <f>G13*Sheet1!E$133</f>
+        <v>306.26948699999997</v>
+      </c>
+      <c r="AB13" s="2">
+        <f>H13*Sheet1!F$133</f>
+        <v>309.49564799999996</v>
+      </c>
+      <c r="AC13" s="2">
+        <f>I13*Sheet1!G$133</f>
+        <v>314.80149</v>
+      </c>
+      <c r="AD13" s="2">
+        <f>J13*Sheet1!H$133</f>
+        <v>321.875384</v>
+      </c>
+      <c r="AE13" s="2">
+        <f>K13*Sheet1!I$133</f>
+        <v>345.26919600000002</v>
+      </c>
+      <c r="AF13" s="2">
+        <f>L13*Sheet1!J$133</f>
+        <v>348.36300599999993</v>
+      </c>
+      <c r="AG13" s="2">
+        <f>M13*Sheet1!K$133</f>
+        <v>350.54553299999998</v>
+      </c>
+      <c r="AH13" s="2">
+        <f>N13*Sheet1!L$133</f>
+        <v>357.78943199999998</v>
+      </c>
+      <c r="AI13" s="2">
+        <f>O13*Sheet1!M$133</f>
+        <v>378.42382399999997</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f>P13*Sheet1!N$133</f>
+        <v>381.36224099999998</v>
+      </c>
+      <c r="AK13" s="2">
+        <f>Q13*Sheet1!O$133</f>
+        <v>391.58024399999999</v>
+      </c>
+      <c r="AL13" s="2">
+        <f>R13*Sheet1!P$133</f>
+        <v>397.19237599999997</v>
+      </c>
+      <c r="AM13" s="2">
+        <f>S13*Sheet1!Q$133</f>
+        <v>402.60555999999997</v>
+      </c>
+      <c r="AN13" s="2">
+        <f>T13*Sheet1!R$133</f>
+        <v>410.39207000000005</v>
+      </c>
+      <c r="AO13" s="2">
+        <f>U13*Sheet1!S$133</f>
+        <v>412.43269199999997</v>
+      </c>
+      <c r="AP13" s="2">
+        <f>V13*Sheet1!T$133</f>
+        <v>422.70549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>29</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>283.5</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>340.2</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
-        <v>368.55</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="2"/>
-        <v>311.85000000000002</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="3"/>
-        <v>374.22</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="4"/>
-        <v>405.40500000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <f>$C14*Sheet1!B$132</f>
+        <v>288.60300000000001</v>
+      </c>
+      <c r="E14" s="2">
+        <f>$C14*Sheet1!C$132</f>
+        <v>290.30400000000003</v>
+      </c>
+      <c r="F14" s="2">
+        <f>$C14*Sheet1!D$132</f>
+        <v>291.43799999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <f>$C14*Sheet1!E$132</f>
+        <v>296.8245</v>
+      </c>
+      <c r="H14" s="2">
+        <f>$C14*Sheet1!F$132</f>
+        <v>299.37600000000003</v>
+      </c>
+      <c r="I14" s="2">
+        <f>$C14*Sheet1!G$132</f>
+        <v>303.34500000000003</v>
+      </c>
+      <c r="J14" s="2">
+        <f>$C14*Sheet1!H$132</f>
+        <v>309.8655</v>
+      </c>
+      <c r="K14" s="2">
+        <f>$C14*Sheet1!I$132</f>
+        <v>312.13349999999997</v>
+      </c>
+      <c r="L14" s="2">
+        <f>$C14*Sheet1!J$132</f>
+        <v>312.13349999999997</v>
+      </c>
+      <c r="M14" s="2">
+        <f>$C14*Sheet1!K$132</f>
+        <v>312.70049999999998</v>
+      </c>
+      <c r="N14" s="2">
+        <f>$C14*Sheet1!L$132</f>
+        <v>315.53550000000001</v>
+      </c>
+      <c r="O14" s="2">
+        <f>$C14*Sheet1!M$132</f>
+        <v>331.12799999999999</v>
+      </c>
+      <c r="P14" s="2">
+        <f>$C14*Sheet1!N$132</f>
+        <v>332.5455</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>$C14*Sheet1!O$132</f>
+        <v>332.5455</v>
+      </c>
+      <c r="R14" s="2">
+        <f>$C14*Sheet1!P$132</f>
+        <v>332.82900000000001</v>
+      </c>
+      <c r="S14" s="2">
+        <f>$C14*Sheet1!Q$132</f>
+        <v>337.36500000000001</v>
+      </c>
+      <c r="T14" s="2">
+        <f>$C14*Sheet1!R$132</f>
+        <v>342.18450000000001</v>
+      </c>
+      <c r="U14" s="2">
+        <f>$C14*Sheet1!S$132</f>
+        <v>343.31850000000003</v>
+      </c>
+      <c r="V14" s="2">
+        <f>$C14*Sheet1!T$132</f>
+        <v>348.70499999999998</v>
+      </c>
+      <c r="W14" s="2">
+        <f>C14*Sheet1!A$133</f>
+        <v>284.63400000000001</v>
+      </c>
+      <c r="X14" s="2">
+        <f>D14*Sheet1!B$133</f>
+        <v>289.75741199999999</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>E14*Sheet1!C$133</f>
+        <v>294.07795199999998</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>F14*Sheet1!D$133</f>
+        <v>298.14107399999995</v>
+      </c>
+      <c r="AA14" s="2">
+        <f>G14*Sheet1!E$133</f>
+        <v>308.9943045</v>
+      </c>
+      <c r="AB14" s="2">
+        <f>H14*Sheet1!F$133</f>
+        <v>312.249168</v>
+      </c>
+      <c r="AC14" s="2">
+        <f>I14*Sheet1!G$133</f>
+        <v>317.602215</v>
+      </c>
+      <c r="AD14" s="2">
+        <f>J14*Sheet1!H$133</f>
+        <v>324.73904400000004</v>
+      </c>
+      <c r="AE14" s="2">
+        <f>K14*Sheet1!I$133</f>
+        <v>348.34098599999999</v>
+      </c>
+      <c r="AF14" s="2">
+        <f>L14*Sheet1!J$133</f>
+        <v>351.46232099999992</v>
+      </c>
+      <c r="AG14" s="2">
+        <f>M14*Sheet1!K$133</f>
+        <v>353.6642655</v>
+      </c>
+      <c r="AH14" s="2">
+        <f>N14*Sheet1!L$133</f>
+        <v>360.97261199999997</v>
+      </c>
+      <c r="AI14" s="2">
+        <f>O14*Sheet1!M$133</f>
+        <v>381.79058399999997</v>
+      </c>
+      <c r="AJ14" s="2">
+        <f>P14*Sheet1!N$133</f>
+        <v>384.75514350000003</v>
+      </c>
+      <c r="AK14" s="2">
+        <f>Q14*Sheet1!O$133</f>
+        <v>395.064054</v>
+      </c>
+      <c r="AL14" s="2">
+        <f>R14*Sheet1!P$133</f>
+        <v>400.72611599999999</v>
+      </c>
+      <c r="AM14" s="2">
+        <f>S14*Sheet1!Q$133</f>
+        <v>406.18745999999999</v>
+      </c>
+      <c r="AN14" s="2">
+        <f>T14*Sheet1!R$133</f>
+        <v>414.04324500000001</v>
+      </c>
+      <c r="AO14" s="2">
+        <f>U14*Sheet1!S$133</f>
+        <v>416.10202200000003</v>
+      </c>
+      <c r="AP14" s="2">
+        <f>V14*Sheet1!T$133</f>
+        <v>426.46621500000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>24</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>308.60000000000002</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>370.32</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="1"/>
-        <v>401.18000000000006</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="2"/>
-        <v>339.46000000000004</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="3"/>
-        <v>407.35200000000003</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="4"/>
-        <v>441.29800000000012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <f>$C15*Sheet1!B$132</f>
+        <v>314.15480000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <f>$C15*Sheet1!C$132</f>
+        <v>316.00640000000004</v>
+      </c>
+      <c r="F15" s="2">
+        <f>$C15*Sheet1!D$132</f>
+        <v>317.24080000000004</v>
+      </c>
+      <c r="G15" s="2">
+        <f>$C15*Sheet1!E$132</f>
+        <v>323.10419999999999</v>
+      </c>
+      <c r="H15" s="2">
+        <f>$C15*Sheet1!F$132</f>
+        <v>325.88160000000005</v>
+      </c>
+      <c r="I15" s="2">
+        <f>$C15*Sheet1!G$132</f>
+        <v>330.20200000000006</v>
+      </c>
+      <c r="J15" s="2">
+        <f>$C15*Sheet1!H$132</f>
+        <v>337.2998</v>
+      </c>
+      <c r="K15" s="2">
+        <f>$C15*Sheet1!I$132</f>
+        <v>339.76859999999999</v>
+      </c>
+      <c r="L15" s="2">
+        <f>$C15*Sheet1!J$132</f>
+        <v>339.76859999999999</v>
+      </c>
+      <c r="M15" s="2">
+        <f>$C15*Sheet1!K$132</f>
+        <v>340.38580000000002</v>
+      </c>
+      <c r="N15" s="2">
+        <f>$C15*Sheet1!L$132</f>
+        <v>343.47180000000003</v>
+      </c>
+      <c r="O15" s="2">
+        <f>$C15*Sheet1!M$132</f>
+        <v>360.44479999999999</v>
+      </c>
+      <c r="P15" s="2">
+        <f>$C15*Sheet1!N$132</f>
+        <v>361.98780000000005</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>$C15*Sheet1!O$132</f>
+        <v>361.98780000000005</v>
+      </c>
+      <c r="R15" s="2">
+        <f>$C15*Sheet1!P$132</f>
+        <v>362.29640000000001</v>
+      </c>
+      <c r="S15" s="2">
+        <f>$C15*Sheet1!Q$132</f>
+        <v>367.23400000000004</v>
+      </c>
+      <c r="T15" s="2">
+        <f>$C15*Sheet1!R$132</f>
+        <v>372.48020000000002</v>
+      </c>
+      <c r="U15" s="2">
+        <f>$C15*Sheet1!S$132</f>
+        <v>373.71460000000008</v>
+      </c>
+      <c r="V15" s="2">
+        <f>$C15*Sheet1!T$132</f>
+        <v>379.57800000000003</v>
+      </c>
+      <c r="W15" s="2">
+        <f>C15*Sheet1!A$133</f>
+        <v>309.83440000000002</v>
+      </c>
+      <c r="X15" s="2">
+        <f>D15*Sheet1!B$133</f>
+        <v>315.41141920000001</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>E15*Sheet1!C$133</f>
+        <v>320.1144832</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>F15*Sheet1!D$133</f>
+        <v>324.53733840000001</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>G15*Sheet1!E$133</f>
+        <v>336.35147219999999</v>
+      </c>
+      <c r="AB15" s="2">
+        <f>H15*Sheet1!F$133</f>
+        <v>339.89450880000004</v>
+      </c>
+      <c r="AC15" s="2">
+        <f>I15*Sheet1!G$133</f>
+        <v>345.72149400000001</v>
+      </c>
+      <c r="AD15" s="2">
+        <f>J15*Sheet1!H$133</f>
+        <v>353.49019040000002</v>
+      </c>
+      <c r="AE15" s="2">
+        <f>K15*Sheet1!I$133</f>
+        <v>379.18175760000003</v>
+      </c>
+      <c r="AF15" s="2">
+        <f>L15*Sheet1!J$133</f>
+        <v>382.57944359999993</v>
+      </c>
+      <c r="AG15" s="2">
+        <f>M15*Sheet1!K$133</f>
+        <v>384.97633980000001</v>
+      </c>
+      <c r="AH15" s="2">
+        <f>N15*Sheet1!L$133</f>
+        <v>392.93173919999998</v>
+      </c>
+      <c r="AI15" s="2">
+        <f>O15*Sheet1!M$133</f>
+        <v>415.59285440000002</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f>P15*Sheet1!N$133</f>
+        <v>418.81988460000008</v>
+      </c>
+      <c r="AK15" s="2">
+        <f>Q15*Sheet1!O$133</f>
+        <v>430.04150640000006</v>
+      </c>
+      <c r="AL15" s="2">
+        <f>R15*Sheet1!P$133</f>
+        <v>436.20486560000001</v>
+      </c>
+      <c r="AM15" s="2">
+        <f>S15*Sheet1!Q$133</f>
+        <v>442.14973600000002</v>
+      </c>
+      <c r="AN15" s="2">
+        <f>T15*Sheet1!R$133</f>
+        <v>450.70104200000003</v>
+      </c>
+      <c r="AO15" s="2">
+        <f>U15*Sheet1!S$133</f>
+        <v>452.9420952000001</v>
+      </c>
+      <c r="AP15" s="2">
+        <f>V15*Sheet1!T$133</f>
+        <v>464.22389400000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>320</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="1"/>
-        <v>416</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="2"/>
-        <v>352</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="3"/>
-        <v>422.40000000000003</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="4"/>
-        <v>457.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <f>$C16*Sheet1!B$132</f>
+        <v>325.76</v>
+      </c>
+      <c r="E16" s="2">
+        <f>$C16*Sheet1!C$132</f>
+        <v>327.68</v>
+      </c>
+      <c r="F16" s="2">
+        <f>$C16*Sheet1!D$132</f>
+        <v>328.96000000000004</v>
+      </c>
+      <c r="G16" s="2">
+        <f>$C16*Sheet1!E$132</f>
+        <v>335.03999999999996</v>
+      </c>
+      <c r="H16" s="2">
+        <f>$C16*Sheet1!F$132</f>
+        <v>337.92</v>
+      </c>
+      <c r="I16" s="2">
+        <f>$C16*Sheet1!G$132</f>
+        <v>342.40000000000003</v>
+      </c>
+      <c r="J16" s="2">
+        <f>$C16*Sheet1!H$132</f>
+        <v>349.76</v>
+      </c>
+      <c r="K16" s="2">
+        <f>$C16*Sheet1!I$132</f>
+        <v>352.32</v>
+      </c>
+      <c r="L16" s="2">
+        <f>$C16*Sheet1!J$132</f>
+        <v>352.32</v>
+      </c>
+      <c r="M16" s="2">
+        <f>$C16*Sheet1!K$132</f>
+        <v>352.96</v>
+      </c>
+      <c r="N16" s="2">
+        <f>$C16*Sheet1!L$132</f>
+        <v>356.15999999999997</v>
+      </c>
+      <c r="O16" s="2">
+        <f>$C16*Sheet1!M$132</f>
+        <v>373.76</v>
+      </c>
+      <c r="P16" s="2">
+        <f>$C16*Sheet1!N$132</f>
+        <v>375.36</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>$C16*Sheet1!O$132</f>
+        <v>375.36</v>
+      </c>
+      <c r="R16" s="2">
+        <f>$C16*Sheet1!P$132</f>
+        <v>375.67999999999995</v>
+      </c>
+      <c r="S16" s="2">
+        <f>$C16*Sheet1!Q$132</f>
+        <v>380.79999999999995</v>
+      </c>
+      <c r="T16" s="2">
+        <f>$C16*Sheet1!R$132</f>
+        <v>386.24</v>
+      </c>
+      <c r="U16" s="2">
+        <f>$C16*Sheet1!S$132</f>
+        <v>387.52000000000004</v>
+      </c>
+      <c r="V16" s="2">
+        <f>$C16*Sheet1!T$132</f>
+        <v>393.6</v>
+      </c>
+      <c r="W16" s="2">
+        <f>C16*Sheet1!A$133</f>
+        <v>321.27999999999997</v>
+      </c>
+      <c r="X16" s="2">
+        <f>D16*Sheet1!B$133</f>
+        <v>327.06304</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>E16*Sheet1!C$133</f>
+        <v>331.93983999999995</v>
+      </c>
+      <c r="Z16" s="2">
+        <f>F16*Sheet1!D$133</f>
+        <v>336.52607999999998</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>G16*Sheet1!E$133</f>
+        <v>348.77663999999993</v>
+      </c>
+      <c r="AB16" s="2">
+        <f>H16*Sheet1!F$133</f>
+        <v>352.45056</v>
+      </c>
+      <c r="AC16" s="2">
+        <f>I16*Sheet1!G$133</f>
+        <v>358.49279999999999</v>
+      </c>
+      <c r="AD16" s="2">
+        <f>J16*Sheet1!H$133</f>
+        <v>366.54847999999998</v>
+      </c>
+      <c r="AE16" s="2">
+        <f>K16*Sheet1!I$133</f>
+        <v>393.18912</v>
+      </c>
+      <c r="AF16" s="2">
+        <f>L16*Sheet1!J$133</f>
+        <v>396.71231999999998</v>
+      </c>
+      <c r="AG16" s="2">
+        <f>M16*Sheet1!K$133</f>
+        <v>399.19775999999996</v>
+      </c>
+      <c r="AH16" s="2">
+        <f>N16*Sheet1!L$133</f>
+        <v>407.4470399999999</v>
+      </c>
+      <c r="AI16" s="2">
+        <f>O16*Sheet1!M$133</f>
+        <v>430.94528000000003</v>
+      </c>
+      <c r="AJ16" s="2">
+        <f>P16*Sheet1!N$133</f>
+        <v>434.29152000000005</v>
+      </c>
+      <c r="AK16" s="2">
+        <f>Q16*Sheet1!O$133</f>
+        <v>445.92768000000001</v>
+      </c>
+      <c r="AL16" s="2">
+        <f>R16*Sheet1!P$133</f>
+        <v>452.31871999999993</v>
+      </c>
+      <c r="AM16" s="2">
+        <f>S16*Sheet1!Q$133</f>
+        <v>458.48319999999995</v>
+      </c>
+      <c r="AN16" s="2">
+        <f>T16*Sheet1!R$133</f>
+        <v>467.35039999999998</v>
+      </c>
+      <c r="AO16" s="2">
+        <f>U16*Sheet1!S$133</f>
+        <v>469.67424000000005</v>
+      </c>
+      <c r="AP16" s="2">
+        <f>V16*Sheet1!T$133</f>
+        <v>481.37280000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>322</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>386.4</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="1"/>
-        <v>418.6</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>354.20000000000005</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="3"/>
-        <v>425.04</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="4"/>
-        <v>460.46000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <f>$C17*Sheet1!B$132</f>
+        <v>327.79599999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <f>$C17*Sheet1!C$132</f>
+        <v>329.72800000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <f>$C17*Sheet1!D$132</f>
+        <v>331.01600000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <f>$C17*Sheet1!E$132</f>
+        <v>337.13399999999996</v>
+      </c>
+      <c r="H17" s="2">
+        <f>$C17*Sheet1!F$132</f>
+        <v>340.03200000000004</v>
+      </c>
+      <c r="I17" s="2">
+        <f>$C17*Sheet1!G$132</f>
+        <v>344.54</v>
+      </c>
+      <c r="J17" s="2">
+        <f>$C17*Sheet1!H$132</f>
+        <v>351.94599999999997</v>
+      </c>
+      <c r="K17" s="2">
+        <f>$C17*Sheet1!I$132</f>
+        <v>354.52199999999999</v>
+      </c>
+      <c r="L17" s="2">
+        <f>$C17*Sheet1!J$132</f>
+        <v>354.52199999999999</v>
+      </c>
+      <c r="M17" s="2">
+        <f>$C17*Sheet1!K$132</f>
+        <v>355.166</v>
+      </c>
+      <c r="N17" s="2">
+        <f>$C17*Sheet1!L$132</f>
+        <v>358.38600000000002</v>
+      </c>
+      <c r="O17" s="2">
+        <f>$C17*Sheet1!M$132</f>
+        <v>376.096</v>
+      </c>
+      <c r="P17" s="2">
+        <f>$C17*Sheet1!N$132</f>
+        <v>377.70600000000002</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>$C17*Sheet1!O$132</f>
+        <v>377.70600000000002</v>
+      </c>
+      <c r="R17" s="2">
+        <f>$C17*Sheet1!P$132</f>
+        <v>378.02799999999996</v>
+      </c>
+      <c r="S17" s="2">
+        <f>$C17*Sheet1!Q$132</f>
+        <v>383.18</v>
+      </c>
+      <c r="T17" s="2">
+        <f>$C17*Sheet1!R$132</f>
+        <v>388.654</v>
+      </c>
+      <c r="U17" s="2">
+        <f>$C17*Sheet1!S$132</f>
+        <v>389.94200000000001</v>
+      </c>
+      <c r="V17" s="2">
+        <f>$C17*Sheet1!T$132</f>
+        <v>396.06</v>
+      </c>
+      <c r="W17" s="2">
+        <f>C17*Sheet1!A$133</f>
+        <v>323.28800000000001</v>
+      </c>
+      <c r="X17" s="2">
+        <f>D17*Sheet1!B$133</f>
+        <v>329.10718400000002</v>
+      </c>
+      <c r="Y17" s="2">
+        <f>E17*Sheet1!C$133</f>
+        <v>334.01446399999998</v>
+      </c>
+      <c r="Z17" s="2">
+        <f>F17*Sheet1!D$133</f>
+        <v>338.629368</v>
+      </c>
+      <c r="AA17" s="2">
+        <f>G17*Sheet1!E$133</f>
+        <v>350.95649399999991</v>
+      </c>
+      <c r="AB17" s="2">
+        <f>H17*Sheet1!F$133</f>
+        <v>354.65337600000004</v>
+      </c>
+      <c r="AC17" s="2">
+        <f>I17*Sheet1!G$133</f>
+        <v>360.73338000000001</v>
+      </c>
+      <c r="AD17" s="2">
+        <f>J17*Sheet1!H$133</f>
+        <v>368.83940799999999</v>
+      </c>
+      <c r="AE17" s="2">
+        <f>K17*Sheet1!I$133</f>
+        <v>395.64655200000004</v>
+      </c>
+      <c r="AF17" s="2">
+        <f>L17*Sheet1!J$133</f>
+        <v>399.19177199999996</v>
+      </c>
+      <c r="AG17" s="2">
+        <f>M17*Sheet1!K$133</f>
+        <v>401.692746</v>
+      </c>
+      <c r="AH17" s="2">
+        <f>N17*Sheet1!L$133</f>
+        <v>409.993584</v>
+      </c>
+      <c r="AI17" s="2">
+        <f>O17*Sheet1!M$133</f>
+        <v>433.638688</v>
+      </c>
+      <c r="AJ17" s="2">
+        <f>P17*Sheet1!N$133</f>
+        <v>437.00584200000003</v>
+      </c>
+      <c r="AK17" s="2">
+        <f>Q17*Sheet1!O$133</f>
+        <v>448.71472799999998</v>
+      </c>
+      <c r="AL17" s="2">
+        <f>R17*Sheet1!P$133</f>
+        <v>455.14571199999995</v>
+      </c>
+      <c r="AM17" s="2">
+        <f>S17*Sheet1!Q$133</f>
+        <v>461.34872000000001</v>
+      </c>
+      <c r="AN17" s="2">
+        <f>T17*Sheet1!R$133</f>
+        <v>470.27134000000001</v>
+      </c>
+      <c r="AO17" s="2">
+        <f>U17*Sheet1!S$133</f>
+        <v>472.60970400000002</v>
+      </c>
+      <c r="AP17" s="2">
+        <f>V17*Sheet1!T$133</f>
+        <v>484.38138000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>329</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>394.8</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>427.7</v>
-      </c>
-      <c r="F18" s="3">
-        <f t="shared" si="2"/>
-        <v>361.90000000000003</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="3"/>
-        <v>434.28000000000003</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="4"/>
-        <v>470.47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <f>$C18*Sheet1!B$132</f>
+        <v>334.92200000000003</v>
+      </c>
+      <c r="E18" s="2">
+        <f>$C18*Sheet1!C$132</f>
+        <v>336.89600000000002</v>
+      </c>
+      <c r="F18" s="2">
+        <f>$C18*Sheet1!D$132</f>
+        <v>338.21199999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <f>$C18*Sheet1!E$132</f>
+        <v>344.46299999999997</v>
+      </c>
+      <c r="H18" s="2">
+        <f>$C18*Sheet1!F$132</f>
+        <v>347.42400000000004</v>
+      </c>
+      <c r="I18" s="2">
+        <f>$C18*Sheet1!G$132</f>
+        <v>352.03000000000003</v>
+      </c>
+      <c r="J18" s="2">
+        <f>$C18*Sheet1!H$132</f>
+        <v>359.59699999999998</v>
+      </c>
+      <c r="K18" s="2">
+        <f>$C18*Sheet1!I$132</f>
+        <v>362.22899999999998</v>
+      </c>
+      <c r="L18" s="2">
+        <f>$C18*Sheet1!J$132</f>
+        <v>362.22899999999998</v>
+      </c>
+      <c r="M18" s="2">
+        <f>$C18*Sheet1!K$132</f>
+        <v>362.887</v>
+      </c>
+      <c r="N18" s="2">
+        <f>$C18*Sheet1!L$132</f>
+        <v>366.17700000000002</v>
+      </c>
+      <c r="O18" s="2">
+        <f>$C18*Sheet1!M$132</f>
+        <v>384.27199999999999</v>
+      </c>
+      <c r="P18" s="2">
+        <f>$C18*Sheet1!N$132</f>
+        <v>385.91700000000003</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>$C18*Sheet1!O$132</f>
+        <v>385.91700000000003</v>
+      </c>
+      <c r="R18" s="2">
+        <f>$C18*Sheet1!P$132</f>
+        <v>386.24599999999998</v>
+      </c>
+      <c r="S18" s="2">
+        <f>$C18*Sheet1!Q$132</f>
+        <v>391.51</v>
+      </c>
+      <c r="T18" s="2">
+        <f>$C18*Sheet1!R$132</f>
+        <v>397.10300000000001</v>
+      </c>
+      <c r="U18" s="2">
+        <f>$C18*Sheet1!S$132</f>
+        <v>398.41900000000004</v>
+      </c>
+      <c r="V18" s="2">
+        <f>$C18*Sheet1!T$132</f>
+        <v>404.67</v>
+      </c>
+      <c r="W18" s="2">
+        <f>C18*Sheet1!A$133</f>
+        <v>330.31599999999997</v>
+      </c>
+      <c r="X18" s="2">
+        <f>D18*Sheet1!B$133</f>
+        <v>336.26168800000005</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>E18*Sheet1!C$133</f>
+        <v>341.27564799999999</v>
+      </c>
+      <c r="Z18" s="2">
+        <f>F18*Sheet1!D$133</f>
+        <v>345.99087599999996</v>
+      </c>
+      <c r="AA18" s="2">
+        <f>G18*Sheet1!E$133</f>
+        <v>358.58598299999994</v>
+      </c>
+      <c r="AB18" s="2">
+        <f>H18*Sheet1!F$133</f>
+        <v>362.36323200000004</v>
+      </c>
+      <c r="AC18" s="2">
+        <f>I18*Sheet1!G$133</f>
+        <v>368.57541000000003</v>
+      </c>
+      <c r="AD18" s="2">
+        <f>J18*Sheet1!H$133</f>
+        <v>376.85765600000002</v>
+      </c>
+      <c r="AE18" s="2">
+        <f>K18*Sheet1!I$133</f>
+        <v>404.24756400000001</v>
+      </c>
+      <c r="AF18" s="2">
+        <f>L18*Sheet1!J$133</f>
+        <v>407.86985399999992</v>
+      </c>
+      <c r="AG18" s="2">
+        <f>M18*Sheet1!K$133</f>
+        <v>410.42519700000003</v>
+      </c>
+      <c r="AH18" s="2">
+        <f>N18*Sheet1!L$133</f>
+        <v>418.90648799999997</v>
+      </c>
+      <c r="AI18" s="2">
+        <f>O18*Sheet1!M$133</f>
+        <v>443.06561599999998</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f>P18*Sheet1!N$133</f>
+        <v>446.50596900000005</v>
+      </c>
+      <c r="AK18" s="2">
+        <f>Q18*Sheet1!O$133</f>
+        <v>458.46939600000002</v>
+      </c>
+      <c r="AL18" s="2">
+        <f>R18*Sheet1!P$133</f>
+        <v>465.04018399999995</v>
+      </c>
+      <c r="AM18" s="2">
+        <f>S18*Sheet1!Q$133</f>
+        <v>471.37804</v>
+      </c>
+      <c r="AN18" s="2">
+        <f>T18*Sheet1!R$133</f>
+        <v>480.49462999999997</v>
+      </c>
+      <c r="AO18" s="2">
+        <f>U18*Sheet1!S$133</f>
+        <v>482.88382800000005</v>
+      </c>
+      <c r="AP18" s="2">
+        <f>V18*Sheet1!T$133</f>
+        <v>494.91141000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>500</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" si="1"/>
-        <v>650</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="2"/>
-        <v>550</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="4"/>
-        <v>715.00000000000011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <f>$C19*Sheet1!B$132</f>
+        <v>509</v>
+      </c>
+      <c r="E19" s="2">
+        <f>$C19*Sheet1!C$132</f>
+        <v>512</v>
+      </c>
+      <c r="F19" s="2">
+        <f>$C19*Sheet1!D$132</f>
+        <v>514</v>
+      </c>
+      <c r="G19" s="2">
+        <f>$C19*Sheet1!E$132</f>
+        <v>523.5</v>
+      </c>
+      <c r="H19" s="2">
+        <f>$C19*Sheet1!F$132</f>
+        <v>528</v>
+      </c>
+      <c r="I19" s="2">
+        <f>$C19*Sheet1!G$132</f>
+        <v>535</v>
+      </c>
+      <c r="J19" s="2">
+        <f>$C19*Sheet1!H$132</f>
+        <v>546.5</v>
+      </c>
+      <c r="K19" s="2">
+        <f>$C19*Sheet1!I$132</f>
+        <v>550.5</v>
+      </c>
+      <c r="L19" s="2">
+        <f>$C19*Sheet1!J$132</f>
+        <v>550.5</v>
+      </c>
+      <c r="M19" s="2">
+        <f>$C19*Sheet1!K$132</f>
+        <v>551.5</v>
+      </c>
+      <c r="N19" s="2">
+        <f>$C19*Sheet1!L$132</f>
+        <v>556.5</v>
+      </c>
+      <c r="O19" s="2">
+        <f>$C19*Sheet1!M$132</f>
+        <v>584</v>
+      </c>
+      <c r="P19" s="2">
+        <f>$C19*Sheet1!N$132</f>
+        <v>586.5</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>$C19*Sheet1!O$132</f>
+        <v>586.5</v>
+      </c>
+      <c r="R19" s="2">
+        <f>$C19*Sheet1!P$132</f>
+        <v>587</v>
+      </c>
+      <c r="S19" s="2">
+        <f>$C19*Sheet1!Q$132</f>
+        <v>595</v>
+      </c>
+      <c r="T19" s="2">
+        <f>$C19*Sheet1!R$132</f>
+        <v>603.5</v>
+      </c>
+      <c r="U19" s="2">
+        <f>$C19*Sheet1!S$132</f>
+        <v>605.5</v>
+      </c>
+      <c r="V19" s="2">
+        <f>$C19*Sheet1!T$132</f>
+        <v>615</v>
+      </c>
+      <c r="W19" s="2">
+        <f>C19*Sheet1!A$133</f>
+        <v>502</v>
+      </c>
+      <c r="X19" s="2">
+        <f>D19*Sheet1!B$133</f>
+        <v>511.036</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>E19*Sheet1!C$133</f>
+        <v>518.65599999999995</v>
+      </c>
+      <c r="Z19" s="2">
+        <f>F19*Sheet1!D$133</f>
+        <v>525.822</v>
+      </c>
+      <c r="AA19" s="2">
+        <f>G19*Sheet1!E$133</f>
+        <v>544.96349999999995</v>
+      </c>
+      <c r="AB19" s="2">
+        <f>H19*Sheet1!F$133</f>
+        <v>550.70399999999995</v>
+      </c>
+      <c r="AC19" s="2">
+        <f>I19*Sheet1!G$133</f>
+        <v>560.14499999999998</v>
+      </c>
+      <c r="AD19" s="2">
+        <f>J19*Sheet1!H$133</f>
+        <v>572.73199999999997</v>
+      </c>
+      <c r="AE19" s="2">
+        <f>K19*Sheet1!I$133</f>
+        <v>614.35800000000006</v>
+      </c>
+      <c r="AF19" s="2">
+        <f>L19*Sheet1!J$133</f>
+        <v>619.86299999999994</v>
+      </c>
+      <c r="AG19" s="2">
+        <f>M19*Sheet1!K$133</f>
+        <v>623.74649999999997</v>
+      </c>
+      <c r="AH19" s="2">
+        <f>N19*Sheet1!L$133</f>
+        <v>636.63599999999997</v>
+      </c>
+      <c r="AI19" s="2">
+        <f>O19*Sheet1!M$133</f>
+        <v>673.35199999999998</v>
+      </c>
+      <c r="AJ19" s="2">
+        <f>P19*Sheet1!N$133</f>
+        <v>678.58050000000003</v>
+      </c>
+      <c r="AK19" s="2">
+        <f>Q19*Sheet1!O$133</f>
+        <v>696.76199999999994</v>
+      </c>
+      <c r="AL19" s="2">
+        <f>R19*Sheet1!P$133</f>
+        <v>706.74799999999993</v>
+      </c>
+      <c r="AM19" s="2">
+        <f>S19*Sheet1!Q$133</f>
+        <v>716.38</v>
+      </c>
+      <c r="AN19" s="2">
+        <f>T19*Sheet1!R$133</f>
+        <v>730.23500000000001</v>
+      </c>
+      <c r="AO19" s="2">
+        <f>U19*Sheet1!S$133</f>
+        <v>733.86599999999999</v>
+      </c>
+      <c r="AP19" s="2">
+        <f>V19*Sheet1!T$133</f>
+        <v>752.1450000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>8</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>522</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>626.4</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="1"/>
-        <v>678.6</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="2"/>
-        <v>574.20000000000005</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="3"/>
-        <v>689.04000000000008</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="4"/>
-        <v>746.46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <f>$C20*Sheet1!B$132</f>
+        <v>531.39599999999996</v>
+      </c>
+      <c r="E20" s="2">
+        <f>$C20*Sheet1!C$132</f>
+        <v>534.52800000000002</v>
+      </c>
+      <c r="F20" s="2">
+        <f>$C20*Sheet1!D$132</f>
+        <v>536.61599999999999</v>
+      </c>
+      <c r="G20" s="2">
+        <f>$C20*Sheet1!E$132</f>
+        <v>546.53399999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <f>$C20*Sheet1!F$132</f>
+        <v>551.23199999999997</v>
+      </c>
+      <c r="I20" s="2">
+        <f>$C20*Sheet1!G$132</f>
+        <v>558.54000000000008</v>
+      </c>
+      <c r="J20" s="2">
+        <f>$C20*Sheet1!H$132</f>
+        <v>570.54599999999994</v>
+      </c>
+      <c r="K20" s="2">
+        <f>$C20*Sheet1!I$132</f>
+        <v>574.72199999999998</v>
+      </c>
+      <c r="L20" s="2">
+        <f>$C20*Sheet1!J$132</f>
+        <v>574.72199999999998</v>
+      </c>
+      <c r="M20" s="2">
+        <f>$C20*Sheet1!K$132</f>
+        <v>575.76599999999996</v>
+      </c>
+      <c r="N20" s="2">
+        <f>$C20*Sheet1!L$132</f>
+        <v>580.98599999999999</v>
+      </c>
+      <c r="O20" s="2">
+        <f>$C20*Sheet1!M$132</f>
+        <v>609.69599999999991</v>
+      </c>
+      <c r="P20" s="2">
+        <f>$C20*Sheet1!N$132</f>
+        <v>612.30600000000004</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>$C20*Sheet1!O$132</f>
+        <v>612.30600000000004</v>
+      </c>
+      <c r="R20" s="2">
+        <f>$C20*Sheet1!P$132</f>
+        <v>612.82799999999997</v>
+      </c>
+      <c r="S20" s="2">
+        <f>$C20*Sheet1!Q$132</f>
+        <v>621.17999999999995</v>
+      </c>
+      <c r="T20" s="2">
+        <f>$C20*Sheet1!R$132</f>
+        <v>630.05400000000009</v>
+      </c>
+      <c r="U20" s="2">
+        <f>$C20*Sheet1!S$132</f>
+        <v>632.14200000000005</v>
+      </c>
+      <c r="V20" s="2">
+        <f>$C20*Sheet1!T$132</f>
+        <v>642.05999999999995</v>
+      </c>
+      <c r="W20" s="2">
+        <f>C20*Sheet1!A$133</f>
+        <v>524.08799999999997</v>
+      </c>
+      <c r="X20" s="2">
+        <f>D20*Sheet1!B$133</f>
+        <v>533.52158399999996</v>
+      </c>
+      <c r="Y20" s="2">
+        <f>E20*Sheet1!C$133</f>
+        <v>541.47686399999998</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>F20*Sheet1!D$133</f>
+        <v>548.95816799999989</v>
+      </c>
+      <c r="AA20" s="2">
+        <f>G20*Sheet1!E$133</f>
+        <v>568.94189399999993</v>
+      </c>
+      <c r="AB20" s="2">
+        <f>H20*Sheet1!F$133</f>
+        <v>574.93497599999989</v>
+      </c>
+      <c r="AC20" s="2">
+        <f>I20*Sheet1!G$133</f>
+        <v>584.79138</v>
+      </c>
+      <c r="AD20" s="2">
+        <f>J20*Sheet1!H$133</f>
+        <v>597.93220799999995</v>
+      </c>
+      <c r="AE20" s="2">
+        <f>K20*Sheet1!I$133</f>
+        <v>641.38975200000004</v>
+      </c>
+      <c r="AF20" s="2">
+        <f>L20*Sheet1!J$133</f>
+        <v>647.1369719999999</v>
+      </c>
+      <c r="AG20" s="2">
+        <f>M20*Sheet1!K$133</f>
+        <v>651.19134599999995</v>
+      </c>
+      <c r="AH20" s="2">
+        <f>N20*Sheet1!L$133</f>
+        <v>664.64798399999995</v>
+      </c>
+      <c r="AI20" s="2">
+        <f>O20*Sheet1!M$133</f>
+        <v>702.97948799999995</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f>P20*Sheet1!N$133</f>
+        <v>708.43804200000011</v>
+      </c>
+      <c r="AK20" s="2">
+        <f>Q20*Sheet1!O$133</f>
+        <v>727.41952800000001</v>
+      </c>
+      <c r="AL20" s="2">
+        <f>R20*Sheet1!P$133</f>
+        <v>737.84491199999991</v>
+      </c>
+      <c r="AM20" s="2">
+        <f>S20*Sheet1!Q$133</f>
+        <v>747.90071999999986</v>
+      </c>
+      <c r="AN20" s="2">
+        <f>T20*Sheet1!R$133</f>
+        <v>762.36534000000006</v>
+      </c>
+      <c r="AO20" s="2">
+        <f>U20*Sheet1!S$133</f>
+        <v>766.15610400000003</v>
+      </c>
+      <c r="AP20" s="2">
+        <f>V20*Sheet1!T$133</f>
+        <v>785.23937999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>680</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>816</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="1"/>
-        <v>884</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="2"/>
-        <v>748.00000000000011</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="3"/>
-        <v>897.6</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="4"/>
-        <v>972.40000000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <f>$C21*Sheet1!B$132</f>
+        <v>692.24</v>
+      </c>
+      <c r="E21" s="2">
+        <f>$C21*Sheet1!C$132</f>
+        <v>696.32</v>
+      </c>
+      <c r="F21" s="2">
+        <f>$C21*Sheet1!D$132</f>
+        <v>699.04</v>
+      </c>
+      <c r="G21" s="2">
+        <f>$C21*Sheet1!E$132</f>
+        <v>711.95999999999992</v>
+      </c>
+      <c r="H21" s="2">
+        <f>$C21*Sheet1!F$132</f>
+        <v>718.08</v>
+      </c>
+      <c r="I21" s="2">
+        <f>$C21*Sheet1!G$132</f>
+        <v>727.6</v>
+      </c>
+      <c r="J21" s="2">
+        <f>$C21*Sheet1!H$132</f>
+        <v>743.24</v>
+      </c>
+      <c r="K21" s="2">
+        <f>$C21*Sheet1!I$132</f>
+        <v>748.68</v>
+      </c>
+      <c r="L21" s="2">
+        <f>$C21*Sheet1!J$132</f>
+        <v>748.68</v>
+      </c>
+      <c r="M21" s="2">
+        <f>$C21*Sheet1!K$132</f>
+        <v>750.04</v>
+      </c>
+      <c r="N21" s="2">
+        <f>$C21*Sheet1!L$132</f>
+        <v>756.84</v>
+      </c>
+      <c r="O21" s="2">
+        <f>$C21*Sheet1!M$132</f>
+        <v>794.2399999999999</v>
+      </c>
+      <c r="P21" s="2">
+        <f>$C21*Sheet1!N$132</f>
+        <v>797.64</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>$C21*Sheet1!O$132</f>
+        <v>797.64</v>
+      </c>
+      <c r="R21" s="2">
+        <f>$C21*Sheet1!P$132</f>
+        <v>798.31999999999994</v>
+      </c>
+      <c r="S21" s="2">
+        <f>$C21*Sheet1!Q$132</f>
+        <v>809.19999999999993</v>
+      </c>
+      <c r="T21" s="2">
+        <f>$C21*Sheet1!R$132</f>
+        <v>820.7600000000001</v>
+      </c>
+      <c r="U21" s="2">
+        <f>$C21*Sheet1!S$132</f>
+        <v>823.48</v>
+      </c>
+      <c r="V21" s="2">
+        <f>$C21*Sheet1!T$132</f>
+        <v>836.4</v>
+      </c>
+      <c r="W21" s="2">
+        <f>C21*Sheet1!A$133</f>
+        <v>682.72</v>
+      </c>
+      <c r="X21" s="2">
+        <f>D21*Sheet1!B$133</f>
+        <v>695.00896</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>E21*Sheet1!C$133</f>
+        <v>705.37216000000001</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>F21*Sheet1!D$133</f>
+        <v>715.11791999999991</v>
+      </c>
+      <c r="AA21" s="2">
+        <f>G21*Sheet1!E$133</f>
+        <v>741.15035999999986</v>
+      </c>
+      <c r="AB21" s="2">
+        <f>H21*Sheet1!F$133</f>
+        <v>748.95744000000002</v>
+      </c>
+      <c r="AC21" s="2">
+        <f>I21*Sheet1!G$133</f>
+        <v>761.79719999999998</v>
+      </c>
+      <c r="AD21" s="2">
+        <f>J21*Sheet1!H$133</f>
+        <v>778.91552000000001</v>
+      </c>
+      <c r="AE21" s="2">
+        <f>K21*Sheet1!I$133</f>
+        <v>835.52688000000001</v>
+      </c>
+      <c r="AF21" s="2">
+        <f>L21*Sheet1!J$133</f>
+        <v>843.01367999999991</v>
+      </c>
+      <c r="AG21" s="2">
+        <f>M21*Sheet1!K$133</f>
+        <v>848.29523999999992</v>
+      </c>
+      <c r="AH21" s="2">
+        <f>N21*Sheet1!L$133</f>
+        <v>865.82495999999992</v>
+      </c>
+      <c r="AI21" s="2">
+        <f>O21*Sheet1!M$133</f>
+        <v>915.75871999999993</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f>P21*Sheet1!N$133</f>
+        <v>922.86947999999995</v>
+      </c>
+      <c r="AK21" s="2">
+        <f>Q21*Sheet1!O$133</f>
+        <v>947.59631999999999</v>
+      </c>
+      <c r="AL21" s="2">
+        <f>R21*Sheet1!P$133</f>
+        <v>961.17727999999988</v>
+      </c>
+      <c r="AM21" s="2">
+        <f>S21*Sheet1!Q$133</f>
+        <v>974.27679999999987</v>
+      </c>
+      <c r="AN21" s="2">
+        <f>T21*Sheet1!R$133</f>
+        <v>993.1196000000001</v>
+      </c>
+      <c r="AO21" s="2">
+        <f>U21*Sheet1!S$133</f>
+        <v>998.05776000000003</v>
+      </c>
+      <c r="AP21" s="2">
+        <f>V21*Sheet1!T$133</f>
+        <v>1022.9172000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>39</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>1104</v>
       </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>1324.8</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>1435.2</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="2"/>
-        <v>1214.4000000000001</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="3"/>
-        <v>1457.28</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="4"/>
-        <v>1578.7200000000003</v>
+      <c r="D22" s="2">
+        <f>$C22*Sheet1!B$132</f>
+        <v>1123.8720000000001</v>
+      </c>
+      <c r="E22" s="2">
+        <f>$C22*Sheet1!C$132</f>
+        <v>1130.4960000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <f>$C22*Sheet1!D$132</f>
+        <v>1134.912</v>
+      </c>
+      <c r="G22" s="2">
+        <f>$C22*Sheet1!E$132</f>
+        <v>1155.8879999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <f>$C22*Sheet1!F$132</f>
+        <v>1165.8240000000001</v>
+      </c>
+      <c r="I22" s="2">
+        <f>$C22*Sheet1!G$132</f>
+        <v>1181.28</v>
+      </c>
+      <c r="J22" s="2">
+        <f>$C22*Sheet1!H$132</f>
+        <v>1206.672</v>
+      </c>
+      <c r="K22" s="2">
+        <f>$C22*Sheet1!I$132</f>
+        <v>1215.5039999999999</v>
+      </c>
+      <c r="L22" s="2">
+        <f>$C22*Sheet1!J$132</f>
+        <v>1215.5039999999999</v>
+      </c>
+      <c r="M22" s="2">
+        <f>$C22*Sheet1!K$132</f>
+        <v>1217.712</v>
+      </c>
+      <c r="N22" s="2">
+        <f>$C22*Sheet1!L$132</f>
+        <v>1228.752</v>
+      </c>
+      <c r="O22" s="2">
+        <f>$C22*Sheet1!M$132</f>
+        <v>1289.472</v>
+      </c>
+      <c r="P22" s="2">
+        <f>$C22*Sheet1!N$132</f>
+        <v>1294.992</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>$C22*Sheet1!O$132</f>
+        <v>1294.992</v>
+      </c>
+      <c r="R22" s="2">
+        <f>$C22*Sheet1!P$132</f>
+        <v>1296.096</v>
+      </c>
+      <c r="S22" s="2">
+        <f>$C22*Sheet1!Q$132</f>
+        <v>1313.76</v>
+      </c>
+      <c r="T22" s="2">
+        <f>$C22*Sheet1!R$132</f>
+        <v>1332.528</v>
+      </c>
+      <c r="U22" s="2">
+        <f>$C22*Sheet1!S$132</f>
+        <v>1336.9440000000002</v>
+      </c>
+      <c r="V22" s="2">
+        <f>$C22*Sheet1!T$132</f>
+        <v>1357.92</v>
+      </c>
+      <c r="W22" s="2">
+        <f>C22*Sheet1!A$133</f>
+        <v>1108.4159999999999</v>
+      </c>
+      <c r="X22" s="2">
+        <f>D22*Sheet1!B$133</f>
+        <v>1128.3674880000001</v>
+      </c>
+      <c r="Y22" s="2">
+        <f>E22*Sheet1!C$133</f>
+        <v>1145.192448</v>
+      </c>
+      <c r="Z22" s="2">
+        <f>F22*Sheet1!D$133</f>
+        <v>1161.0149759999999</v>
+      </c>
+      <c r="AA22" s="2">
+        <f>G22*Sheet1!E$133</f>
+        <v>1203.2794079999999</v>
+      </c>
+      <c r="AB22" s="2">
+        <f>H22*Sheet1!F$133</f>
+        <v>1215.954432</v>
+      </c>
+      <c r="AC22" s="2">
+        <f>I22*Sheet1!G$133</f>
+        <v>1236.8001599999998</v>
+      </c>
+      <c r="AD22" s="2">
+        <f>J22*Sheet1!H$133</f>
+        <v>1264.5922560000001</v>
+      </c>
+      <c r="AE22" s="2">
+        <f>K22*Sheet1!I$133</f>
+        <v>1356.5024639999999</v>
+      </c>
+      <c r="AF22" s="2">
+        <f>L22*Sheet1!J$133</f>
+        <v>1368.6575039999998</v>
+      </c>
+      <c r="AG22" s="2">
+        <f>M22*Sheet1!K$133</f>
+        <v>1377.232272</v>
+      </c>
+      <c r="AH22" s="2">
+        <f>N22*Sheet1!L$133</f>
+        <v>1405.6922879999997</v>
+      </c>
+      <c r="AI22" s="2">
+        <f>O22*Sheet1!M$133</f>
+        <v>1486.7612160000001</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f>P22*Sheet1!N$133</f>
+        <v>1498.305744</v>
+      </c>
+      <c r="AK22" s="2">
+        <f>Q22*Sheet1!O$133</f>
+        <v>1538.4504959999999</v>
+      </c>
+      <c r="AL22" s="2">
+        <f>R22*Sheet1!P$133</f>
+        <v>1560.4995839999999</v>
+      </c>
+      <c r="AM22" s="2">
+        <f>S22*Sheet1!Q$133</f>
+        <v>1581.76704</v>
+      </c>
+      <c r="AN22" s="2">
+        <f>T22*Sheet1!R$133</f>
+        <v>1612.35888</v>
+      </c>
+      <c r="AO22" s="2">
+        <f>U22*Sheet1!S$133</f>
+        <v>1620.3761280000001</v>
+      </c>
+      <c r="AP22" s="2">
+        <f>V22*Sheet1!T$133</f>
+        <v>1660.7361600000002</v>
       </c>
     </row>
   </sheetData>
@@ -2869,15 +6050,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C359E-1A2D-4672-B6D6-30C1E767833F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2893,8 +6074,59 @@
       <c r="E1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2902,16 +6134,87 @@
         <v>0.2</v>
       </c>
       <c r="C2">
-        <v>4000</v>
+        <f>Sheet1!A138</f>
+        <v>315</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <f>Sheet1!B138</f>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!C138</f>
+        <v>490</v>
+      </c>
+      <c r="F2">
+        <f>Sheet1!D138</f>
+        <v>779</v>
+      </c>
+      <c r="G2">
+        <f>Sheet1!E138</f>
+        <v>700</v>
+      </c>
+      <c r="H2">
+        <f>Sheet1!F138</f>
+        <v>411</v>
+      </c>
+      <c r="I2">
+        <f>Sheet1!G138</f>
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <f>Sheet1!H138</f>
+        <v>814</v>
+      </c>
+      <c r="K2">
+        <f>Sheet1!I138</f>
+        <v>613</v>
+      </c>
+      <c r="L2">
+        <f>Sheet1!J138</f>
+        <v>586</v>
+      </c>
+      <c r="M2">
+        <f>Sheet1!K138</f>
+        <v>166</v>
+      </c>
+      <c r="N2">
+        <f>Sheet1!L138</f>
+        <v>88</v>
+      </c>
+      <c r="O2">
+        <f>Sheet1!M138</f>
+        <v>254</v>
+      </c>
+      <c r="P2">
+        <f>Sheet1!N138</f>
+        <v>481</v>
+      </c>
+      <c r="Q2">
+        <f>Sheet1!O138</f>
+        <v>866</v>
+      </c>
+      <c r="R2">
+        <f>Sheet1!P138</f>
+        <v>298</v>
+      </c>
+      <c r="S2">
+        <f>Sheet1!Q138</f>
+        <v>455</v>
+      </c>
+      <c r="T2">
+        <f>Sheet1!R138</f>
+        <v>53</v>
+      </c>
+      <c r="U2">
+        <f>Sheet1!S138</f>
+        <v>411</v>
+      </c>
+      <c r="V2">
+        <f>Sheet1!T138</f>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2919,13 +6222,84 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>3000</v>
+        <f>Sheet1!A139</f>
+        <v>351</v>
       </c>
       <c r="D3">
-        <v>3000</v>
+        <f>Sheet1!B139</f>
+        <v>330</v>
       </c>
       <c r="E3">
-        <v>2760</v>
+        <f>Sheet1!C139</f>
+        <v>330</v>
+      </c>
+      <c r="F3">
+        <f>Sheet1!D139</f>
+        <v>681</v>
+      </c>
+      <c r="G3">
+        <f>Sheet1!E139</f>
+        <v>419</v>
+      </c>
+      <c r="H3">
+        <f>Sheet1!F139</f>
+        <v>598</v>
+      </c>
+      <c r="I3">
+        <f>Sheet1!G139</f>
+        <v>248</v>
+      </c>
+      <c r="J3">
+        <f>Sheet1!H139</f>
+        <v>206</v>
+      </c>
+      <c r="K3">
+        <f>Sheet1!I139</f>
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <f>Sheet1!J139</f>
+        <v>598</v>
+      </c>
+      <c r="M3">
+        <f>Sheet1!K139</f>
+        <v>378</v>
+      </c>
+      <c r="N3">
+        <f>Sheet1!L139</f>
+        <v>275</v>
+      </c>
+      <c r="O3">
+        <f>Sheet1!M139</f>
+        <v>646</v>
+      </c>
+      <c r="P3">
+        <f>Sheet1!N139</f>
+        <v>550</v>
+      </c>
+      <c r="Q3">
+        <f>Sheet1!O139</f>
+        <v>440</v>
+      </c>
+      <c r="R3">
+        <f>Sheet1!P139</f>
+        <v>268</v>
+      </c>
+      <c r="S3">
+        <f>Sheet1!Q139</f>
+        <v>688</v>
+      </c>
+      <c r="T3">
+        <f>Sheet1!R139</f>
+        <v>523</v>
+      </c>
+      <c r="U3">
+        <f>Sheet1!S139</f>
+        <v>578</v>
+      </c>
+      <c r="V3">
+        <f>Sheet1!T139</f>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -2936,23 +6310,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9292D681-110B-4DF7-B019-806360008527}">
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2996,12 +6370,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -3042,7 +6416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -3083,7 +6457,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -3124,7 +6498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -3165,7 +6539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -3206,7 +6580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -3247,7 +6621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -3288,7 +6662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -3329,7 +6703,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -3370,7 +6744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -3411,7 +6785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -3452,7 +6826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -3493,7 +6867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -3534,7 +6908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -3575,7 +6949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -3616,7 +6990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -3657,7 +7031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -3698,7 +7072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -3739,7 +7113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -3780,7 +7154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -3821,7 +7195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -3862,7 +7236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -3903,7 +7277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -3944,7 +7318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -3985,7 +7359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -4026,7 +7400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -4067,7 +7441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -4108,7 +7482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -4149,7 +7523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -4190,7 +7564,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -4231,7 +7605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -4272,7 +7646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -4313,7 +7687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -4354,7 +7728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -4395,7 +7769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -4436,7 +7810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -4477,7 +7851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -4518,7 +7892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -4559,7 +7933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -4600,20 +7974,24 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f>SUM(D5:D43)</f>
+        <v>6254.2300000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -4681,12 +8059,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
         <v>30</v>
       </c>
@@ -4751,7 +8129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
         <v>31</v>
       </c>
@@ -4816,7 +8194,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
         <v>32</v>
       </c>
@@ -4881,7 +8259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
         <v>33</v>
       </c>
@@ -4946,7 +8324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
         <v>34</v>
       </c>
@@ -5011,7 +8389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
         <v>35</v>
       </c>
@@ -5076,7 +8454,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
         <v>36</v>
       </c>
@@ -5141,7 +8519,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
         <v>37</v>
       </c>
@@ -5206,7 +8584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
         <v>38</v>
       </c>
@@ -5271,7 +8649,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
         <v>39</v>
       </c>
@@ -5336,20 +8714,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -5393,12 +8771,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1">
         <v>1</v>
       </c>
@@ -5438,11 +8816,11 @@
       <c r="N64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64" s="2">
         <v>243.30900243309003</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -5482,11 +8860,11 @@
       <c r="N65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P65" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1">
         <v>2</v>
       </c>
@@ -5526,11 +8904,11 @@
       <c r="N66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="2">
         <v>662.25165562913901</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
         <v>2</v>
       </c>
@@ -5570,11 +8948,11 @@
       <c r="N67" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P67" s="3">
+      <c r="P67" s="2">
         <v>1162.7906976744184</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
         <v>2</v>
       </c>
@@ -5614,11 +8992,11 @@
       <c r="N68" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P68" s="2">
         <v>552.48618784530379</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
         <v>3</v>
       </c>
@@ -5658,11 +9036,11 @@
       <c r="N69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P69" s="3">
+      <c r="P69" s="2">
         <v>469.48356807511738</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
         <v>3</v>
       </c>
@@ -5702,11 +9080,11 @@
       <c r="N70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70" s="2">
         <v>751.87969924812035</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
         <v>4</v>
       </c>
@@ -5746,11 +9124,11 @@
       <c r="N71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71" s="2">
         <v>781.25</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
         <v>4</v>
       </c>
@@ -5790,11 +9168,11 @@
       <c r="N72" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="2">
         <v>775.19379844961236</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1">
         <v>5</v>
       </c>
@@ -5834,11 +9212,11 @@
       <c r="N73" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73" s="2">
         <v>3846.1538461538466</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
         <v>5</v>
       </c>
@@ -5878,11 +9256,11 @@
       <c r="N74" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P74" s="3">
+      <c r="P74" s="2">
         <v>892.85714285714289</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
         <v>6</v>
       </c>
@@ -5922,11 +9300,11 @@
       <c r="N75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P75" s="2">
         <v>1086.9565217391305</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
         <v>6</v>
       </c>
@@ -5966,11 +9344,11 @@
       <c r="N76" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="2">
         <v>1219.5121951219512</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
         <v>6</v>
       </c>
@@ -6010,11 +9388,11 @@
       <c r="N77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P77" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
         <v>7</v>
       </c>
@@ -6054,11 +9432,11 @@
       <c r="N78" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78" s="2">
         <v>2173.913043478261</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
         <v>8</v>
       </c>
@@ -6098,11 +9476,11 @@
       <c r="N79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P79" s="2">
         <v>275.48209366391183</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
         <v>9</v>
       </c>
@@ -6142,11 +9520,11 @@
       <c r="N80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P80" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
         <v>10</v>
       </c>
@@ -6186,11 +9564,11 @@
       <c r="N81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="2">
         <v>2325.5813953488368</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1">
         <v>10</v>
       </c>
@@ -6230,11 +9608,11 @@
       <c r="N82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P82" s="2">
         <v>2325.5813953488368</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1">
         <v>10</v>
       </c>
@@ -6274,11 +9652,11 @@
       <c r="N83" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
         <v>12</v>
       </c>
@@ -6318,11 +9696,11 @@
       <c r="N84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P84" s="3">
+      <c r="P84" s="2">
         <v>229.88505747126439</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1">
         <v>12</v>
       </c>
@@ -6362,11 +9740,11 @@
       <c r="N85" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P85" s="3">
+      <c r="P85" s="2">
         <v>229.88505747126439</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1">
         <v>13</v>
       </c>
@@ -6406,11 +9784,11 @@
       <c r="N86" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P86" s="3">
+      <c r="P86" s="2">
         <v>990.09900990099015</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1">
         <v>14</v>
       </c>
@@ -6450,11 +9828,11 @@
       <c r="N87" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P87" s="3">
+      <c r="P87" s="2">
         <v>460.82949308755758</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1">
         <v>15</v>
       </c>
@@ -6494,11 +9872,11 @@
       <c r="N88" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P88" s="3">
+      <c r="P88" s="2">
         <v>1063.8297872340424</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
         <v>16</v>
       </c>
@@ -6538,11 +9916,11 @@
       <c r="N89" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="2">
         <v>1123.5955056179776</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1">
         <v>16</v>
       </c>
@@ -6582,11 +9960,11 @@
       <c r="N90" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P90" s="3">
+      <c r="P90" s="2">
         <v>512.82051282051282</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1">
         <v>16</v>
       </c>
@@ -6626,11 +10004,11 @@
       <c r="N91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="2">
         <v>740.74074074074076</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1">
         <v>16</v>
       </c>
@@ -6670,11 +10048,11 @@
       <c r="N92" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P92" s="3">
+      <c r="P92" s="2">
         <v>1694.9152542372883</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1">
         <v>17</v>
       </c>
@@ -6714,11 +10092,11 @@
       <c r="N93" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P93" s="3">
+      <c r="P93" s="2">
         <v>1219.5121951219512</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1">
         <v>17</v>
       </c>
@@ -6758,11 +10136,11 @@
       <c r="N94" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="2">
         <v>578.03468208092488</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
         <v>19</v>
       </c>
@@ -6802,11 +10180,11 @@
       <c r="N95" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P95" s="3">
+      <c r="P95" s="2">
         <v>724.63768115942025</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1">
         <v>19</v>
       </c>
@@ -6846,11 +10224,11 @@
       <c r="N96" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P96" s="3">
+      <c r="P96" s="2">
         <v>704.22535211267598</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1">
         <v>20</v>
       </c>
@@ -6890,11 +10268,11 @@
       <c r="N97" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P97" s="3">
+      <c r="P97" s="2">
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1">
         <v>21</v>
       </c>
@@ -6934,11 +10312,11 @@
       <c r="N98" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P98" s="3">
+      <c r="P98" s="2">
         <v>714.28571428571433</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1">
         <v>22</v>
       </c>
@@ -6978,11 +10356,11 @@
       <c r="N99" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P99" s="3">
+      <c r="P99" s="2">
         <v>1041.6666666666667</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1">
         <v>22</v>
       </c>
@@ -7022,11 +10400,11 @@
       <c r="N100" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="2">
         <v>699.30069930069931</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="1">
         <v>23</v>
       </c>
@@ -7066,11 +10444,11 @@
       <c r="N101" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101" s="2">
         <v>285.71428571428567</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="1">
         <v>23</v>
       </c>
@@ -7110,11 +10488,11 @@
       <c r="N102" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="2">
         <v>367.64705882352939</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1">
         <v>25</v>
       </c>
@@ -7154,11 +10532,11 @@
       <c r="N103" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P103" s="3">
+      <c r="P103" s="2">
         <v>309.59752321981421</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1">
         <v>25</v>
       </c>
@@ -7198,11 +10576,11 @@
       <c r="N104" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P104" s="3">
+      <c r="P104" s="2">
         <v>431.0344827586207</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1">
         <v>26</v>
       </c>
@@ -7242,11 +10620,11 @@
       <c r="N105" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P105" s="3">
+      <c r="P105" s="2">
         <v>680.27210884353747</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1">
         <v>26</v>
       </c>
@@ -7286,11 +10664,11 @@
       <c r="N106" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P106" s="3">
+      <c r="P106" s="2">
         <v>210.9704641350211</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1">
         <v>26</v>
       </c>
@@ -7330,11 +10708,11 @@
       <c r="N107" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P107" s="3">
+      <c r="P107" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1">
         <v>28</v>
       </c>
@@ -7374,11 +10752,11 @@
       <c r="N108" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P108" s="3">
+      <c r="P108" s="2">
         <v>662.25165562913901</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1">
         <v>29</v>
       </c>
@@ -7418,29 +10796,29 @@
       <c r="N109" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P109" s="3">
+      <c r="P109" s="2">
         <v>641.02564102564099</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -7472,7 +10850,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>25</v>
       </c>
@@ -7498,12 +10876,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1">
         <v>2</v>
       </c>
@@ -7526,7 +10904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1">
         <v>2</v>
       </c>
@@ -7549,7 +10927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -7572,7 +10950,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="1">
         <v>2</v>
       </c>
@@ -7595,7 +10973,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1">
         <v>2</v>
       </c>
@@ -7618,7 +10996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="1">
         <v>2</v>
       </c>
@@ -7641,7 +11019,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="1">
         <v>2</v>
       </c>
@@ -7664,7 +11042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -7687,7 +11065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="1">
         <v>2</v>
       </c>
@@ -7710,7 +11088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1">
         <v>2</v>
       </c>
@@ -7733,12 +11111,502 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>6</v>
+      </c>
+      <c r="G131">
+        <v>7</v>
+      </c>
+      <c r="H131">
+        <v>8</v>
+      </c>
+      <c r="I131">
+        <v>9</v>
+      </c>
+      <c r="J131">
+        <v>10</v>
+      </c>
+      <c r="K131">
+        <v>11</v>
+      </c>
+      <c r="L131">
+        <v>12</v>
+      </c>
+      <c r="M131">
+        <v>13</v>
+      </c>
+      <c r="N131">
+        <v>14</v>
+      </c>
+      <c r="O131">
+        <v>15</v>
+      </c>
+      <c r="P131">
+        <v>16</v>
+      </c>
+      <c r="Q131">
+        <v>17</v>
+      </c>
+      <c r="R131">
+        <v>18</v>
+      </c>
+      <c r="S131">
+        <v>19</v>
+      </c>
+      <c r="T131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>1.01</v>
+      </c>
+      <c r="B132">
+        <v>1.018</v>
+      </c>
+      <c r="C132">
+        <v>1.024</v>
+      </c>
+      <c r="D132">
+        <v>1.028</v>
+      </c>
+      <c r="E132">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="F132">
+        <v>1.056</v>
+      </c>
+      <c r="G132">
+        <v>1.07</v>
+      </c>
+      <c r="H132">
+        <v>1.093</v>
+      </c>
+      <c r="I132">
+        <v>1.101</v>
+      </c>
+      <c r="J132">
+        <v>1.101</v>
+      </c>
+      <c r="K132">
+        <v>1.103</v>
+      </c>
+      <c r="L132">
+        <v>1.113</v>
+      </c>
+      <c r="M132">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="N132">
+        <v>1.173</v>
+      </c>
+      <c r="O132">
+        <v>1.173</v>
+      </c>
+      <c r="P132">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="Q132">
+        <v>1.19</v>
+      </c>
+      <c r="R132">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="S132">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="T132">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>1.004</v>
+      </c>
+      <c r="B133">
+        <v>1.004</v>
+      </c>
+      <c r="C133">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="D133">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E133">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="F133">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="G133">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="H133">
+        <v>1.048</v>
+      </c>
+      <c r="I133">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="J133">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="K133">
+        <v>1.131</v>
+      </c>
+      <c r="L133">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="M133">
+        <v>1.153</v>
+      </c>
+      <c r="N133">
+        <v>1.157</v>
+      </c>
+      <c r="O133">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="P133">
+        <v>1.204</v>
+      </c>
+      <c r="Q133">
+        <v>1.204</v>
+      </c>
+      <c r="R133">
+        <v>1.21</v>
+      </c>
+      <c r="S133">
+        <v>1.212</v>
+      </c>
+      <c r="T133">
+        <v>1.2230000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>36</v>
+      </c>
+      <c r="B135">
+        <v>12</v>
+      </c>
+      <c r="C135">
+        <v>56</v>
+      </c>
+      <c r="D135">
+        <v>89</v>
+      </c>
+      <c r="E135">
+        <v>80</v>
+      </c>
+      <c r="F135">
+        <v>47</v>
+      </c>
+      <c r="G135">
+        <v>8</v>
+      </c>
+      <c r="H135">
+        <v>93</v>
+      </c>
+      <c r="I135">
+        <v>70</v>
+      </c>
+      <c r="J135">
+        <v>67</v>
+      </c>
+      <c r="K135">
+        <v>19</v>
+      </c>
+      <c r="L135">
+        <v>10</v>
+      </c>
+      <c r="M135">
+        <v>29</v>
+      </c>
+      <c r="N135">
+        <v>55</v>
+      </c>
+      <c r="O135">
+        <v>99</v>
+      </c>
+      <c r="P135">
+        <v>34</v>
+      </c>
+      <c r="Q135">
+        <v>52</v>
+      </c>
+      <c r="R135">
+        <v>6</v>
+      </c>
+      <c r="S135">
+        <v>47</v>
+      </c>
+      <c r="T135">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136">
+        <v>51</v>
+      </c>
+      <c r="B136">
+        <v>48</v>
+      </c>
+      <c r="C136">
+        <v>48</v>
+      </c>
+      <c r="D136">
+        <v>99</v>
+      </c>
+      <c r="E136">
+        <v>61</v>
+      </c>
+      <c r="F136">
+        <v>87</v>
+      </c>
+      <c r="G136">
+        <v>36</v>
+      </c>
+      <c r="H136">
+        <v>30</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>87</v>
+      </c>
+      <c r="K136">
+        <v>55</v>
+      </c>
+      <c r="L136">
+        <v>40</v>
+      </c>
+      <c r="M136">
+        <v>94</v>
+      </c>
+      <c r="N136">
+        <v>80</v>
+      </c>
+      <c r="O136">
+        <v>64</v>
+      </c>
+      <c r="P136">
+        <v>39</v>
+      </c>
+      <c r="Q136">
+        <v>100</v>
+      </c>
+      <c r="R136">
+        <v>76</v>
+      </c>
+      <c r="S136">
+        <v>84</v>
+      </c>
+      <c r="T136">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <f>ROUND(8760*A135/(SUM($A$135:$T$135)),0)</f>
+        <v>315</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ref="B138:T138" si="0">ROUND(8760*B135/(SUM($A$135:$T$135)),0)</f>
+        <v>105</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="0"/>
+        <v>779</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="0"/>
+        <v>814</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="0"/>
+        <v>613</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="0"/>
+        <v>586</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="0"/>
+        <v>254</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="0"/>
+        <v>481</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="0"/>
+        <v>866</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="0"/>
+        <v>805</v>
+      </c>
+      <c r="U138">
+        <f>SUM(A138:T138)</f>
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <f>ROUND(8760*A136/(SUM($A$136:$T$136)),0)</f>
+        <v>351</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ref="B139:T139" si="1">ROUND(8760*B136/(SUM($A$136:$T$136)),0)</f>
+        <v>330</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="1"/>
+        <v>681</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="1"/>
+        <v>598</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="1"/>
+        <v>598</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="1"/>
+        <v>646</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="1"/>
+        <v>688</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="1"/>
+        <v>523</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="1"/>
+        <v>578</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="1"/>
+        <v>646</v>
+      </c>
+      <c r="U139">
+        <f>SUM(A139:T139)</f>
+        <v>8760</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B136:B155">
+    <sortCondition ref="B136:B155"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/planning/test39.xlsx
+++ b/data/planning/test39.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/data/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="828" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2DE5ECC-5602-4B3F-84C4-3DE215F4C7D3}"/>
+  <xr:revisionPtr revIDLastSave="831" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72743D71-B617-49A5-B6D1-6D9116193897}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="585" activeTab="4" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="585" activeTab="3" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
   </bookViews>
   <sheets>
     <sheet name="cand" sheetId="1" r:id="rId1"/>
@@ -2013,10 +2013,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2342,20 +2338,20 @@
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="12.15625" customWidth="1"/>
+    <col min="12" max="12" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="12.578125" customWidth="1"/>
+    <col min="23" max="23" width="9.26171875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2521,7 +2517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2613,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2705,7 +2701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2797,7 +2793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2889,7 +2885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2981,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3073,7 +3069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3165,7 +3161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3257,7 +3253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3349,7 +3345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3441,7 +3437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3533,7 +3529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3625,7 +3621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3717,7 +3713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3823,16 +3819,16 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3873,7 +3869,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3923,7 +3919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3973,7 +3969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4023,7 +4019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4073,7 +4069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4123,7 +4119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4173,7 +4169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4223,7 +4219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4273,7 +4269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4323,7 +4319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4387,16 +4383,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4431,7 +4427,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4449,7 +4445,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4467,7 +4463,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4485,7 +4481,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4521,7 +4517,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4539,7 +4535,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4557,7 +4553,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4575,7 +4571,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4593,7 +4589,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4611,7 +4607,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4629,7 +4625,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4647,7 +4643,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4665,7 +4661,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4683,7 +4679,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4701,7 +4697,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4719,7 +4715,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4737,7 +4733,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4755,7 +4751,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4773,7 +4769,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4791,7 +4787,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4809,7 +4805,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4827,7 +4823,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4845,7 +4841,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4863,7 +4859,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4881,7 +4877,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4899,7 +4895,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4917,7 +4913,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4935,7 +4931,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4953,7 +4949,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4971,7 +4967,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4989,7 +4985,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5007,7 +5003,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5025,7 +5021,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5043,7 +5039,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5061,7 +5057,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5079,7 +5075,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5097,7 +5093,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5115,7 +5111,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5133,7 +5129,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5151,7 +5147,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5169,7 +5165,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5187,7 +5183,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5205,7 +5201,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5223,7 +5219,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5250,36 +5246,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F027225-FF00-46AF-9A5A-D05CF10EA1EE}">
   <dimension ref="A1:RN22"/>
   <sheetViews>
-    <sheetView topLeftCell="EE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="RF27" sqref="RF27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="50" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="98" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="107" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="146" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="147" max="155" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="156" max="194" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="195" max="203" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="204" max="242" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="243" max="251" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="252" max="290" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="291" max="299" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="300" max="338" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="339" max="347" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="348" max="386" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="387" max="395" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="396" max="443" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="444" max="482" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="50" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="51" max="59" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="60" max="98" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="99" max="107" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="108" max="146" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="147" max="155" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="156" max="194" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="195" max="203" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="204" max="242" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="243" max="251" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="252" max="290" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="291" max="299" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="300" max="338" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="339" max="347" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="348" max="386" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="387" max="395" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="396" max="443" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="444" max="482" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6727,7 +6723,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8654,7 +8650,7 @@
         <v>9.2757599999999982</v>
       </c>
     </row>
-    <row r="3" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10581,7 +10577,7 @@
         <v>12.172651199999997</v>
       </c>
     </row>
-    <row r="4" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -12508,7 +12504,7 @@
         <v>13.128767999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -14435,7 +14431,7 @@
         <v>139.27910399999999</v>
       </c>
     </row>
-    <row r="6" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -16362,7 +16358,7 @@
         <v>198.35855999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -18289,7 +18285,7 @@
         <v>225.47231999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -20216,7 +20212,7 @@
         <v>293.97023999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -22143,7 +22139,7 @@
         <v>319.65695999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -24070,7 +24066,7 @@
         <v>333.641952</v>
       </c>
     </row>
-    <row r="11" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -25997,7 +25993,7 @@
         <v>353.19239999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -27924,7 +27920,7 @@
         <v>391.00895999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -29851,7 +29847,7 @@
         <v>400.99823999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -31778,7 +31774,7 @@
         <v>404.56583999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -33705,7 +33701,7 @@
         <v>440.38454400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -35632,7 +35628,7 @@
         <v>456.65279999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -37559,7 +37555,7 @@
         <v>459.50687999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -39486,7 +39482,7 @@
         <v>469.49615999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -41413,7 +41409,7 @@
         <v>713.52</v>
       </c>
     </row>
-    <row r="20" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -43340,7 +43336,7 @@
         <v>744.91487999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -45267,7 +45263,7 @@
         <v>970.38719999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -47205,13 +47201,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61C359E-1A2D-4672-B6D6-30C1E767833F}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2:AY11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -47363,7 +47359,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -47563,7 +47559,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -47764,7 +47760,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -47965,7 +47961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -48166,7 +48162,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -48367,7 +48363,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -48568,7 +48564,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -48769,7 +48765,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -48970,7 +48966,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -49171,7 +49167,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -49385,17 +49381,17 @@
       <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -49439,12 +49435,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -49485,7 +49481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -49526,7 +49522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -49567,7 +49563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -49608,7 +49604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -49649,7 +49645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -49690,7 +49686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -49731,7 +49727,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -49772,7 +49768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -49813,7 +49809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -49854,7 +49850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -49895,7 +49891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -49936,7 +49932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -49977,7 +49973,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -50018,7 +50014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -50059,7 +50055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -50100,7 +50096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -50141,7 +50137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -50182,7 +50178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -50223,7 +50219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -50264,7 +50260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -50305,7 +50301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -50346,7 +50342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -50387,7 +50383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -50428,7 +50424,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -50469,7 +50465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -50510,7 +50506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -50551,7 +50547,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -50592,7 +50588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -50633,7 +50629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -50674,7 +50670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -50715,7 +50711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -50756,7 +50752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -50797,7 +50793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -50838,7 +50834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -50879,7 +50875,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -50920,7 +50916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -50961,7 +50957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -51002,7 +50998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -51043,7 +51039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -51052,15 +51048,15 @@
         <v>6254.2300000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -51128,12 +51124,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
         <v>30</v>
       </c>
@@ -51198,7 +51194,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
         <v>31</v>
       </c>
@@ -51263,7 +51259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
         <v>32</v>
       </c>
@@ -51328,7 +51324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
         <v>33</v>
       </c>
@@ -51393,7 +51389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
         <v>34</v>
       </c>
@@ -51458,7 +51454,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
         <v>35</v>
       </c>
@@ -51523,7 +51519,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
         <v>36</v>
       </c>
@@ -51588,7 +51584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
         <v>37</v>
       </c>
@@ -51653,7 +51649,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
         <v>38</v>
       </c>
@@ -51718,7 +51714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
         <v>39</v>
       </c>
@@ -51783,20 +51779,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -51840,12 +51836,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1">
         <v>1</v>
       </c>
@@ -51889,7 +51885,7 @@
         <v>243.30900243309003</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -51933,7 +51929,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1">
         <v>2</v>
       </c>
@@ -51977,7 +51973,7 @@
         <v>662.25165562913901</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
         <v>2</v>
       </c>
@@ -52021,7 +52017,7 @@
         <v>1162.7906976744184</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
         <v>2</v>
       </c>
@@ -52065,7 +52061,7 @@
         <v>552.48618784530379</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
         <v>3</v>
       </c>
@@ -52109,7 +52105,7 @@
         <v>469.48356807511738</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
         <v>3</v>
       </c>
@@ -52153,7 +52149,7 @@
         <v>751.87969924812035</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
         <v>4</v>
       </c>
@@ -52197,7 +52193,7 @@
         <v>781.25</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
         <v>4</v>
       </c>
@@ -52241,7 +52237,7 @@
         <v>775.19379844961236</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1">
         <v>5</v>
       </c>
@@ -52285,7 +52281,7 @@
         <v>3846.1538461538466</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
         <v>5</v>
       </c>
@@ -52329,7 +52325,7 @@
         <v>892.85714285714289</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
         <v>6</v>
       </c>
@@ -52373,7 +52369,7 @@
         <v>1086.9565217391305</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
         <v>6</v>
       </c>
@@ -52417,7 +52413,7 @@
         <v>1219.5121951219512</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
         <v>6</v>
       </c>
@@ -52461,7 +52457,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
         <v>7</v>
       </c>
@@ -52505,7 +52501,7 @@
         <v>2173.913043478261</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
         <v>8</v>
       </c>
@@ -52549,7 +52545,7 @@
         <v>275.48209366391183</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
         <v>9</v>
       </c>
@@ -52593,7 +52589,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
         <v>10</v>
       </c>
@@ -52637,7 +52633,7 @@
         <v>2325.5813953488368</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1">
         <v>10</v>
       </c>
@@ -52681,7 +52677,7 @@
         <v>2325.5813953488368</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1">
         <v>10</v>
       </c>
@@ -52725,7 +52721,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
         <v>12</v>
       </c>
@@ -52769,7 +52765,7 @@
         <v>229.88505747126439</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1">
         <v>12</v>
       </c>
@@ -52813,7 +52809,7 @@
         <v>229.88505747126439</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1">
         <v>13</v>
       </c>
@@ -52857,7 +52853,7 @@
         <v>990.09900990099015</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1">
         <v>14</v>
       </c>
@@ -52901,7 +52897,7 @@
         <v>460.82949308755758</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1">
         <v>15</v>
       </c>
@@ -52945,7 +52941,7 @@
         <v>1063.8297872340424</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
         <v>16</v>
       </c>
@@ -52989,7 +52985,7 @@
         <v>1123.5955056179776</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1">
         <v>16</v>
       </c>
@@ -53033,7 +53029,7 @@
         <v>512.82051282051282</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1">
         <v>16</v>
       </c>
@@ -53077,7 +53073,7 @@
         <v>740.74074074074076</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1">
         <v>16</v>
       </c>
@@ -53121,7 +53117,7 @@
         <v>1694.9152542372883</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1">
         <v>17</v>
       </c>
@@ -53165,7 +53161,7 @@
         <v>1219.5121951219512</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1">
         <v>17</v>
       </c>
@@ -53209,7 +53205,7 @@
         <v>578.03468208092488</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
         <v>19</v>
       </c>
@@ -53253,7 +53249,7 @@
         <v>724.63768115942025</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1">
         <v>19</v>
       </c>
@@ -53297,7 +53293,7 @@
         <v>704.22535211267598</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1">
         <v>20</v>
       </c>
@@ -53341,7 +53337,7 @@
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1">
         <v>21</v>
       </c>
@@ -53385,7 +53381,7 @@
         <v>714.28571428571433</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1">
         <v>22</v>
       </c>
@@ -53429,7 +53425,7 @@
         <v>1041.6666666666667</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1">
         <v>22</v>
       </c>
@@ -53473,7 +53469,7 @@
         <v>699.30069930069931</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="1">
         <v>23</v>
       </c>
@@ -53517,7 +53513,7 @@
         <v>285.71428571428567</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="1">
         <v>23</v>
       </c>
@@ -53561,7 +53557,7 @@
         <v>367.64705882352939</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1">
         <v>25</v>
       </c>
@@ -53605,7 +53601,7 @@
         <v>309.59752321981421</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1">
         <v>25</v>
       </c>
@@ -53649,7 +53645,7 @@
         <v>431.0344827586207</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1">
         <v>26</v>
       </c>
@@ -53693,7 +53689,7 @@
         <v>680.27210884353747</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1">
         <v>26</v>
       </c>
@@ -53737,7 +53733,7 @@
         <v>210.9704641350211</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1">
         <v>26</v>
       </c>
@@ -53781,7 +53777,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1">
         <v>28</v>
       </c>
@@ -53825,7 +53821,7 @@
         <v>662.25165562913901</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1">
         <v>29</v>
       </c>
@@ -53869,25 +53865,25 @@
         <v>641.02564102564099</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -53919,7 +53915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>25</v>
       </c>
@@ -53945,12 +53941,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1">
         <v>2</v>
       </c>
@@ -53973,7 +53969,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1">
         <v>2</v>
       </c>
@@ -53996,7 +53992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -54019,7 +54015,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="1">
         <v>2</v>
       </c>
@@ -54042,7 +54038,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1">
         <v>2</v>
       </c>
@@ -54065,7 +54061,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="1">
         <v>2</v>
       </c>
@@ -54088,7 +54084,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="1">
         <v>2</v>
       </c>
@@ -54111,7 +54107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -54134,7 +54130,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="1">
         <v>2</v>
       </c>
@@ -54157,7 +54153,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1">
         <v>2</v>
       </c>
@@ -54180,17 +54176,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="C130" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -54339,7 +54335,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>1</v>
       </c>
@@ -55787,7 +55783,7 @@
         <v>1.4270399999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>2</v>
       </c>
@@ -55795,7 +55791,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="134" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>3</v>
       </c>
@@ -55803,7 +55799,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="135" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>4</v>
       </c>
@@ -55811,7 +55807,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="136" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>5</v>
       </c>
@@ -55819,7 +55815,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="137" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>6</v>
       </c>
@@ -55827,7 +55823,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="138" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>7</v>
       </c>
@@ -55835,7 +55831,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="139" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>8</v>
       </c>
@@ -55843,7 +55839,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="140" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>9</v>
       </c>
@@ -55851,7 +55847,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="141" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>10</v>
       </c>
@@ -55859,12 +55855,12 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>1</v>
       </c>
@@ -56013,7 +56009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>2</v>
       </c>
@@ -56162,7 +56158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>3</v>
       </c>
@@ -56311,7 +56307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>4</v>
       </c>
@@ -56460,7 +56456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>5</v>
       </c>
@@ -56609,7 +56605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>6</v>
       </c>
@@ -56758,7 +56754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>7</v>
       </c>
@@ -56907,7 +56903,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>8</v>
       </c>
@@ -57056,7 +57052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>9</v>
       </c>
@@ -57205,7 +57201,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>10</v>
       </c>
@@ -57354,12 +57350,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>1</v>
       </c>
@@ -57560,7 +57556,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>2</v>
       </c>
@@ -57760,7 +57756,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>3</v>
       </c>
@@ -57960,7 +57956,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>4</v>
       </c>
@@ -58160,7 +58156,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>5</v>
       </c>
@@ -58360,7 +58356,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>6</v>
       </c>
@@ -58560,7 +58556,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>7</v>
       </c>
@@ -58760,7 +58756,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>8</v>
       </c>
@@ -58961,7 +58957,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>9</v>
       </c>
@@ -59161,7 +59157,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>10</v>
       </c>

--- a/data/planning/test39.xlsx
+++ b/data/planning/test39.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="831" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72743D71-B617-49A5-B6D1-6D9116193897}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="585" activeTab="3" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="585" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
   </bookViews>
   <sheets>
     <sheet name="cand" sheetId="1" r:id="rId1"/>
@@ -2013,6 +2013,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2334,24 +2338,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6A976D-F179-4F10-87F2-DC7468625A48}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="12.15625" customWidth="1"/>
-    <col min="12" max="12" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="12.578125" customWidth="1"/>
-    <col min="23" max="23" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3161,7 +3165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3345,7 +3349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3437,7 +3441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3529,7 +3533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3819,16 +3823,16 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4269,7 +4273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4383,16 +4387,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4427,7 +4431,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4463,7 +4467,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4517,7 +4521,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4535,7 +4539,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4607,7 +4611,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4661,7 +4665,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4697,7 +4701,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4751,7 +4755,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4769,7 +4773,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4805,7 +4809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4841,7 +4845,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4949,7 +4953,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4967,7 +4971,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4985,7 +4989,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5039,7 +5043,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5147,7 +5151,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5165,7 +5169,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5201,7 +5205,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5219,7 +5223,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5246,36 +5250,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F027225-FF00-46AF-9A5A-D05CF10EA1EE}">
   <dimension ref="A1:RN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="QT1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="RF27" sqref="RF27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="12" max="50" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="51" max="59" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="60" max="98" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="99" max="107" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="108" max="146" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="147" max="155" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="156" max="194" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="195" max="203" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="204" max="242" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="243" max="251" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="252" max="290" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="291" max="299" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="300" max="338" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="339" max="347" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="348" max="386" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="387" max="395" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="396" max="443" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="444" max="482" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="50" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="98" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="107" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="146" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="147" max="155" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="156" max="194" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="195" max="203" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="204" max="242" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="243" max="251" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="252" max="290" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="291" max="299" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="300" max="338" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="339" max="347" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="348" max="386" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="387" max="395" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="396" max="443" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="444" max="482" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6723,7 +6727,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8650,7 +8654,7 @@
         <v>9.2757599999999982</v>
       </c>
     </row>
-    <row r="3" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10577,7 +10581,7 @@
         <v>12.172651199999997</v>
       </c>
     </row>
-    <row r="4" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -12504,7 +12508,7 @@
         <v>13.128767999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -14431,7 +14435,7 @@
         <v>139.27910399999999</v>
       </c>
     </row>
-    <row r="6" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -16358,7 +16362,7 @@
         <v>198.35855999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -18285,7 +18289,7 @@
         <v>225.47231999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -20212,7 +20216,7 @@
         <v>293.97023999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -22139,7 +22143,7 @@
         <v>319.65695999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -24066,7 +24070,7 @@
         <v>333.641952</v>
       </c>
     </row>
-    <row r="11" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -25993,7 +25997,7 @@
         <v>353.19239999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -27920,7 +27924,7 @@
         <v>391.00895999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -29847,7 +29851,7 @@
         <v>400.99823999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -31774,7 +31778,7 @@
         <v>404.56583999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -33701,7 +33705,7 @@
         <v>440.38454400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -35628,7 +35632,7 @@
         <v>456.65279999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -37555,7 +37559,7 @@
         <v>459.50687999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -39482,7 +39486,7 @@
         <v>469.49615999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -41409,7 +41413,7 @@
         <v>713.52</v>
       </c>
     </row>
-    <row r="20" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -43336,7 +43340,7 @@
         <v>744.91487999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -45263,7 +45267,7 @@
         <v>970.38719999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -47205,9 +47209,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -47359,7 +47363,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -47559,7 +47563,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -47760,7 +47764,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -47961,7 +47965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -48162,7 +48166,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -48363,7 +48367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -48564,7 +48568,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -48765,7 +48769,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -48966,7 +48970,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -49167,7 +49171,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -49381,17 +49385,17 @@
       <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -49435,12 +49439,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -49481,7 +49485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -49522,7 +49526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -49563,7 +49567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -49604,7 +49608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -49645,7 +49649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -49686,7 +49690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -49727,7 +49731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -49768,7 +49772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -49809,7 +49813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -49850,7 +49854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -49891,7 +49895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -49932,7 +49936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -49973,7 +49977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -50014,7 +50018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -50055,7 +50059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -50096,7 +50100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -50137,7 +50141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -50178,7 +50182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -50219,7 +50223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -50260,7 +50264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -50301,7 +50305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -50342,7 +50346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -50383,7 +50387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -50424,7 +50428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -50465,7 +50469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -50506,7 +50510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -50547,7 +50551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -50588,7 +50592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -50629,7 +50633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -50670,7 +50674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -50711,7 +50715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -50752,7 +50756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -50793,7 +50797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -50834,7 +50838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -50875,7 +50879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -50916,7 +50920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -50957,7 +50961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -50998,7 +51002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -51039,7 +51043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -51048,15 +51052,15 @@
         <v>6254.2300000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -51124,12 +51128,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>30</v>
       </c>
@@ -51194,7 +51198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>31</v>
       </c>
@@ -51259,7 +51263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>32</v>
       </c>
@@ -51324,7 +51328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>33</v>
       </c>
@@ -51389,7 +51393,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>34</v>
       </c>
@@ -51454,7 +51458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>35</v>
       </c>
@@ -51519,7 +51523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>36</v>
       </c>
@@ -51584,7 +51588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>37</v>
       </c>
@@ -51649,7 +51653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>38</v>
       </c>
@@ -51714,7 +51718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>39</v>
       </c>
@@ -51779,20 +51783,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -51836,12 +51840,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>1</v>
       </c>
@@ -51885,7 +51889,7 @@
         <v>243.30900243309003</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -51929,7 +51933,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>2</v>
       </c>
@@ -51973,7 +51977,7 @@
         <v>662.25165562913901</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>2</v>
       </c>
@@ -52017,7 +52021,7 @@
         <v>1162.7906976744184</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>2</v>
       </c>
@@ -52061,7 +52065,7 @@
         <v>552.48618784530379</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>3</v>
       </c>
@@ -52105,7 +52109,7 @@
         <v>469.48356807511738</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>3</v>
       </c>
@@ -52149,7 +52153,7 @@
         <v>751.87969924812035</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>4</v>
       </c>
@@ -52193,7 +52197,7 @@
         <v>781.25</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>4</v>
       </c>
@@ -52237,7 +52241,7 @@
         <v>775.19379844961236</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>5</v>
       </c>
@@ -52281,7 +52285,7 @@
         <v>3846.1538461538466</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>5</v>
       </c>
@@ -52325,7 +52329,7 @@
         <v>892.85714285714289</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>6</v>
       </c>
@@ -52369,7 +52373,7 @@
         <v>1086.9565217391305</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>6</v>
       </c>
@@ -52413,7 +52417,7 @@
         <v>1219.5121951219512</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>6</v>
       </c>
@@ -52457,7 +52461,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>7</v>
       </c>
@@ -52501,7 +52505,7 @@
         <v>2173.913043478261</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>8</v>
       </c>
@@ -52545,7 +52549,7 @@
         <v>275.48209366391183</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>9</v>
       </c>
@@ -52589,7 +52593,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>10</v>
       </c>
@@ -52633,7 +52637,7 @@
         <v>2325.5813953488368</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>10</v>
       </c>
@@ -52677,7 +52681,7 @@
         <v>2325.5813953488368</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>10</v>
       </c>
@@ -52721,7 +52725,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>12</v>
       </c>
@@ -52765,7 +52769,7 @@
         <v>229.88505747126439</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>12</v>
       </c>
@@ -52809,7 +52813,7 @@
         <v>229.88505747126439</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>13</v>
       </c>
@@ -52853,7 +52857,7 @@
         <v>990.09900990099015</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>14</v>
       </c>
@@ -52897,7 +52901,7 @@
         <v>460.82949308755758</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>15</v>
       </c>
@@ -52941,7 +52945,7 @@
         <v>1063.8297872340424</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>16</v>
       </c>
@@ -52985,7 +52989,7 @@
         <v>1123.5955056179776</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>16</v>
       </c>
@@ -53029,7 +53033,7 @@
         <v>512.82051282051282</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>16</v>
       </c>
@@ -53073,7 +53077,7 @@
         <v>740.74074074074076</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>16</v>
       </c>
@@ -53117,7 +53121,7 @@
         <v>1694.9152542372883</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>17</v>
       </c>
@@ -53161,7 +53165,7 @@
         <v>1219.5121951219512</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>17</v>
       </c>
@@ -53205,7 +53209,7 @@
         <v>578.03468208092488</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>19</v>
       </c>
@@ -53249,7 +53253,7 @@
         <v>724.63768115942025</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>19</v>
       </c>
@@ -53293,7 +53297,7 @@
         <v>704.22535211267598</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>20</v>
       </c>
@@ -53337,7 +53341,7 @@
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>21</v>
       </c>
@@ -53381,7 +53385,7 @@
         <v>714.28571428571433</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>22</v>
       </c>
@@ -53425,7 +53429,7 @@
         <v>1041.6666666666667</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>22</v>
       </c>
@@ -53469,7 +53473,7 @@
         <v>699.30069930069931</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>23</v>
       </c>
@@ -53513,7 +53517,7 @@
         <v>285.71428571428567</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>23</v>
       </c>
@@ -53557,7 +53561,7 @@
         <v>367.64705882352939</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>25</v>
       </c>
@@ -53601,7 +53605,7 @@
         <v>309.59752321981421</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>25</v>
       </c>
@@ -53645,7 +53649,7 @@
         <v>431.0344827586207</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>26</v>
       </c>
@@ -53689,7 +53693,7 @@
         <v>680.27210884353747</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>26</v>
       </c>
@@ -53733,7 +53737,7 @@
         <v>210.9704641350211</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>26</v>
       </c>
@@ -53777,7 +53781,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>28</v>
       </c>
@@ -53821,7 +53825,7 @@
         <v>662.25165562913901</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>29</v>
       </c>
@@ -53865,25 +53869,25 @@
         <v>641.02564102564099</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -53915,7 +53919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>25</v>
       </c>
@@ -53941,12 +53945,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>2</v>
       </c>
@@ -53969,7 +53973,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>2</v>
       </c>
@@ -53992,7 +53996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -54015,7 +54019,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>2</v>
       </c>
@@ -54038,7 +54042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>2</v>
       </c>
@@ -54061,7 +54065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>2</v>
       </c>
@@ -54084,7 +54088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>2</v>
       </c>
@@ -54107,7 +54111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -54130,7 +54134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>2</v>
       </c>
@@ -54153,7 +54157,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>2</v>
       </c>
@@ -54176,17 +54180,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:482" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -54335,7 +54339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -55783,7 +55787,7 @@
         <v>1.4270399999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2</v>
       </c>
@@ -55791,7 +55795,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="134" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -55799,7 +55803,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="135" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -55807,7 +55811,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="136" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5</v>
       </c>
@@ -55815,7 +55819,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="137" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -55823,7 +55827,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="138" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>7</v>
       </c>
@@ -55831,7 +55835,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="139" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>8</v>
       </c>
@@ -55839,7 +55843,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="140" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>9</v>
       </c>
@@ -55847,7 +55851,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="141" spans="1:482" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:482" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>10</v>
       </c>
@@ -55855,12 +55859,12 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -56009,7 +56013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -56158,7 +56162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -56307,7 +56311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -56456,7 +56460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -56605,7 +56609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -56754,7 +56758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -56903,7 +56907,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -57052,7 +57056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9</v>
       </c>
@@ -57201,7 +57205,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10</v>
       </c>
@@ -57350,12 +57354,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -57556,7 +57560,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2</v>
       </c>
@@ -57756,7 +57760,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3</v>
       </c>
@@ -57956,7 +57960,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -58156,7 +58160,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>5</v>
       </c>
@@ -58356,7 +58360,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6</v>
       </c>
@@ -58556,7 +58560,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7</v>
       </c>
@@ -58756,7 +58760,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8</v>
       </c>
@@ -58957,7 +58961,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>9</v>
       </c>
@@ -59157,7 +59161,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>10</v>
       </c>

--- a/data/planning/test39.xlsx
+++ b/data/planning/test39.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/data/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="831" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72743D71-B617-49A5-B6D1-6D9116193897}"/>
+  <xr:revisionPtr revIDLastSave="834" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{963E8E39-E2CF-4CC3-AC8C-E373714F4D83}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="585" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="585" activeTab="3" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
   </bookViews>
   <sheets>
     <sheet name="cand" sheetId="1" r:id="rId1"/>
@@ -2338,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6A976D-F179-4F10-87F2-DC7468625A48}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -5248,10 +5248,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F027225-FF00-46AF-9A5A-D05CF10EA1EE}">
-  <dimension ref="A1:RN22"/>
+  <dimension ref="A1:RN23"/>
   <sheetViews>
-    <sheetView topLeftCell="QT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="RF27" sqref="RF27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47194,6 +47194,488 @@
         <v>1575.4521599999998</v>
       </c>
     </row>
+    <row r="23" spans="1:482" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="2"/>
+      <c r="BY23" s="2"/>
+      <c r="BZ23" s="2"/>
+      <c r="CA23" s="2"/>
+      <c r="CB23" s="2"/>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="2"/>
+      <c r="CF23" s="2"/>
+      <c r="CG23" s="2"/>
+      <c r="CH23" s="2"/>
+      <c r="CI23" s="2"/>
+      <c r="CJ23" s="2"/>
+      <c r="CK23" s="2"/>
+      <c r="CL23" s="2"/>
+      <c r="CM23" s="2"/>
+      <c r="CN23" s="2"/>
+      <c r="CO23" s="2"/>
+      <c r="CP23" s="2"/>
+      <c r="CQ23" s="2"/>
+      <c r="CR23" s="2"/>
+      <c r="CS23" s="2"/>
+      <c r="CT23" s="2"/>
+      <c r="CU23" s="2"/>
+      <c r="CV23" s="2"/>
+      <c r="CW23" s="2"/>
+      <c r="CX23" s="2"/>
+      <c r="CY23" s="2"/>
+      <c r="CZ23" s="2"/>
+      <c r="DA23" s="2"/>
+      <c r="DB23" s="2"/>
+      <c r="DC23" s="2"/>
+      <c r="DD23" s="2"/>
+      <c r="DE23" s="2"/>
+      <c r="DF23" s="2"/>
+      <c r="DG23" s="2"/>
+      <c r="DH23" s="2"/>
+      <c r="DI23" s="2"/>
+      <c r="DJ23" s="2"/>
+      <c r="DK23" s="2"/>
+      <c r="DL23" s="2"/>
+      <c r="DM23" s="2"/>
+      <c r="DN23" s="2"/>
+      <c r="DO23" s="2"/>
+      <c r="DP23" s="2"/>
+      <c r="DQ23" s="2"/>
+      <c r="DR23" s="2"/>
+      <c r="DS23" s="2"/>
+      <c r="DT23" s="2"/>
+      <c r="DU23" s="2"/>
+      <c r="DV23" s="2"/>
+      <c r="DW23" s="2"/>
+      <c r="DX23" s="2"/>
+      <c r="DY23" s="2"/>
+      <c r="DZ23" s="2"/>
+      <c r="EA23" s="2"/>
+      <c r="EB23" s="2"/>
+      <c r="EC23" s="2"/>
+      <c r="ED23" s="2"/>
+      <c r="EE23" s="2"/>
+      <c r="EF23" s="2"/>
+      <c r="EG23" s="2"/>
+      <c r="EH23" s="2"/>
+      <c r="EI23" s="2"/>
+      <c r="EJ23" s="2"/>
+      <c r="EK23" s="2"/>
+      <c r="EL23" s="2"/>
+      <c r="EM23" s="2"/>
+      <c r="EN23" s="2"/>
+      <c r="EO23" s="2"/>
+      <c r="EP23" s="2"/>
+      <c r="EQ23" s="2"/>
+      <c r="ER23" s="2"/>
+      <c r="ES23" s="2"/>
+      <c r="ET23" s="2"/>
+      <c r="EU23" s="2"/>
+      <c r="EV23" s="2"/>
+      <c r="EW23" s="2"/>
+      <c r="EX23" s="2"/>
+      <c r="EY23" s="2"/>
+      <c r="EZ23" s="2"/>
+      <c r="FA23" s="2"/>
+      <c r="FB23" s="2"/>
+      <c r="FC23" s="2"/>
+      <c r="FD23" s="2"/>
+      <c r="FE23" s="2"/>
+      <c r="FF23" s="2"/>
+      <c r="FG23" s="2"/>
+      <c r="FH23" s="2"/>
+      <c r="FI23" s="2"/>
+      <c r="FJ23" s="2"/>
+      <c r="FK23" s="2"/>
+      <c r="FL23" s="2"/>
+      <c r="FM23" s="2"/>
+      <c r="FN23" s="2"/>
+      <c r="FO23" s="2"/>
+      <c r="FP23" s="2"/>
+      <c r="FQ23" s="2"/>
+      <c r="FR23" s="2"/>
+      <c r="FS23" s="2"/>
+      <c r="FT23" s="2"/>
+      <c r="FU23" s="2"/>
+      <c r="FV23" s="2"/>
+      <c r="FW23" s="2"/>
+      <c r="FX23" s="2"/>
+      <c r="FY23" s="2"/>
+      <c r="FZ23" s="2"/>
+      <c r="GA23" s="2"/>
+      <c r="GB23" s="2"/>
+      <c r="GC23" s="2"/>
+      <c r="GD23" s="2"/>
+      <c r="GE23" s="2"/>
+      <c r="GF23" s="2"/>
+      <c r="GG23" s="2"/>
+      <c r="GH23" s="2"/>
+      <c r="GI23" s="2"/>
+      <c r="GJ23" s="2"/>
+      <c r="GK23" s="2"/>
+      <c r="GL23" s="2"/>
+      <c r="GM23" s="2"/>
+      <c r="GN23" s="2"/>
+      <c r="GO23" s="2"/>
+      <c r="GP23" s="2"/>
+      <c r="GQ23" s="2"/>
+      <c r="GR23" s="2"/>
+      <c r="GS23" s="2"/>
+      <c r="GT23" s="2"/>
+      <c r="GU23" s="2"/>
+      <c r="GV23" s="2"/>
+      <c r="GW23" s="2"/>
+      <c r="GX23" s="2"/>
+      <c r="GY23" s="2"/>
+      <c r="GZ23" s="2"/>
+      <c r="HA23" s="2"/>
+      <c r="HB23" s="2"/>
+      <c r="HC23" s="2"/>
+      <c r="HD23" s="2"/>
+      <c r="HE23" s="2"/>
+      <c r="HF23" s="2"/>
+      <c r="HG23" s="2"/>
+      <c r="HH23" s="2"/>
+      <c r="HI23" s="2"/>
+      <c r="HJ23" s="2"/>
+      <c r="HK23" s="2"/>
+      <c r="HL23" s="2"/>
+      <c r="HM23" s="2"/>
+      <c r="HN23" s="2"/>
+      <c r="HO23" s="2"/>
+      <c r="HP23" s="2"/>
+      <c r="HQ23" s="2"/>
+      <c r="HR23" s="2"/>
+      <c r="HS23" s="2"/>
+      <c r="HT23" s="2"/>
+      <c r="HU23" s="2"/>
+      <c r="HV23" s="2"/>
+      <c r="HW23" s="2"/>
+      <c r="HX23" s="2"/>
+      <c r="HY23" s="2"/>
+      <c r="HZ23" s="2"/>
+      <c r="IA23" s="2"/>
+      <c r="IB23" s="2"/>
+      <c r="IC23" s="2"/>
+      <c r="ID23" s="2"/>
+      <c r="IE23" s="2"/>
+      <c r="IF23" s="2"/>
+      <c r="IG23" s="2"/>
+      <c r="IH23" s="2"/>
+      <c r="II23" s="2"/>
+      <c r="IJ23" s="2"/>
+      <c r="IK23" s="2"/>
+      <c r="IL23" s="2"/>
+      <c r="IM23" s="2"/>
+      <c r="IN23" s="2"/>
+      <c r="IO23" s="2"/>
+      <c r="IP23" s="2"/>
+      <c r="IQ23" s="2"/>
+      <c r="IR23" s="2"/>
+      <c r="IS23" s="2"/>
+      <c r="IT23" s="2"/>
+      <c r="IU23" s="2"/>
+      <c r="IV23" s="2"/>
+      <c r="IW23" s="2"/>
+      <c r="IX23" s="2"/>
+      <c r="IY23" s="2"/>
+      <c r="IZ23" s="2"/>
+      <c r="JA23" s="2"/>
+      <c r="JB23" s="2"/>
+      <c r="JC23" s="2"/>
+      <c r="JD23" s="2"/>
+      <c r="JE23" s="2"/>
+      <c r="JF23" s="2"/>
+      <c r="JG23" s="2"/>
+      <c r="JH23" s="2"/>
+      <c r="JI23" s="2"/>
+      <c r="JJ23" s="2"/>
+      <c r="JK23" s="2"/>
+      <c r="JL23" s="2"/>
+      <c r="JM23" s="2"/>
+      <c r="JN23" s="2"/>
+      <c r="JO23" s="2"/>
+      <c r="JP23" s="2"/>
+      <c r="JQ23" s="2"/>
+      <c r="JR23" s="2"/>
+      <c r="JS23" s="2"/>
+      <c r="JT23" s="2"/>
+      <c r="JU23" s="2"/>
+      <c r="JV23" s="2"/>
+      <c r="JW23" s="2"/>
+      <c r="JX23" s="2"/>
+      <c r="JY23" s="2"/>
+      <c r="JZ23" s="2"/>
+      <c r="KA23" s="2"/>
+      <c r="KB23" s="2"/>
+      <c r="KC23" s="2"/>
+      <c r="KD23" s="2"/>
+      <c r="KE23" s="2"/>
+      <c r="KF23" s="2"/>
+      <c r="KG23" s="2"/>
+      <c r="KH23" s="2"/>
+      <c r="KI23" s="2"/>
+      <c r="KJ23" s="2"/>
+      <c r="KK23" s="2"/>
+      <c r="KL23" s="2"/>
+      <c r="KM23" s="2"/>
+      <c r="KN23" s="2"/>
+      <c r="KO23" s="2"/>
+      <c r="KP23" s="2"/>
+      <c r="KQ23" s="2"/>
+      <c r="KR23" s="2"/>
+      <c r="KS23" s="2"/>
+      <c r="KT23" s="2"/>
+      <c r="KU23" s="2"/>
+      <c r="KV23" s="2"/>
+      <c r="KW23" s="2"/>
+      <c r="KX23" s="2"/>
+      <c r="KY23" s="2"/>
+      <c r="KZ23" s="2"/>
+      <c r="LA23" s="2"/>
+      <c r="LB23" s="2"/>
+      <c r="LC23" s="2"/>
+      <c r="LD23" s="2"/>
+      <c r="LE23" s="2"/>
+      <c r="LF23" s="2"/>
+      <c r="LG23" s="2"/>
+      <c r="LH23" s="2"/>
+      <c r="LI23" s="2"/>
+      <c r="LJ23" s="2"/>
+      <c r="LK23" s="2"/>
+      <c r="LL23" s="2"/>
+      <c r="LM23" s="2"/>
+      <c r="LN23" s="2"/>
+      <c r="LO23" s="2"/>
+      <c r="LP23" s="2"/>
+      <c r="LQ23" s="2"/>
+      <c r="LR23" s="2"/>
+      <c r="LS23" s="2"/>
+      <c r="LT23" s="2"/>
+      <c r="LU23" s="2"/>
+      <c r="LV23" s="2"/>
+      <c r="LW23" s="2"/>
+      <c r="LX23" s="2"/>
+      <c r="LY23" s="2"/>
+      <c r="LZ23" s="2"/>
+      <c r="MA23" s="2"/>
+      <c r="MB23" s="2"/>
+      <c r="MC23" s="2"/>
+      <c r="MD23" s="2"/>
+      <c r="ME23" s="2"/>
+      <c r="MF23" s="2"/>
+      <c r="MG23" s="2"/>
+      <c r="MH23" s="2"/>
+      <c r="MI23" s="2"/>
+      <c r="MJ23" s="2"/>
+      <c r="MK23" s="2"/>
+      <c r="ML23" s="2"/>
+      <c r="MM23" s="2"/>
+      <c r="MN23" s="2"/>
+      <c r="MO23" s="2"/>
+      <c r="MP23" s="2"/>
+      <c r="MQ23" s="2"/>
+      <c r="MR23" s="2"/>
+      <c r="MS23" s="2"/>
+      <c r="MT23" s="2"/>
+      <c r="MU23" s="2"/>
+      <c r="MV23" s="2"/>
+      <c r="MW23" s="2"/>
+      <c r="MX23" s="2"/>
+      <c r="MY23" s="2"/>
+      <c r="MZ23" s="2"/>
+      <c r="NA23" s="2"/>
+      <c r="NB23" s="2"/>
+      <c r="NC23" s="2"/>
+      <c r="ND23" s="2"/>
+      <c r="NE23" s="2"/>
+      <c r="NF23" s="2"/>
+      <c r="NG23" s="2"/>
+      <c r="NH23" s="2"/>
+      <c r="NI23" s="2"/>
+      <c r="NJ23" s="2"/>
+      <c r="NK23" s="2"/>
+      <c r="NL23" s="2"/>
+      <c r="NM23" s="2"/>
+      <c r="NN23" s="2"/>
+      <c r="NO23" s="2"/>
+      <c r="NP23" s="2"/>
+      <c r="NQ23" s="2"/>
+      <c r="NR23" s="2"/>
+      <c r="NS23" s="2"/>
+      <c r="NT23" s="2"/>
+      <c r="NU23" s="2"/>
+      <c r="NV23" s="2"/>
+      <c r="NW23" s="2"/>
+      <c r="NX23" s="2"/>
+      <c r="NY23" s="2"/>
+      <c r="NZ23" s="2"/>
+      <c r="OA23" s="2"/>
+      <c r="OB23" s="2"/>
+      <c r="OC23" s="2"/>
+      <c r="OD23" s="2"/>
+      <c r="OE23" s="2"/>
+      <c r="OF23" s="2"/>
+      <c r="OG23" s="2"/>
+      <c r="OH23" s="2"/>
+      <c r="OI23" s="2"/>
+      <c r="OJ23" s="2"/>
+      <c r="OK23" s="2"/>
+      <c r="OL23" s="2"/>
+      <c r="OM23" s="2"/>
+      <c r="ON23" s="2"/>
+      <c r="OO23" s="2"/>
+      <c r="OP23" s="2"/>
+      <c r="OQ23" s="2"/>
+      <c r="OR23" s="2"/>
+      <c r="OS23" s="2"/>
+      <c r="OT23" s="2"/>
+      <c r="OU23" s="2"/>
+      <c r="OV23" s="2"/>
+      <c r="OW23" s="2"/>
+      <c r="OX23" s="2"/>
+      <c r="OY23" s="2"/>
+      <c r="OZ23" s="2"/>
+      <c r="PA23" s="2"/>
+      <c r="PB23" s="2"/>
+      <c r="PC23" s="2"/>
+      <c r="PD23" s="2"/>
+      <c r="PE23" s="2"/>
+      <c r="PF23" s="2"/>
+      <c r="PG23" s="2"/>
+      <c r="PH23" s="2"/>
+      <c r="PI23" s="2"/>
+      <c r="PJ23" s="2"/>
+      <c r="PK23" s="2"/>
+      <c r="PL23" s="2"/>
+      <c r="PM23" s="2"/>
+      <c r="PN23" s="2"/>
+      <c r="PO23" s="2"/>
+      <c r="PP23" s="2"/>
+      <c r="PQ23" s="2"/>
+      <c r="PR23" s="2"/>
+      <c r="PS23" s="2"/>
+      <c r="PT23" s="2"/>
+      <c r="PU23" s="2"/>
+      <c r="PV23" s="2"/>
+      <c r="PW23" s="2"/>
+      <c r="PX23" s="2"/>
+      <c r="PY23" s="2"/>
+      <c r="PZ23" s="2"/>
+      <c r="QA23" s="2"/>
+      <c r="QB23" s="2"/>
+      <c r="QC23" s="2"/>
+      <c r="QD23" s="2"/>
+      <c r="QE23" s="2"/>
+      <c r="QF23" s="2"/>
+      <c r="QG23" s="2"/>
+      <c r="QH23" s="2"/>
+      <c r="QI23" s="2"/>
+      <c r="QJ23" s="2"/>
+      <c r="QK23" s="2"/>
+      <c r="QL23" s="2"/>
+      <c r="QM23" s="2"/>
+      <c r="QN23" s="2"/>
+      <c r="QO23" s="2"/>
+      <c r="QP23" s="2"/>
+      <c r="QQ23" s="2"/>
+      <c r="QR23" s="2"/>
+      <c r="QS23" s="2"/>
+      <c r="QT23" s="2"/>
+      <c r="QU23" s="2"/>
+      <c r="QV23" s="2"/>
+      <c r="QW23" s="2"/>
+      <c r="QX23" s="2"/>
+      <c r="QY23" s="2"/>
+      <c r="QZ23" s="2"/>
+      <c r="RA23" s="2"/>
+      <c r="RB23" s="2"/>
+      <c r="RC23" s="2"/>
+      <c r="RD23" s="2"/>
+      <c r="RE23" s="2"/>
+      <c r="RF23" s="2"/>
+      <c r="RG23" s="2"/>
+      <c r="RH23" s="2"/>
+      <c r="RI23" s="2"/>
+      <c r="RJ23" s="2"/>
+      <c r="RK23" s="2"/>
+      <c r="RL23" s="2"/>
+      <c r="RM23" s="2"/>
+      <c r="RN23" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47206,7 +47688,7 @@
   <dimension ref="A1:AX11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49381,8 +49863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9292D681-110B-4DF7-B019-806360008527}">
   <dimension ref="A1:RN168"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F140" sqref="F140"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:XFD170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/planning/test39.xlsx
+++ b/data/planning/test39.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/data/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="834" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{963E8E39-E2CF-4CC3-AC8C-E373714F4D83}"/>
+  <xr:revisionPtr revIDLastSave="837" documentId="13_ncr:1_{82E5F4C0-05CE-4077-A2B0-0E5F28F16310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB5D4105-A763-4B7A-B821-3849B35E86FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="585" activeTab="3" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" tabRatio="585" activeTab="3" xr2:uid="{2EB6A33D-59D9-42F3-B6C0-266EB8EFB110}"/>
   </bookViews>
   <sheets>
     <sheet name="cand" sheetId="1" r:id="rId1"/>
@@ -2342,20 +2342,20 @@
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="12.15625" customWidth="1"/>
+    <col min="12" max="12" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="12.578125" customWidth="1"/>
+    <col min="23" max="23" width="9.26171875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3823,16 +3823,16 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4387,16 +4387,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5248,38 +5248,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F027225-FF00-46AF-9A5A-D05CF10EA1EE}">
-  <dimension ref="A1:RN23"/>
+  <dimension ref="A1:RN22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="50" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="59" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="98" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="107" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="146" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="147" max="155" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="156" max="194" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="195" max="203" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="204" max="242" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="243" max="251" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="252" max="290" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="291" max="299" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="300" max="338" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="339" max="347" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="348" max="386" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="387" max="395" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="396" max="443" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="444" max="482" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="50" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="51" max="59" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="60" max="98" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="99" max="107" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="108" max="146" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="147" max="155" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="156" max="194" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="195" max="203" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="204" max="242" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="243" max="251" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="252" max="290" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="291" max="299" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="300" max="338" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="339" max="347" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="348" max="386" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="387" max="395" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="396" max="443" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="444" max="482" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>9.2757599999999982</v>
       </c>
     </row>
-    <row r="3" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>12.172651199999997</v>
       </c>
     </row>
-    <row r="4" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>13.128767999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>139.27910399999999</v>
       </c>
     </row>
-    <row r="6" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>198.35855999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>225.47231999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>293.97023999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -22143,7 +22143,7 @@
         <v>319.65695999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -24070,7 +24070,7 @@
         <v>333.641952</v>
       </c>
     </row>
-    <row r="11" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -25997,7 +25997,7 @@
         <v>353.19239999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>391.00895999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -29851,7 +29851,7 @@
         <v>400.99823999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>404.56583999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -33705,7 +33705,7 @@
         <v>440.38454400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -35632,7 +35632,7 @@
         <v>456.65279999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>459.50687999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -39486,7 +39486,7 @@
         <v>469.49615999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -41413,7 +41413,7 @@
         <v>713.52</v>
       </c>
     </row>
-    <row r="20" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -43340,7 +43340,7 @@
         <v>744.91487999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -45267,7 +45267,7 @@
         <v>970.38719999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -47193,488 +47193,6 @@
         <f>$C22*Sheet1!RN$132</f>
         <v>1575.4521599999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:482" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
-      <c r="AL23" s="2"/>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
-      <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
-      <c r="AT23" s="2"/>
-      <c r="AU23" s="2"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
-      <c r="BA23" s="2"/>
-      <c r="BB23" s="2"/>
-      <c r="BC23" s="2"/>
-      <c r="BD23" s="2"/>
-      <c r="BE23" s="2"/>
-      <c r="BF23" s="2"/>
-      <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
-      <c r="BI23" s="2"/>
-      <c r="BJ23" s="2"/>
-      <c r="BK23" s="2"/>
-      <c r="BL23" s="2"/>
-      <c r="BM23" s="2"/>
-      <c r="BN23" s="2"/>
-      <c r="BO23" s="2"/>
-      <c r="BP23" s="2"/>
-      <c r="BQ23" s="2"/>
-      <c r="BR23" s="2"/>
-      <c r="BS23" s="2"/>
-      <c r="BT23" s="2"/>
-      <c r="BU23" s="2"/>
-      <c r="BV23" s="2"/>
-      <c r="BW23" s="2"/>
-      <c r="BX23" s="2"/>
-      <c r="BY23" s="2"/>
-      <c r="BZ23" s="2"/>
-      <c r="CA23" s="2"/>
-      <c r="CB23" s="2"/>
-      <c r="CC23" s="2"/>
-      <c r="CD23" s="2"/>
-      <c r="CE23" s="2"/>
-      <c r="CF23" s="2"/>
-      <c r="CG23" s="2"/>
-      <c r="CH23" s="2"/>
-      <c r="CI23" s="2"/>
-      <c r="CJ23" s="2"/>
-      <c r="CK23" s="2"/>
-      <c r="CL23" s="2"/>
-      <c r="CM23" s="2"/>
-      <c r="CN23" s="2"/>
-      <c r="CO23" s="2"/>
-      <c r="CP23" s="2"/>
-      <c r="CQ23" s="2"/>
-      <c r="CR23" s="2"/>
-      <c r="CS23" s="2"/>
-      <c r="CT23" s="2"/>
-      <c r="CU23" s="2"/>
-      <c r="CV23" s="2"/>
-      <c r="CW23" s="2"/>
-      <c r="CX23" s="2"/>
-      <c r="CY23" s="2"/>
-      <c r="CZ23" s="2"/>
-      <c r="DA23" s="2"/>
-      <c r="DB23" s="2"/>
-      <c r="DC23" s="2"/>
-      <c r="DD23" s="2"/>
-      <c r="DE23" s="2"/>
-      <c r="DF23" s="2"/>
-      <c r="DG23" s="2"/>
-      <c r="DH23" s="2"/>
-      <c r="DI23" s="2"/>
-      <c r="DJ23" s="2"/>
-      <c r="DK23" s="2"/>
-      <c r="DL23" s="2"/>
-      <c r="DM23" s="2"/>
-      <c r="DN23" s="2"/>
-      <c r="DO23" s="2"/>
-      <c r="DP23" s="2"/>
-      <c r="DQ23" s="2"/>
-      <c r="DR23" s="2"/>
-      <c r="DS23" s="2"/>
-      <c r="DT23" s="2"/>
-      <c r="DU23" s="2"/>
-      <c r="DV23" s="2"/>
-      <c r="DW23" s="2"/>
-      <c r="DX23" s="2"/>
-      <c r="DY23" s="2"/>
-      <c r="DZ23" s="2"/>
-      <c r="EA23" s="2"/>
-      <c r="EB23" s="2"/>
-      <c r="EC23" s="2"/>
-      <c r="ED23" s="2"/>
-      <c r="EE23" s="2"/>
-      <c r="EF23" s="2"/>
-      <c r="EG23" s="2"/>
-      <c r="EH23" s="2"/>
-      <c r="EI23" s="2"/>
-      <c r="EJ23" s="2"/>
-      <c r="EK23" s="2"/>
-      <c r="EL23" s="2"/>
-      <c r="EM23" s="2"/>
-      <c r="EN23" s="2"/>
-      <c r="EO23" s="2"/>
-      <c r="EP23" s="2"/>
-      <c r="EQ23" s="2"/>
-      <c r="ER23" s="2"/>
-      <c r="ES23" s="2"/>
-      <c r="ET23" s="2"/>
-      <c r="EU23" s="2"/>
-      <c r="EV23" s="2"/>
-      <c r="EW23" s="2"/>
-      <c r="EX23" s="2"/>
-      <c r="EY23" s="2"/>
-      <c r="EZ23" s="2"/>
-      <c r="FA23" s="2"/>
-      <c r="FB23" s="2"/>
-      <c r="FC23" s="2"/>
-      <c r="FD23" s="2"/>
-      <c r="FE23" s="2"/>
-      <c r="FF23" s="2"/>
-      <c r="FG23" s="2"/>
-      <c r="FH23" s="2"/>
-      <c r="FI23" s="2"/>
-      <c r="FJ23" s="2"/>
-      <c r="FK23" s="2"/>
-      <c r="FL23" s="2"/>
-      <c r="FM23" s="2"/>
-      <c r="FN23" s="2"/>
-      <c r="FO23" s="2"/>
-      <c r="FP23" s="2"/>
-      <c r="FQ23" s="2"/>
-      <c r="FR23" s="2"/>
-      <c r="FS23" s="2"/>
-      <c r="FT23" s="2"/>
-      <c r="FU23" s="2"/>
-      <c r="FV23" s="2"/>
-      <c r="FW23" s="2"/>
-      <c r="FX23" s="2"/>
-      <c r="FY23" s="2"/>
-      <c r="FZ23" s="2"/>
-      <c r="GA23" s="2"/>
-      <c r="GB23" s="2"/>
-      <c r="GC23" s="2"/>
-      <c r="GD23" s="2"/>
-      <c r="GE23" s="2"/>
-      <c r="GF23" s="2"/>
-      <c r="GG23" s="2"/>
-      <c r="GH23" s="2"/>
-      <c r="GI23" s="2"/>
-      <c r="GJ23" s="2"/>
-      <c r="GK23" s="2"/>
-      <c r="GL23" s="2"/>
-      <c r="GM23" s="2"/>
-      <c r="GN23" s="2"/>
-      <c r="GO23" s="2"/>
-      <c r="GP23" s="2"/>
-      <c r="GQ23" s="2"/>
-      <c r="GR23" s="2"/>
-      <c r="GS23" s="2"/>
-      <c r="GT23" s="2"/>
-      <c r="GU23" s="2"/>
-      <c r="GV23" s="2"/>
-      <c r="GW23" s="2"/>
-      <c r="GX23" s="2"/>
-      <c r="GY23" s="2"/>
-      <c r="GZ23" s="2"/>
-      <c r="HA23" s="2"/>
-      <c r="HB23" s="2"/>
-      <c r="HC23" s="2"/>
-      <c r="HD23" s="2"/>
-      <c r="HE23" s="2"/>
-      <c r="HF23" s="2"/>
-      <c r="HG23" s="2"/>
-      <c r="HH23" s="2"/>
-      <c r="HI23" s="2"/>
-      <c r="HJ23" s="2"/>
-      <c r="HK23" s="2"/>
-      <c r="HL23" s="2"/>
-      <c r="HM23" s="2"/>
-      <c r="HN23" s="2"/>
-      <c r="HO23" s="2"/>
-      <c r="HP23" s="2"/>
-      <c r="HQ23" s="2"/>
-      <c r="HR23" s="2"/>
-      <c r="HS23" s="2"/>
-      <c r="HT23" s="2"/>
-      <c r="HU23" s="2"/>
-      <c r="HV23" s="2"/>
-      <c r="HW23" s="2"/>
-      <c r="HX23" s="2"/>
-      <c r="HY23" s="2"/>
-      <c r="HZ23" s="2"/>
-      <c r="IA23" s="2"/>
-      <c r="IB23" s="2"/>
-      <c r="IC23" s="2"/>
-      <c r="ID23" s="2"/>
-      <c r="IE23" s="2"/>
-      <c r="IF23" s="2"/>
-      <c r="IG23" s="2"/>
-      <c r="IH23" s="2"/>
-      <c r="II23" s="2"/>
-      <c r="IJ23" s="2"/>
-      <c r="IK23" s="2"/>
-      <c r="IL23" s="2"/>
-      <c r="IM23" s="2"/>
-      <c r="IN23" s="2"/>
-      <c r="IO23" s="2"/>
-      <c r="IP23" s="2"/>
-      <c r="IQ23" s="2"/>
-      <c r="IR23" s="2"/>
-      <c r="IS23" s="2"/>
-      <c r="IT23" s="2"/>
-      <c r="IU23" s="2"/>
-      <c r="IV23" s="2"/>
-      <c r="IW23" s="2"/>
-      <c r="IX23" s="2"/>
-      <c r="IY23" s="2"/>
-      <c r="IZ23" s="2"/>
-      <c r="JA23" s="2"/>
-      <c r="JB23" s="2"/>
-      <c r="JC23" s="2"/>
-      <c r="JD23" s="2"/>
-      <c r="JE23" s="2"/>
-      <c r="JF23" s="2"/>
-      <c r="JG23" s="2"/>
-      <c r="JH23" s="2"/>
-      <c r="JI23" s="2"/>
-      <c r="JJ23" s="2"/>
-      <c r="JK23" s="2"/>
-      <c r="JL23" s="2"/>
-      <c r="JM23" s="2"/>
-      <c r="JN23" s="2"/>
-      <c r="JO23" s="2"/>
-      <c r="JP23" s="2"/>
-      <c r="JQ23" s="2"/>
-      <c r="JR23" s="2"/>
-      <c r="JS23" s="2"/>
-      <c r="JT23" s="2"/>
-      <c r="JU23" s="2"/>
-      <c r="JV23" s="2"/>
-      <c r="JW23" s="2"/>
-      <c r="JX23" s="2"/>
-      <c r="JY23" s="2"/>
-      <c r="JZ23" s="2"/>
-      <c r="KA23" s="2"/>
-      <c r="KB23" s="2"/>
-      <c r="KC23" s="2"/>
-      <c r="KD23" s="2"/>
-      <c r="KE23" s="2"/>
-      <c r="KF23" s="2"/>
-      <c r="KG23" s="2"/>
-      <c r="KH23" s="2"/>
-      <c r="KI23" s="2"/>
-      <c r="KJ23" s="2"/>
-      <c r="KK23" s="2"/>
-      <c r="KL23" s="2"/>
-      <c r="KM23" s="2"/>
-      <c r="KN23" s="2"/>
-      <c r="KO23" s="2"/>
-      <c r="KP23" s="2"/>
-      <c r="KQ23" s="2"/>
-      <c r="KR23" s="2"/>
-      <c r="KS23" s="2"/>
-      <c r="KT23" s="2"/>
-      <c r="KU23" s="2"/>
-      <c r="KV23" s="2"/>
-      <c r="KW23" s="2"/>
-      <c r="KX23" s="2"/>
-      <c r="KY23" s="2"/>
-      <c r="KZ23" s="2"/>
-      <c r="LA23" s="2"/>
-      <c r="LB23" s="2"/>
-      <c r="LC23" s="2"/>
-      <c r="LD23" s="2"/>
-      <c r="LE23" s="2"/>
-      <c r="LF23" s="2"/>
-      <c r="LG23" s="2"/>
-      <c r="LH23" s="2"/>
-      <c r="LI23" s="2"/>
-      <c r="LJ23" s="2"/>
-      <c r="LK23" s="2"/>
-      <c r="LL23" s="2"/>
-      <c r="LM23" s="2"/>
-      <c r="LN23" s="2"/>
-      <c r="LO23" s="2"/>
-      <c r="LP23" s="2"/>
-      <c r="LQ23" s="2"/>
-      <c r="LR23" s="2"/>
-      <c r="LS23" s="2"/>
-      <c r="LT23" s="2"/>
-      <c r="LU23" s="2"/>
-      <c r="LV23" s="2"/>
-      <c r="LW23" s="2"/>
-      <c r="LX23" s="2"/>
-      <c r="LY23" s="2"/>
-      <c r="LZ23" s="2"/>
-      <c r="MA23" s="2"/>
-      <c r="MB23" s="2"/>
-      <c r="MC23" s="2"/>
-      <c r="MD23" s="2"/>
-      <c r="ME23" s="2"/>
-      <c r="MF23" s="2"/>
-      <c r="MG23" s="2"/>
-      <c r="MH23" s="2"/>
-      <c r="MI23" s="2"/>
-      <c r="MJ23" s="2"/>
-      <c r="MK23" s="2"/>
-      <c r="ML23" s="2"/>
-      <c r="MM23" s="2"/>
-      <c r="MN23" s="2"/>
-      <c r="MO23" s="2"/>
-      <c r="MP23" s="2"/>
-      <c r="MQ23" s="2"/>
-      <c r="MR23" s="2"/>
-      <c r="MS23" s="2"/>
-      <c r="MT23" s="2"/>
-      <c r="MU23" s="2"/>
-      <c r="MV23" s="2"/>
-      <c r="MW23" s="2"/>
-      <c r="MX23" s="2"/>
-      <c r="MY23" s="2"/>
-      <c r="MZ23" s="2"/>
-      <c r="NA23" s="2"/>
-      <c r="NB23" s="2"/>
-      <c r="NC23" s="2"/>
-      <c r="ND23" s="2"/>
-      <c r="NE23" s="2"/>
-      <c r="NF23" s="2"/>
-      <c r="NG23" s="2"/>
-      <c r="NH23" s="2"/>
-      <c r="NI23" s="2"/>
-      <c r="NJ23" s="2"/>
-      <c r="NK23" s="2"/>
-      <c r="NL23" s="2"/>
-      <c r="NM23" s="2"/>
-      <c r="NN23" s="2"/>
-      <c r="NO23" s="2"/>
-      <c r="NP23" s="2"/>
-      <c r="NQ23" s="2"/>
-      <c r="NR23" s="2"/>
-      <c r="NS23" s="2"/>
-      <c r="NT23" s="2"/>
-      <c r="NU23" s="2"/>
-      <c r="NV23" s="2"/>
-      <c r="NW23" s="2"/>
-      <c r="NX23" s="2"/>
-      <c r="NY23" s="2"/>
-      <c r="NZ23" s="2"/>
-      <c r="OA23" s="2"/>
-      <c r="OB23" s="2"/>
-      <c r="OC23" s="2"/>
-      <c r="OD23" s="2"/>
-      <c r="OE23" s="2"/>
-      <c r="OF23" s="2"/>
-      <c r="OG23" s="2"/>
-      <c r="OH23" s="2"/>
-      <c r="OI23" s="2"/>
-      <c r="OJ23" s="2"/>
-      <c r="OK23" s="2"/>
-      <c r="OL23" s="2"/>
-      <c r="OM23" s="2"/>
-      <c r="ON23" s="2"/>
-      <c r="OO23" s="2"/>
-      <c r="OP23" s="2"/>
-      <c r="OQ23" s="2"/>
-      <c r="OR23" s="2"/>
-      <c r="OS23" s="2"/>
-      <c r="OT23" s="2"/>
-      <c r="OU23" s="2"/>
-      <c r="OV23" s="2"/>
-      <c r="OW23" s="2"/>
-      <c r="OX23" s="2"/>
-      <c r="OY23" s="2"/>
-      <c r="OZ23" s="2"/>
-      <c r="PA23" s="2"/>
-      <c r="PB23" s="2"/>
-      <c r="PC23" s="2"/>
-      <c r="PD23" s="2"/>
-      <c r="PE23" s="2"/>
-      <c r="PF23" s="2"/>
-      <c r="PG23" s="2"/>
-      <c r="PH23" s="2"/>
-      <c r="PI23" s="2"/>
-      <c r="PJ23" s="2"/>
-      <c r="PK23" s="2"/>
-      <c r="PL23" s="2"/>
-      <c r="PM23" s="2"/>
-      <c r="PN23" s="2"/>
-      <c r="PO23" s="2"/>
-      <c r="PP23" s="2"/>
-      <c r="PQ23" s="2"/>
-      <c r="PR23" s="2"/>
-      <c r="PS23" s="2"/>
-      <c r="PT23" s="2"/>
-      <c r="PU23" s="2"/>
-      <c r="PV23" s="2"/>
-      <c r="PW23" s="2"/>
-      <c r="PX23" s="2"/>
-      <c r="PY23" s="2"/>
-      <c r="PZ23" s="2"/>
-      <c r="QA23" s="2"/>
-      <c r="QB23" s="2"/>
-      <c r="QC23" s="2"/>
-      <c r="QD23" s="2"/>
-      <c r="QE23" s="2"/>
-      <c r="QF23" s="2"/>
-      <c r="QG23" s="2"/>
-      <c r="QH23" s="2"/>
-      <c r="QI23" s="2"/>
-      <c r="QJ23" s="2"/>
-      <c r="QK23" s="2"/>
-      <c r="QL23" s="2"/>
-      <c r="QM23" s="2"/>
-      <c r="QN23" s="2"/>
-      <c r="QO23" s="2"/>
-      <c r="QP23" s="2"/>
-      <c r="QQ23" s="2"/>
-      <c r="QR23" s="2"/>
-      <c r="QS23" s="2"/>
-      <c r="QT23" s="2"/>
-      <c r="QU23" s="2"/>
-      <c r="QV23" s="2"/>
-      <c r="QW23" s="2"/>
-      <c r="QX23" s="2"/>
-      <c r="QY23" s="2"/>
-      <c r="QZ23" s="2"/>
-      <c r="RA23" s="2"/>
-      <c r="RB23" s="2"/>
-      <c r="RC23" s="2"/>
-      <c r="RD23" s="2"/>
-      <c r="RE23" s="2"/>
-      <c r="RF23" s="2"/>
-      <c r="RG23" s="2"/>
-      <c r="RH23" s="2"/>
-      <c r="RI23" s="2"/>
-      <c r="RJ23" s="2"/>
-      <c r="RK23" s="2"/>
-      <c r="RL23" s="2"/>
-      <c r="RM23" s="2"/>
-      <c r="RN23" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -47691,9 +47209,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -47845,7 +47363,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -48045,7 +47563,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -48246,7 +47764,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -48447,7 +47965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -48648,7 +48166,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -48849,7 +48367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -49050,7 +48568,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -49251,7 +48769,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -49452,7 +48970,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -49653,7 +49171,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -49867,17 +49385,17 @@
       <selection activeCell="A130" sqref="A130:XFD170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -49921,12 +49439,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -49967,7 +49485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -50008,7 +49526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -50049,7 +49567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -50090,7 +49608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -50131,7 +49649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -50172,7 +49690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -50213,7 +49731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -50254,7 +49772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -50295,7 +49813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -50336,7 +49854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -50377,7 +49895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -50418,7 +49936,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -50459,7 +49977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -50500,7 +50018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -50541,7 +50059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -50582,7 +50100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -50623,7 +50141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -50664,7 +50182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -50705,7 +50223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -50746,7 +50264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -50787,7 +50305,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -50828,7 +50346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -50869,7 +50387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <v>24</v>
       </c>
@@ -50910,7 +50428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -50951,7 +50469,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -50992,7 +50510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -51033,7 +50551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -51074,7 +50592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -51115,7 +50633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -51156,7 +50674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <v>31</v>
       </c>
@@ -51197,7 +50715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <v>32</v>
       </c>
@@ -51238,7 +50756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <v>33</v>
       </c>
@@ -51279,7 +50797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -51320,7 +50838,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -51361,7 +50879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -51402,7 +50920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -51443,7 +50961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -51484,7 +51002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -51525,7 +51043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -51534,15 +51052,15 @@
         <v>6254.2300000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -51610,12 +51128,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
         <v>30</v>
       </c>
@@ -51680,7 +51198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
         <v>31</v>
       </c>
@@ -51745,7 +51263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
         <v>32</v>
       </c>
@@ -51810,7 +51328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
         <v>33</v>
       </c>
@@ -51875,7 +51393,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
         <v>34</v>
       </c>
@@ -51940,7 +51458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
         <v>35</v>
       </c>
@@ -52005,7 +51523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
         <v>36</v>
       </c>
@@ -52070,7 +51588,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
         <v>37</v>
       </c>
@@ -52135,7 +51653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
         <v>38</v>
       </c>
@@ -52200,7 +51718,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
         <v>39</v>
       </c>
@@ -52265,20 +51783,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -52322,12 +51840,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1">
         <v>1</v>
       </c>
@@ -52371,7 +51889,7 @@
         <v>243.30900243309003</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -52415,7 +51933,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1">
         <v>2</v>
       </c>
@@ -52459,7 +51977,7 @@
         <v>662.25165562913901</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1">
         <v>2</v>
       </c>
@@ -52503,7 +52021,7 @@
         <v>1162.7906976744184</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1">
         <v>2</v>
       </c>
@@ -52547,7 +52065,7 @@
         <v>552.48618784530379</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1">
         <v>3</v>
       </c>
@@ -52591,7 +52109,7 @@
         <v>469.48356807511738</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1">
         <v>3</v>
       </c>
@@ -52635,7 +52153,7 @@
         <v>751.87969924812035</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1">
         <v>4</v>
       </c>
@@ -52679,7 +52197,7 @@
         <v>781.25</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1">
         <v>4</v>
       </c>
@@ -52723,7 +52241,7 @@
         <v>775.19379844961236</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1">
         <v>5</v>
       </c>
@@ -52767,7 +52285,7 @@
         <v>3846.1538461538466</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1">
         <v>5</v>
       </c>
@@ -52811,7 +52329,7 @@
         <v>892.85714285714289</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1">
         <v>6</v>
       </c>
@@ -52855,7 +52373,7 @@
         <v>1086.9565217391305</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1">
         <v>6</v>
       </c>
@@ -52899,7 +52417,7 @@
         <v>1219.5121951219512</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1">
         <v>6</v>
       </c>
@@ -52943,7 +52461,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1">
         <v>7</v>
       </c>
@@ -52987,7 +52505,7 @@
         <v>2173.913043478261</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1">
         <v>8</v>
       </c>
@@ -53031,7 +52549,7 @@
         <v>275.48209366391183</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1">
         <v>9</v>
       </c>
@@ -53075,7 +52593,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1">
         <v>10</v>
       </c>
@@ -53119,7 +52637,7 @@
         <v>2325.5813953488368</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1">
         <v>10</v>
       </c>
@@ -53163,7 +52681,7 @@
         <v>2325.5813953488368</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1">
         <v>10</v>
       </c>
@@ -53207,7 +52725,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1">
         <v>12</v>
       </c>
@@ -53251,7 +52769,7 @@
         <v>229.88505747126439</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1">
         <v>12</v>
       </c>
@@ -53295,7 +52813,7 @@
         <v>229.88505747126439</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1">
         <v>13</v>
       </c>
@@ -53339,7 +52857,7 @@
         <v>990.09900990099015</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1">
         <v>14</v>
       </c>
@@ -53383,7 +52901,7 @@
         <v>460.82949308755758</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1">
         <v>15</v>
       </c>
@@ -53427,7 +52945,7 @@
         <v>1063.8297872340424</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1">
         <v>16</v>
       </c>
@@ -53471,7 +52989,7 @@
         <v>1123.5955056179776</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1">
         <v>16</v>
       </c>
@@ -53515,7 +53033,7 @@
         <v>512.82051282051282</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1">
         <v>16</v>
       </c>
@@ -53559,7 +53077,7 @@
         <v>740.74074074074076</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1">
         <v>16</v>
       </c>
@@ -53603,7 +53121,7 @@
         <v>1694.9152542372883</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1">
         <v>17</v>
       </c>
@@ -53647,7 +53165,7 @@
         <v>1219.5121951219512</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1">
         <v>17</v>
       </c>
@@ -53691,7 +53209,7 @@
         <v>578.03468208092488</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1">
         <v>19</v>
       </c>
@@ -53735,7 +53253,7 @@
         <v>724.63768115942025</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1">
         <v>19</v>
       </c>
@@ -53779,7 +53297,7 @@
         <v>704.22535211267598</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1">
         <v>20</v>
       </c>
@@ -53823,7 +53341,7 @@
         <v>555.55555555555554</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1">
         <v>21</v>
       </c>
@@ -53867,7 +53385,7 @@
         <v>714.28571428571433</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1">
         <v>22</v>
       </c>
@@ -53911,7 +53429,7 @@
         <v>1041.6666666666667</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1">
         <v>22</v>
       </c>
@@ -53955,7 +53473,7 @@
         <v>699.30069930069931</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="1">
         <v>23</v>
       </c>
@@ -53999,7 +53517,7 @@
         <v>285.71428571428567</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="1">
         <v>23</v>
       </c>
@@ -54043,7 +53561,7 @@
         <v>367.64705882352939</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1">
         <v>25</v>
       </c>
@@ -54087,7 +53605,7 @@
         <v>309.59752321981421</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1">
         <v>25</v>
       </c>
@@ -54131,7 +53649,7 @@
         <v>431.0344827586207</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1">
         <v>26</v>
       </c>
@@ -54175,7 +53693,7 @@
         <v>680.27210884353747</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1">
         <v>26</v>
       </c>
@@ -54219,7 +53737,7 @@
         <v>210.9704641350211</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1">
         <v>26</v>
       </c>
@@ -54263,7 +53781,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1">
         <v>28</v>
       </c>
@@ -54307,7 +53825,7 @@
         <v>662.25165562913901</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1">
         <v>29</v>
       </c>
@@ -54351,25 +53869,25 @@
         <v>641.02564102564099</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -54401,7 +53919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>25</v>
       </c>
@@ -54427,12 +53945,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1">
         <v>2</v>
       </c>
@@ -54455,7 +53973,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1">
         <v>2</v>
       </c>
@@ -54478,7 +53996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -54501,7 +54019,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="1">
         <v>2</v>
       </c>
@@ -54524,7 +54042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1">
         <v>2</v>
       </c>
@@ -54547,7 +54065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="1">
         <v>2</v>
       </c>
@@ -54570,7 +54088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="1">
         <v>2</v>
       </c>
@@ -54593,7 +54111,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -54616,7 +54134,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="1">
         <v>2</v>
       </c>
@@ -54639,7 +54157,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1">
         <v>2</v>
       </c>
@@ -54662,17 +54180,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="C130" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -54821,7 +54339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>1</v>
       </c>
@@ -56269,7 +55787,7 @@
         <v>1.4270399999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>2</v>
       </c>
@@ -56277,7 +55795,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="134" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>3</v>
       </c>
@@ -56285,7 +55803,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="135" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>4</v>
       </c>
@@ -56293,7 +55811,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="136" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>5</v>
       </c>
@@ -56301,7 +55819,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="137" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>6</v>
       </c>
@@ -56309,7 +55827,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="138" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>7</v>
       </c>
@@ -56317,7 +55835,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="139" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>8</v>
       </c>
@@ -56325,7 +55843,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="140" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>9</v>
       </c>
@@ -56333,7 +55851,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="141" spans="1:482" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:482" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>10</v>
       </c>
@@ -56341,12 +55859,12 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>1</v>
       </c>
@@ -56495,7 +56013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>2</v>
       </c>
@@ -56644,7 +56162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>3</v>
       </c>
@@ -56793,7 +56311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>4</v>
       </c>
@@ -56942,7 +56460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>5</v>
       </c>
@@ -57091,7 +56609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>6</v>
       </c>
@@ -57240,7 +56758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>7</v>
       </c>
@@ -57389,7 +56907,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>8</v>
       </c>
@@ -57538,7 +57056,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>9</v>
       </c>
@@ -57687,7 +57205,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>10</v>
       </c>
@@ -57836,12 +57354,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>1</v>
       </c>
@@ -58042,7 +57560,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>2</v>
       </c>
@@ -58242,7 +57760,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>3</v>
       </c>
@@ -58442,7 +57960,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>4</v>
       </c>
@@ -58642,7 +58160,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>5</v>
       </c>
@@ -58842,7 +58360,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>6</v>
       </c>
@@ -59042,7 +58560,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>7</v>
       </c>
@@ -59242,7 +58760,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>8</v>
       </c>
@@ -59443,7 +58961,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>9</v>
       </c>
@@ -59643,7 +59161,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:51" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>10</v>
       </c>
